--- a/58同城多城市职位详细信息.xlsx
+++ b/58同城多城市职位详细信息.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>北京嘉言文化发展有限公司</t>
+          <t>北京中昌软件技术有限公司</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -573,55 +573,63 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>91110108MA01MH8X55</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>91110101095807770R</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>300万</t>
+          <t>200万</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>北京市朝阳区</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>王先生</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>北京-西城-三里河 河南省洛阳市洛龙区长兴街</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>北京嘉言文化发展有限公司,成立日期:2019年09月09日,创建于北京市,经营范围:一般项目：组织文化艺术交流活动；健康咨询服务（不含诊疗服务）；远程健康管理服务；体育健康服务；林业产品销售；自然科学研究和试验发展；医学研究和试验发展；工程和技术研究和试验发展；日用化学产品制造；新材料技术推广服务；文艺创作；企业形象策划；五金产品研发；广告发布；广告设计、代理；广告制作；包装服务；会议及展览服务；技术服务、技术开发、技术咨询、技术交流、技术转让、技术推广；市场调查（不含涉外调查）；规划设计管理；咨询策划服务；企业管理咨询；翻译服务；人体干细胞技术开发和应用；信息技术咨询服务；软件开发。（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）（不得从事国家和本市产业政策禁止和限制类项目的经营活动。）,企业注册地址:北京市通州区临河里街道净水园15号楼2层1043;诚挚邀请您的加入！</t>
+          <t>主要从事地铁工程建设行业全过程造价管理软件开发及实施</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>产品经理</t>
+          <t>运维工程师</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>非面谈</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>6000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>11000</v>
-      </c>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>北京 - 朝阳</t>
+          <t>北京 - 丰台</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3-5年</t>
+          <t>1-2年</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -636,19 +644,19 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr">
         <is>
-          <t>- 负责合香产品的生产管理- 负责产品质量把控- 负责团队人员管理【职位要求】- 年龄28~45岁- 本科学历- 3-5年相关工作经验【工作时间】- 10:00-19:00【薪资福利】- 薪资范围：6000-11000元</t>
+          <t>1、负责公司已经验收的软件项目的维护、管理、故障排除等日常工作，通过QQ/电话/微信解答用户提出的软件使用问题，如果自身解决不了，提交公司总部开发人员协助解决，确保软件的正常运作；2、维护软件系统的运行环境，对系统数据进行备份。职位要求：1、通信、电子工程、自动化、计算机等相关专业，本科或以上学历，1年以上软件系统与IT系统维护工作经验；2、熟悉和掌握各种计算机软硬件，可独立进行安装、调试及故障排除；3、精通局域网的维护及网络安全知识，可熟练进行局域网的搭建和网络设备的基本维护和故障处理；4、熟练运用WINDOWS、Oracle数据库等对服务器进行维护与管理；5、工作主动性强，耐心细致，有责任心，具备团队合作精神。6、有工程建设行业工作经验者优先考虑。7、签订3年合同，试用期3个月。工作时间：8:30-17:30</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>- 年龄28~45岁- 本科学历- 3-5年相关工作经验【工作时间】- 10:00-19:00【薪资福利】- 薪资范围：6000-11000元</t>
+          <t>1、通信、电子工程、自动化、计算机等相关专业，本科或以上学历，1年以上软件系统与IT系统维护工作经验；2、熟悉和掌握各种计算机软硬件，可独立进行安装、调试及故障排除；3、精通局域网的维护及网络安全知识，可熟练进行局域网的搭建和网络设备的基本维护和故障处理；4、熟练运用WINDOWS、Oracle数据库等对服务器进行维护与管理；5、工作主动性强，耐心细致，有责任心，具备团队合作精神。6、有工程建设行业工作经验者优先考虑。7、签订3年合同，试用期3个月。工作时间：8:30-17:30</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>北京中昌软件技术有限公司</t>
+          <t>北京嘉言文化发展有限公司</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -658,63 +666,55 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>91110101095807770R</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20-99</t>
-        </is>
-      </c>
+          <t>91110108MA01MH8X55</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>200万</t>
+          <t>300万</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>北京市丰台区</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>王先生</t>
-        </is>
-      </c>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>北京-西城-三里河 河南省洛阳市洛龙区长兴街</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>主要从事地铁工程建设行业全过程造价管理软件开发及实施</t>
+          <t>北京嘉言文化发展有限公司,成立日期:2019年09月09日,创建于北京市,经营范围:一般项目：组织文化艺术交流活动；健康咨询服务（不含诊疗服务）；远程健康管理服务；体育健康服务；林业产品销售；自然科学研究和试验发展；医学研究和试验发展；工程和技术研究和试验发展；日用化学产品制造；新材料技术推广服务；文艺创作；企业形象策划；五金产品研发；广告发布；广告设计、代理；广告制作；包装服务；会议及展览服务；技术服务、技术开发、技术咨询、技术交流、技术转让、技术推广；市场调查（不含涉外调查）；规划设计管理；咨询策划服务；企业管理咨询；翻译服务；人体干细胞技术开发和应用；信息技术咨询服务；软件开发。（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）（不得从事国家和本市产业政策禁止和限制类项目的经营活动。）,企业注册地址:北京市通州区临河里街道净水园15号楼2层1043;诚挚邀请您的加入！</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>运维工程师</t>
+          <t>产品经理</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>面谈</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>11000</v>
+      </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>北京 - 丰台</t>
+          <t>北京 - 朝阳</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1-2年</t>
+          <t>3-5年</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -729,12 +729,12 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1、负责公司已经验收的软件项目的维护、管理、故障排除等日常工作，通过QQ/电话/微信解答用户提出的软件使用问题，如果自身解决不了，提交公司总部开发人员协助解决，确保软件的正常运作；2、维护软件系统的运行环境，对系统数据进行备份。职位要求：1、通信、电子工程、自动化、计算机等相关专业，本科或以上学历，1年以上软件系统与IT系统维护工作经验；2、熟悉和掌握各种计算机软硬件，可独立进行安装、调试及故障排除；3、精通局域网的维护及网络安全知识，可熟练进行局域网的搭建和网络设备的基本维护和故障处理；4、熟练运用WINDOWS、Oracle数据库等对服务器进行维护与管理；5、工作主动性强，耐心细致，有责任心，具备团队合作精神。6、有工程建设行业工作经验者优先考虑。7、签订3年合同，试用期3个月。工作时间：8:30-17:30</t>
+          <t>- 负责合香产品的生产管理- 负责产品质量把控- 负责团队人员管理【职位要求】- 年龄28~45岁- 本科学历- 3-5年相关工作经验【工作时间】- 10:00-19:00【薪资福利】- 薪资范围：6000-11000元</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1、通信、电子工程、自动化、计算机等相关专业，本科或以上学历，1年以上软件系统与IT系统维护工作经验；2、熟悉和掌握各种计算机软硬件，可独立进行安装、调试及故障排除；3、精通局域网的维护及网络安全知识，可熟练进行局域网的搭建和网络设备的基本维护和故障处理；4、熟练运用WINDOWS、Oracle数据库等对服务器进行维护与管理；5、工作主动性强，耐心细致，有责任心，具备团队合作精神。6、有工程建设行业工作经验者优先考虑。7、签订3年合同，试用期3个月。工作时间：8:30-17:30</t>
+          <t>- 年龄28~45岁- 本科学历- 3-5年相关工作经验【工作时间】- 10:00-19:00【薪资福利】- 薪资范围：6000-11000元</t>
         </is>
       </c>
     </row>
@@ -956,15 +956,11 @@
           <t>非面谈</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15000</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>20000</t>
-        </is>
+      <c r="P6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>20000</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -994,6 +990,8376 @@
       <c r="Y6" t="inlineStr">
         <is>
           <t>-及以上，毕业于国内985或海外QS0院校-3年及以上互联网行业产品经验-具备产品设计或BA相关经验-熟练使用AI工具辅助完成工作-熟练运用逻辑思维和工具思维，擅长数据分析和需求调研-优秀的中英文文档撰写能力和英语沟通能力-对大语言模型和AIAgent有浓厚兴趣</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>巽灵科技（北京）有限公司</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>91110108MACXH1AG9F</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>500万</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8000</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>1.需求理解与开发?深入研究汽车/能源供应链业务场景，与产品、业务团队沟通，通过需求反讲评审，精准把握前端交互与视觉需求。?基于设计文档，使用Vue、React等主流框架完成供应链系统前端模块开发，实现组件化、响应式界面，确保交互逻辑与视觉效果符合产品要求。2.系统优化与协作?参与代码审查，优化前端代码的可维护性、性能与用户体验（如首屏加载、动画流畅度）。?负责前端模块的单元测试与联调，配合测试团队完成集成测试，编写测试用例，保障系统稳定运行；与后端、设计、运维团队协作推进项目落地。3.技术创新与探索?关注前端技术趋势，引入新技术（如Webpack/Vite性能优化、前端缓存策略）和组件库（如AntDesign、ECharts），优化数据可视化与交互体验。?参与技术研讨，分享前端开发经验，推动团队技术能力提升（如性能优化方案、组件复用规范）。4.项目支持与维护?在项目实施阶段为现场团队提供前端技术支持，解决部署、兼容性等问题。?维护已上线系统，及时修复前端故障，根据业务反馈持续优化界面交互与功能迭代。</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>1.与专业?及以上，计算机相关专业，应届或1-2年前端开发经验均可。2.技能要求?前端框架：熟练掌握Vue、React，精通ReactHooks、组件化开发、状态管理（Redux/ContextAPI）、路由（ReactRouter）及性能优化策略。?组件库与工具：熟练使用AntDesign、ElementUI、ECharts等组件库，能基于业务需求定制组件。?核心语言：精通JavaScript（ES6+特性），能编写高效、可维护的代码，掌握异步编程（Promise/Async-Await）、闭包、原型链等核心概念。?基础技术：精通HTML5、CSS3，深刻理解语义化标签、盒模型、Flexbox/Grid布局、响应式设计原理，能处理浏览器兼容性问题（如不同设备适配、IE兼容方案）。?前端工程化：熟悉Webpack、Vite等构建工具，掌握npm/yarn/pnpm包管理，了解前端模块化（Co onJS/ESModule）与构建流程优化。?样式方案：熟练使用Sass/ s等CSS预处理器或CSS-in-JS（如styled-components），具备自定义主题与样式规范设计能力。?调试</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>北京亿智云科技有限公司</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>91110108MA00CC7D6M</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3000万</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>北京市西城区</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>网络/系统安全</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>18000</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>北京 - 西城</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>8</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>一、岗位概述本岗位聚焦项目现场安全运维工作，以保障客户系统、网络及数据的安全稳定运行为核心目标。通过与客户紧密配合提供安全支持，负责安全设备运营、应急响应、网络环境梳理及必要的技术文档撰写，同时承担安全事件监控分析、制度完善、风险评估等任务，需协调内部团队资源，满足客户安全需求。二、主要工作职责1、客户配合与安全支持1.1作为客户对接的核心接口，深度配合客户完成安全相关工作：1.2协助梳理客户安全策略，确保其符合业务场景与合规要求；1.3开展漏洞排查（如SQL注入等常见漏洞），提供针对性修复建议并跟踪整改效果；1.4定期向客户反馈安全运维进展，主动了解需求变化并协调资源响应。2、安全设备运营管理2.1负责防火墙、IDS/IPS等安全设备的日常配置、策略优化与状态监控，确保设备稳定运行；2.2结合客户网络架构特点，优化设备部署模式，提升安全防护的精准性与有效性。3、应急响应与事件处理3.1安全事件发生时，快速提供修复建议，协助业务系统人员执行具体操作，控制事件影响范围；3.2事后复盘事件根源，制定预防措施，更新应急预案。4、网络环境与安全评估4.1深入熟悉客户网络架构，包括内外网分离、D</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>1、与专业计算机、网络安全、信息安全等相关专业，及以上。2、经验要求a,5年以上安全运维相关工作经验，有驻场服务经验者优先；b,具备客户对接经验，熟悉服务型岗位的沟通逻辑与协作模式。3、专业技能a,安全设备操作：熟练配置与管理防火墙、IDS/IPS等设备，理解其部署模式与技术逻辑；b,漏洞管理：能处理SQL注入等常见安全漏洞，提供有效修复建议；c,网络基础：掌握网络架构知识，理解内外网分离、DMZ区域等设计原理；d,应急响应：具备安全事件研判能力，能快速定位问题并提出解决方案；e,渗透测试：有渗透测试经验，熟悉测试流程、工具及漏洞利用技术者优先。4、综合素质a,沟通协调：具备出色的客户沟通与跨团队协作能力，能清晰传递技术信息并协调资源；b,工作态度：积极主动，能适应快节奏、多变化的工作环境及驻场模式；c,学习能力：主动学习新技术、新工具，应对不断变化的网络安全威胁。四、岗位权限1、有权对项目现场及客户侧的系统、网络、安全设备进行安全检查与状态监控；2、有权要求客户及内部团队配合提供安全运维所需的信息、数据及资源支持；3、对发现的安全隐患，有权提出整改建议并跟踪落实，必要时上报客户及内部</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>北京信源电子信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>91110108102055686N</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>北京石市景山区</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>全栈工程师</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>北京 - 石景山</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>26</v>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>1.服从公司及相关部门的管理及工作安排；2.负责软件业务Web页面开发，以及部分后台系统开发；3.负责Web前端基础能力建设和性能优化，确保产品良好的用户体验和可用性；4.开发流程提效和技术文档编写和维护；5.掌握HTML、JavaScript、CSS等Web开发技术，熟悉页面架构和布局以及相关的细节的实现；6.掌握vue.js生态、技术栈运用，熟悉vue.js的实现原理，具有前端工程化开发的架构能力和经验。7.掌握vant、element等常用UI框架，具备设计开发类似elementui组件库的能力；8.专注于前端开发，掌握nodejs、java等一门或多门服务端语言，掌握nginx、linux系统的各类配置，熟练使用GIT管理项目代码;9.熟悉W3C标准，熟悉各种浏览器差异及兼容性问题的解决；10.精通SpringBoot/SpringCloud微服务框架，有分布式开发或ruoyi框架二次开发经验优先；11.熟练使用MySQL数据库,掌握Redis/ElasticSearch/FastDFS技术；12.熟悉html/css/Javascript/JQuery/ajax，有vue前端</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>1.计算机或相关专业及以上，3年以上Web前端开发经验、java互联网应用开发经验，代码简洁高效；2.精通掌握HTML、JavaScript、CSS等Web开发技术，熟悉页面架构和布局以及相关的细节的实现，3.精通vue.js生态、技术栈运用，熟悉vue.js的实现原理，具有前端工程化开发的架构能力和经验。4.熟练掌握vant、element等常用UI框架，具备设计开发类似elementui组件库的能力；5.专注于前端开发，掌握nodejs、java等一门或多门服务端语言，掌握nginx、linux系统的各类配置，熟练使用GIT管理项目代码;6.熟悉W3C标准，熟悉各种浏览器差异及兼容性问题的解决；7.精通SpringBoot/SpringCloud微服务框架，有分布式开发或ruoyi框架二次开发经验优先；8.熟练使用MySQL数据库,掌握Redis/ElasticSearch/FastDFS技术；9.熟悉html/css/Javascript/JQuery/ajax，有vue前端开发能力优先；10.会使用Linux基本命令，具备在linux环境下分析日志查找问题的能力、软件部署发布的</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>兆原数通（北京）数据科技有限公司</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>91110102MA00EWUJ7U</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100-499</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2000万</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>北京市西城区</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>兆原数通（北京）数据科技有限公司,成立日期:2017年05月25日,创建于北京市,经营范围:技术开发；技术推广；技术转让；技术服务；软件开发；数据处理；销售计算机、软件及辅助设备、电子产品、通讯设备。（企业依法自主选择经营项目，开展经营活动；依法须经批准的项目，经相关部门批准后依批准的内容开展经营活动；不得从事本市产业政策禁止和限制类项目的经营活动。）,企业注册地址:北京市西城区新街口外大街28号C座3层318号(德胜园区);诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>测试工程师</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>18000</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>北京 - 西城</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>44</v>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>1、测试策略和计划：制定测试策略和计划，根据项目需求和时间约束确定测试范围、测试目标和测试计划。2、测试用例设计：根据需求和设计文档，设计和编写测试用例，确保覆盖功能、性能、安全等方面的测试。3、自动化测试：设计、开发和维护自动化测试脚本和工具，提高测试效率和质量。4、执行测试：执行各类测试，包括功能测试、集成测试、系统测试、性能测试、安全测试等，记录测试结果。5、缺陷管理：跟踪和管理软件缺陷，确保缺陷得到及时修复和验证。6、测试环境管理：管理测试环境的配置和准备，确保测试环境的可用性和一致性。7、测试报告和沟通：编写测试报告，汇总测试结果和问题，并与开发团队、产品经理等进行有效的沟通和协作。8、测试流程改进：持续改进测试流程和方法，提高测试效率和质量，推动自动化测试和持续集成的实施。9、技术支持和培训：为团队提供测试技术支持和培训，提升团队的测试能力和质量意识。10、跨团队协作：与开发团队、产品经理、运维团队等密切合作，共同推动软件质量和交付目标。11、部署实施支持：对已完成测试的程序合理创建分支，管理相关软件包提供实施人员使用，按版本编写操作手册。</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>1、软件测试知识：熟悉软件测试的基本原理、方法和流程，包括测试计划编写、测试用例设计、测试执行、缺陷管理等。2、编程能力：具备扎实的编程能力，熟悉至少一种编程语言（如Java、Python等），能够编写自动化测试脚本或工具。3、自动化测试工具和框架：熟悉并掌握一些常用的自动化测试工具和框架，如SeleniumWebDriver、JUnit、TestNG、Appium等，能够利用这些工具进行自动化测试。4、软件开发生命周期：了解软件开发的各个阶段和流程，包括需求分析、设计、开发、测试和发布等，能够在不同阶段提供测试支持和建议。5、缺陷管理工具：熟悉常用的缺陷管理工具，如JIRA、Bugzilla等，能够有效地跟踪和管理软件缺陷。6、静态和动态测试技术：熟悉静态测试技术，如代码审查、静态分析等，以及动态测试技术，如功能测试、性能测试、安全测试等。7、数据库知识：具备良好的数据库知识，能够编写和执行SQL查询，进行数据库相关的测试和验证。8、敏捷开发和DevOps：熟悉敏捷开发和DevOps理念，了解持续集成、持续交付和持续部署等流程，能够在敏捷团队中协作和提供测试支持。9、问题解决能力：具</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>巽灵科技（北京）有限公司</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>91110108MACXH1AG9F</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>500万</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>软件研发工程师</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>1.需求理解与开发?深入研究汽车和能源领域供应链业务需求，与产品经理、业务团队沟通，通过需求反讲评审，精准把握系统功能要求。?根据设计文档，运用主流Java开发框架，如SpringBoot、SpringCloud等，独立完成供应链系统各功能模块的程序设计与开发，确保代码质量符合行业标准，实现模块功能的准确无误。2.系统优化与协作?参与代码审查，积极发现并修正代码问题，提升代码的可读性、可维护性和性能。?负责所编写代码的联调工作，独立完成单元测试，配合测试团队完成集成测试，编写详细测试用例，保障系统稳定运行。与前端开发、测试、运维等团队紧密协作，推动项目顺利进行。3.技术创新与探索?关注行业技术发展趋势，探索引入新技术、新工具，如分布式缓存（Redis）、消息队列（RocketMQ）等，优化供应链系统性能，提升数据处理效率和系统响应速度。?主动参与公司技术研讨，分享技术经验，为团队技术能力提升贡献力量。4.项目支持与维护?在项目实施阶段，为现场实施人员提供技术支持，解决系统部署、运行过程中的技术难题。?对已上线的供应链系统进行日常维护，及时处理系统故障，保障系统7×小时稳定运行。根据业务</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>1.与专业：及以上，计算机科学与技术、软件工程等相关专业，应届或有1-2年工作经验者均可。2.技能要求?熟练掌握Java编程语言，熟悉其语法、数据类型和基本概念，能编写高质量代码，遵循良好的编码规范。?熟练使用SpringBoot开发框架，了解SpringCloud生态体系，具备微服务开发经验者优先。?熟悉关系型数据库，如MySQL，能够编写高效的SQL语句进行数据的增删改查操作。?能够使用Git版本控制工具，掌握代码提交、拉取、推送等基本操作，具备基本的分支管理能力。3.能力素质?具备较强的逻辑思维能力和问题解决能力，能够快速定位和解决代码中的问题。?拥有良好的沟通能力和团队协作精神，能够与不同部门人员有效沟通合作。?具备快速学习能力，对汽车和能源领域的供应链业务有浓厚兴趣，愿意深入学习行业知识。?能够适应一定强度的工作压力，在项目紧张期高效完成任务。4.加分项?有分布式系统开发经验，掌握服务治理、熔断降级、分布式事务等技术者优先。?了解Linux操作系统，具备基本的服务器运维能力者优先。?参与过开源项目，或有相关技术博客、技术社区贡献者优先。岗位优势：1.行业前景：深度参与汽车和能</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>北京京娱酷秀文化传播有限公司</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>91110105MA0180A72M</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>100万</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>杨先生</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>北京-朝阳-酒仙桥 北京市朝阳区酒仙桥路13号148号楼1层101室北京市朝阳区酒仙桥路13号148号楼1层101室</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>公司成立于2009年，现主营KTV量贩式，旗下包括：江西省、陕西省、山西省、北京市9家直营量贩式KTV，，阳泉作为公司的*家KTV，也是总店，秉承的公司的核心理念：用心服务好每一位顾客，深的阳泉人民的信赖，现公司处于发展期，急须要人才加入，期待与您共创未来....</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://pic5.58cdn.com.cn/userauth/pp/n_v2b0b331fb537d4422848d0c58b62078b3.jpg||https://pic1.58cdn.com.cn/userauth/pp/n_v2b8eb850374ed4afc8f6956f96b2b3fc7.jpg||https://pic1.58cdn.com.cn/userauth/pp/n_v2445aec1daad14e0a9697068086310cb8.jpg||https://pic1.58cdn.com.cn/userauth/pp/n_v26d1a453f20044e73b7266797bd134262.jpg</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>算法工程师</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>硕士</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>48</v>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>1.1机器学习算法研究与应用运用数据挖掘、机器学习等技术，从海量数据中深度挖掘用户行为及属性，构建精准客户画像；针对销量数据进行分析，建立有效预测模型。持续优化客户画像与销量预测模型，以适应业务变化与需求。对模型效果进行评测分析，为产品策略调整提供数据支持。1.2LLM模型开发与优化针对连锁行业如KTV、餐饮等生活服务场景（如智能客服、个性化、订单语义理解），主导大语言模型（LLM）的领域适配，包括模型微调（Fine-tuning）、提示工程（PromptEngineering）及模型蒸馏（Distillation）；设计并实现轻量化模型方案，通过知识蒸馏、量化压缩等技术降低模型推理成本，适配产品的高并发、低延迟需求。1.3领域数据与算法研究构建行业专属的高质量训练数据集（如客户对话语料、菜单/服务描述文本），设计数据清洗、增强与标注策略；探索适合垂直场景的微调方法（如LoRA、Adapter-basedTuning），优化模型在业务指标（如意图识别准确率、响应相关性）上的表现。1.4模型性能与效果评估建立模型评估体系，设计自动化测试框架，监控模型在A/B测试中的表现并持续迭代优化；研</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2.1基础要求及以上，计算机科学、自然语言处理、机器学习等相关专业。5年以上机器学习实际经验，2年以上LLM/NLP实战经验，熟练掌握Transformer架构，至少主导过1个完整LLM微调或蒸馏项目。精通PyTorch框架，熟悉Hu ingFace生态及主流开源模型（如DeepSeek、LLaMA、BLOOM、ChatGLM）；深入理解模型微调技术（如LoRA、RLHF）、蒸馏方法（如任务自适应蒸馏、层间知识迁移）；熟悉分布式训练、模型压缩（量化/剪枝）及高性能推理优化（vLLM、SGlang等工具链）。2.2行业与工程能力深度理解KTV、餐饮等行业的业务和数据（如会员营销、库存管理、动态定价）有深度理解，能将业务规则融入模型设计；有中文自然语言处理相关的项目经验，熟悉中文分词、语义理解、中文对话生成等技术3.加分项在ACL/EMNLP/NeurIPS等顶会发表过LLM相关论文，或参与过开源LLM项目（如参与模型训练、贡献核心代码）；熟悉熟悉云原生架构（AWS/Azure/阿里云）者优先；具备多模态模型（文本+语音/图像）微调经验，或边缘端（如移动设备）轻量化部署经验；熟悉行业知识图</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>山西恒辰和谷科技有限公司</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>91140500073095266K</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>山西恒辰和谷科技有限公司,成立日期:2013年07月23日,创建于晋城市,经营范围:一般项目：智能控制系统集成；软件开发；智能机器人销售；智能机器人的研发；轮胎销售；橡胶制品销售；建筑用钢筋产品销售；润滑油销售；电子产品销售；通讯设备销售；数字技术服务；物联网技术研发；物联网技术服务；物联网设备制造；物联网设备销售；通信设备制造；光通信设备销售；矿山机械销售；机械设备销售；机械设备研发；配电开关控制设备销售；机械电气设备销售；集成电路销售；信息技术咨询服务；通用设备修理；专用设备修理；信息系统运行维护服务；智能仪器仪表销售；智能仪器仪表制造。（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）,企业注册地址:山西省晋城市开发区金鼎路东、规划顺安街南（创新创业产业园5号厂房3层）;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>软件研发工程师</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>18000</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>10</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>1设计和实现基于Web的视频流传输、编解码、网络传输和播放等功能。1.1熟悉流媒体技术标准和协议，如RTMP、HLS、WebRTC等，设计和开发高效稳定的视频流传输系统。1.2负责视频编解码方案的研究和实现，优化视频压缩算法和编码参数，提升视频质量和传输效率。1.3开发流媒体服务器和客户端应用，保证视频流的可靠传输和无缝播放体验。2针对不同的平台和设备，开发和优化视频流相关的客户端和服务器端应用程序。2.1针对不同的操作系统和浏览器，进行移动端和PC端的视频流应用开发。2.2优化视频流应用在不同设备上的性能和兼容性，确保用户在各种终端上都能流畅地观看视频。2.3针对移动设备的网络环境和带宽限制，进行流量控制和自适应码率调整，提供良好的视频播放体验。3负责处理视频流中可能出现的延迟、丢帧和其他传输问题，并提供相应的解决方案。3.1优化视频流传输协议和网络传输机制，减少延迟和带宽占用。3.2设计并实现缓冲管理策略，解决视频流的延迟和丢帧问题。3.3针对弱网络环境和不稳定的传输，实现前向纠错和重试机制，提高视频流的可靠性和稳定性。4与团队合作，进行视频流相关的系统架构设计和技术选型。4.1参</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>1拥有丰富的Web开发经验，熟悉前端和后端开发技术。1.1熟练掌握HTML、CSS和JavaScript等前端技术，具备良好的用户界面设计和开发能力。1.2熟悉常用的后端开发框架和语言，如Java,Python,C++,Node.js等。2精通视频编解码、流媒体传输协议（如RTMP、RTP/RTSP、HLS、WebRTC等）和网络传输技术。2.1熟悉常见的视频编码标准（如H.4、H.5等）和音频编码标准（如AAC、Opus等）。2.2理解视频流传输的原理和机制，熟悉网络传输协议和调优技术。2.3精通WebAssembly技術優先。3熟悉流媒体服务器和播放器的原理和实现，有相关项目经验者优先考虑。3.1了解流媒体服务器的部署和管理，熟悉流媒体播放器的开发和集成。3.2掌握常用的流媒体技术和工具，如FFmpeg、HLS.js、VLC，GStreamer等。4具备高并发、高可用系统的设计经验。5熟悉视频AI模型训练、调优及评估方法。6熟悉热成像相关算法在煤矿行业上的应用。7有大型互联网公司或AI相关项目经验者优先。岗位福利：双休+五险+法定节假日+节日福利</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>北京吾游互动科技有限公司</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>91110112MA006CFC6C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>100万</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>C/C++开发</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>10</v>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>1.内核研发与优化：?深入研究和理解Chrome浏览器的内核架构，包括V8引擎、Blink渲染引擎等。?负责浏览器内核的定制开发，根据产品需求进行功能扩展和优化。?对浏览器内核进行性能调优，提升加载速度、渲染效率和内存管理。2.功能开发与集成：?根据产品需求，设计并实现浏览器的新功能，如多标签页管理、隐私保护、扩展支持等。?与前端团队紧密合作，确保新功能与前端界面的无缝对接和良好用户体验。?参与浏览器跨平台特性的开发和优化，确保在不同操作系统和设备上的一致性表现。3.技术跟踪与调研：?跟踪Chrome浏览器的新技术动态和行业动态，提出创新性的技术解决方案。?参与相关技术方案的调研和选型，为浏览器的长期发展提供技术支持和战略建议。4.问题解决与团队协作：?解决在内核开发过程中遇到的技术难题，确保项目进度和质量。?编写技术文档和注释，提高代码的可读性和可维护性。?与团队成员紧密合作，共同推动项目的进展和完成，促进团队的技术成长和氛围建设。</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>1.教育背景：?计算机科学或相关专业及以上，具备扎实的计算机科学基础。2.专业技能：?精通C/C++语言开发，熟悉面向对象编程和常用数据结构。?熟悉Chrome浏览器的内核架构和关键技术，包括V8引擎、Blink渲染引擎等。?具备浏览器内核开发经验，熟悉多线程、多进程编程和内存管理。?对浏览器安全、隐私保护等方面有深入了解者优先。3.工作经验：?至少3年以上软件开发经验，其中至少1年以上Chrome浏览器内核开发经验。?有大型开源项目源码分析经验、浏览器性能优化经验者优先。4.其他要求?具有良好的沟通能力和团队合作精神，能够主动承担责任并推动项目的进展。?对技术有浓厚的兴趣，愿意不断探索和尝试新技术，持续学习和成长。?具备良好的问题解决能力和创新思维，能够独立思考并解决复杂的技术问题。职业发展：作为Chrome浏览器内核开发工程师，您将有机会接触到前沿的浏览器技术和行业动态。通过不断学习和实践，您将能够成长为浏览器开发领域的专家，并在职业发展上获得更多的机会和挑战。我们鼓励员工不断追求技术卓越和创新，为您提供广阔的职业发展空间和晋升机会。希望以上信息能够帮助您更好地了解Chrome浏览</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>重庆梧桐车联科技有限公司</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>91500000MAABQDLH5W</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>56055.879300万</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>C#开发</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>111</v>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>1.开发裸眼3DARHUD的实时渲染引擎与核心算法，包括虚实融合、动态视差补偿、3D光场生成等模块。2.设计并优化AR图形叠加算法（如车道线、导航箭头、障碍物标注），确保低延迟、高精度显示。3.实现SLAM（同步定位与建图）或视觉定位算法与HUD系统的集成，支持动态环境下的稳定AR投影。4.与光学/硬件团队协作，开发HUD校准算法（如畸变校正、亮度自适应）及多传感器数据融合逻辑。5.构建车载ARHUD软件架构，适配QNX/yocot等车载系统，满足功能安全与实时性要求。6.研究裸眼3D显示技术（如视差屏障、多层全息）的软件驱动方案，优化人眼追踪与多焦面渲染性能。7.支持HUD与自动驾驶系统（ADAS）的交互设计，实现与摄像头、毫米波雷达的数据联动。</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>1.及以上，计算机科学、软件工程、电子信息、数学等相关专业。2.3年以上AR/VR、图形引擎、嵌入式系统开发经验，有汽车HUD或车载显示系统项目经验优先。3.精通C++/TS，熟悉OpenGL/Vulkan/DirectX等图形API，有Unity/cocos引擎开发经验。4.掌握计算机视觉基础算法（如SLAM、图像配准、目标检测），熟悉OpenCV/PCL/XR等库。5.熟悉车载系统开发（QNX、LinuxRTOS），了解CAN/LIN通信协议及AutoSAR架构。6.具备性能优化经验（如多线程、内存管理、GPU加速），熟悉嵌入式平台资源约束下的开发。加分项1.熟悉自动驾驶感知系统（如高精地图、传感器融合）与ARHUD的交互逻辑。2.有裸眼3D显示算法（光场渲染、眼动追踪）或AR光学系统（如光波导）的软件开发经验。3.了解汽车功能安全标准（ISO2）及ASPICE开发流程。4.数学功底扎实（几何光学、矩阵变换、3D空间建模）。岗位职责：1.负责车机端（Android）3D渲染的设计与开发2.负责汽车座舱中3D渲染效果的关键技术攻关和实现工作3.负责Unity中3D渲染性能调优，功能优</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>北京盛通寰宇科技有限公司</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>91110101MAC1DF1G95</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>50万</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>技术总监</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>107</v>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>一、核心职责1.技术战略与规划-制定并执行交易所的长期技术路线图，与CEO及高管团队协同，确保技术方向与业务目标一致。-评估新兴技术（如区块链、AI、低延迟架构、零知识证明）在交易场景的应用，保持技术 性。-管理技术预算，优化资源分配（如云服务、硬件投入、研发成本）。2.系统架构与核心平台-高性能交易系统：设计并维护高并发、低延迟（微秒级）的交易引擎，支持百万级TPS。-稳定性与灾备：实现多机房容灾、自动故障切换，保障7×小时不间断运行。-扩展性：支持用户量、交易量快速增长（如加密货币牛市时的流量激增）。3.安全与合规-网络安全：防御DDoS攻击、API滥用、内部渗透，定期进行渗透测试和代码审计。-资金安全：设计冷热钱包隔离、多重签名方案（针对加密货币交易所）。-合规技术：实现KYC/AML自动化、交易监控系统，满足全球监管要求（如SEC、FCA、MAS）。4.研发团队管理-组建并领导技术团队（开发、运维、安全、QA），建立高效研发流程（如DevOps、敏捷开发）。-招聘技术人才（尤其需要熟悉金融协议、分布式系统、量化算法的人才）。-制定技术团队考核标准，提升研发效率与创新能力。5.产</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>1.教育与经验-：计算机科学、金融工程或相关领域/优先。-经验：-10年以上技术研发经验，5年以上金融/交易所领域技术管理经验。-曾主导高并发交易系统、区块链节点或量化交易平台开发。-有全球化系统部署经验（如跨区域数据中心协作）者优先。2.技术能力-核心技术栈：-精通分布式系统、微服务架构、高性能数据库（如Kafka、Redis）。-熟悉金融协议（如FIX）、订单匹配算法、清算结算逻辑。-了解区块链技术（如共识机制、智能合约）及加密货币生态。-安全能力：熟悉网络安全、加密算法、防攻击策略。3.核心素质-领导力：能组建高效技术团队，协调跨部门协作。-商业思维：理解交易所盈利模式（如手续费、做市商激励）。-抗压能力：能在市场极端波动时保障系统稳定。4.有币核/ChainUP链上/mexc/OKK/币安/火币/gate/Kucoin/ ngx/ tget:by t等公司技术开发架构CEX开发背景优先。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>北京谦合益邦云信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>外商投资企业</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>91110105MAD999ND57</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>129.907337万</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>通信技术工程师</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>硕士</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>25</v>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>1.底层算子设计与实现：深入理解NPU芯片底层架构，负责集合通信算子在芯片上的底层设计与开发，包括但不限于Send、Receive、Broadcast、Scatter、Gather、Reduce、AllReduce、AllGather、ReduceScatter、AllToAll等基本通信原语的实现，确保算子功能准确无误，满足高性能计算需求。2.通信原语优化：针对芯片特性，对通信原语进行性能优化。分析阻塞与非阻塞、同步与异步、可靠与不可靠等不同通信模式在NPU芯片上的表现，通过代码优化、资源调度等手段，提升通信原语的执行效率，降低延迟，提高数据传输带宽。3.算法适配与集成：研究并实现如Ring等集合通信算法，将其与开发的底层算子和通信原语进行有效集成。根据不同的应用场景和数据规模，选择优算法，保障集合通信在大规模数据处理和复杂计算任务中的高效运行。4.兼容性与调试：确保开发的集合通信底层功能与NPU芯片硬件、芯片指令集以及相关系统软件（如操作系统、编译器等）的兼容性。负责对开发过程中出现的问题进行调试，通过深入分析硬件日志、性能指标等，快速定位并解决问题，保障功能的稳定性和可靠性。</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>1.计算机科学、电子工程、集成电路等相关专业，及以上优先。熟悉C/C++，Python编程，具备扎实的编程基础和良好的代码规范；熟悉汇编语言者优先，能够进行底层代码的优化与调试。2.有深入的异构硬件平台开发经验，对NPU芯片架构有透彻理解，熟悉其运算单元、存储层次、通信链路等硬件组成部分；了解GPU等其他异构芯片架构者可作为加分项。3.深入理解集合通信概念，熟悉各种通信原语的原理和实现方式；掌握常见集合通信算法，如Ring、HD等的原理、优势及适用场景。4.熟练掌握性能分析工具和方法，能够准确识别性能瓶颈并进行针对性优化；拥有强大的debug能力，能够通过硬件调试工具、日志分析等多种手段，快速定位并解决底层开发过程中出现的复杂问题。5.具备良好的团队合作精神和沟通能力，能够与芯片设计、系统软件、应用开发等不同团队高效协作，共同推进项目进展。具备快速学习新知识和新技术的能力，能够迅速掌握并应用于实际工作中，应对不断变化的技术挑战。6.加分项：熟悉CUDA/ROCm编程,熟悉GPU/GPGPU/TPU/DPU/NPU等架构，熟悉NCCL和NCCL-Tests等通信库和工具，熟悉RMDA/R</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>上海鑫辰清智智能科技有限公司</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>91310104MADEDWCY67</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>557万</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>上海鑫辰清智智能科技有限公司,成立日期:2024年04月01日,创建于上海市,经营范围:一般项目：人工智能基础软件开发；人工智能应用软件开发；人工智能理论与算法软件开发；网络与信息安全软件开发；软件开发；智能机器人的研发；大数据服务；数据处理服务；数据处理和存储支持服务；互联网数据服务；人工智能公共数据平台；人工智能公共服务平台技术咨询服务；信息系统集成服务；人工智能双创服务平台；人工智能行业应用系统集成服务；人工智能通用应用系统；人工智能基础资源与技术平台；基于云平台的业务外包服务；软件外包服务；计算机软硬件及辅助设备零售；财务咨询；税务服务；企业形象策划；会议及展览服务。（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）,企业注册地址:上海市徐汇区虹漕路25-1号2楼;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>测试工程师</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>10年以上</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>20</v>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>1.理解产品需求，独立搭建测试环境并保证其可靠性，具备全链路环境部署能力，包括微服务架构下的测试环境治理。2.设计测试计划、测试用例，根据产品原型与需求文档编写覆盖核心场景、边界场景、异常场景的测试用例，参与需求评审并提出可测试性建议。3.负责软件产品的功能测试、边界测试、性能测试、兼容性测试及自动化测试，针对复杂业务场景设计数据驱动、关键字驱动的自动化测试方案。4.主导前后端自动化测试体系建设，包括Web端（Selenium/Cypress）、移动端（Appium）、API接口（Post/RestAssured）的自动化框架设计与脚本开发，集成持续测试流水线（Jenkins/GitLabCI）。5.开发智能化测试工具平台，实现测试用例管理、测试数据生成、测试结果分析的自动化，提升回归测试效率%以上。6.深入实施白盒测试，针对核心模块进行代码级测试（单元测试/集成测试），运用Jacoco等工具实现测试覆盖率管控。7.建立性能基线模型，通过Jmeter/LoadRunner实施压力测试，使用ELK/Prometheus进行性能监控与瓶颈定位。</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>1.及以上，计算机相关专业，熟悉互联网产品研发流程与质量保障体系。2.6年以上测试开发经验，至少主导过金融、电商等复杂系统的质量保障项目，有从0到1构建自动化测试体系成功案例。3.精通测试设计方法论，熟练运用等价类划分、边界值分析、场景法等设计方法，能通过Axure/Figma原型反推测试场景。4.精通前后端分离架构测试技术：(1)前端：掌握浏览器调试、网络抓包、跨端兼容性测试方案，熟悉Vue/React技术栈常见问题模式(2)后端：精通RestfulAPI测试，具备微服务架构下的契约测试、流量回放测试经验5.至少精通以下两个技术领域：(1)自动化测试：主流通用框架（Pytest/TestNG）+专项工具（Appium/Selenium）二次开发能力(2)性能工程：具备全链路压测经验，熟悉JVM调优、SQL调优、分布式架构瓶颈分析方法(3)质量效能：熟悉精准测试、测试用例智能、质量门禁等前沿技术6.掌握DevOps技术栈，能基于Docker/K8s搭建测试环境，熟练编写JenkinsPipeline实现自动化测试流水线。7.具备测试左移右移实施经验，在需求评审阶段通过DDT（需求可测试</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>万博智云信息科技（上海）有限公司</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>91310117MA1J3E1743</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3000万</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>万博智云信息科技（上海）有限公司,成立日期:2019年03月08日,创建于上海市,经营范围:从事信息科技、计算机、软件及辅助设备技术领域内的技术开发、技术转让、技术咨询、技术服务，电信业务，软件开发、销售，计算机系统集成，网络工程，计算机、软件及辅助设备、电子产品的销售，从事货物进出口及技术进出口业务。 【依法须经批准的项目，经相关部门批准后方可开展经营活动】,企业注册地址:上海市松江区新桥镇新效路218号;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>C/C++开发</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>我们正在寻找一名经验丰富的工程师，负责开发和优化基于Linux内核的模块，用于实现高效的块级数据备份与恢复功能。您将参与定制化的备份工具开发，支持多种文件系统（包括但不限于Btrfs）以及相关的用户态工具。该职位还需要使用Python开发自动化脚本和管理工具，整合为全面的备份与灾难恢复解决方案。</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>必备技能:1.内核模块与系统开发：-至少3年Linux内核开发经验，熟悉内核模块设计与块设备驱动开发。-深入了解块设备的快照原理及其在增量备份中的应用，包括`copy-on-write(COW)`、` tmaptracking`、`block-leveldeduplication`等技术。-熟悉`DeviceMapper`框架，了解其在构建虚拟块设备中的应用。-具备基于`kernelblockI/O`层（如` o`结构）开发和优化的实际经验。-了解块设备上的元数据管理、日志写入（journaledwrites）、以及差异数据捕获（differentialbackup）的内核实现。2.文件系统开发经验（或强烈兴趣）：-熟悉主流文件系统（如ext4、XFS）的架构和机制。-针对Btrfs文件系统，有兴趣研究其特性（如快照、子卷、压缩和数据校验）并设计定制化解决方案。3.用户态工具开发：-能够开发与内核模块交互的用户态工具，支持高效数据传输和备份管理。-熟悉快照、块级增量备份等工具链的设计和实现。4.Python编程能力：-熟练使用Python开发自动化工具和脚本，尤其是在系统任务调度和日志</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>北京星火明智科技有限公司</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>91110111MADL9YQ743</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>赵国伟</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>济南-天桥-无影山北路 济南天桥无影山北路69号济南天桥无影山北路69号</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>济南同济中西医结合医院是济南市中医管理局直属二级甲等医院，是居民和职工医保 机构。以中西医结合*风湿免疫病为专科特色，同时开设中医科、内科、儿科、皮肤科、肿瘤科、口腔科等科室，具有60张病床；集科研、预防、*、康复为一体。以互联网为载体，服务广大患者，用大数据来驱动，提升诊疗水平。设施先进，环境优美，是极具个性化服务特色的互联网风湿病专科医院。济南同济中西医结合医院技术力量雄厚，拥有十多位临床经验丰富、专业技术突出的医疗专家，在我院任职的医师副高及正高职称人员占医师总数的一半以上。 更是邀请众多来自北京协和医院、解放军北方战区总医院、山东省立医院、山东中医药大学附属医院等省、市著名的中、西医专家、教授、博士生导师、博士长期坐诊、会诊。同时医院斥巨资引进了一大批高、精、尖的医疗设备及器械。坚持“大专科、小综合”的办院方针，采用中西医结合、以人为本的精准个性化服务；以实力雄厚的专家队伍和专科技术，为全国广大患者诊治各类疑难病、慢性病。 济南同济中西医结合医院制剂室创建于2000年，现有80多个经山东省食品药品监督管理局批准的制剂号，其中有10多个中药制剂品种已经纳入医疗保险目录、医保报销范</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>https://pic3.58cdn.com.cn/enterprise/appearance/big/n_v1bkuymcyjftdfpbdgh47q.jpg||https://pic8.58cdn.com.cn/enterprise/appearance/big/n_v1bl2lwtilftdfo3oy34bq.jpg||https://pic5.58cdn.com.cn/enterprise/appearance/big/n_v1bj3gzrymftdfp25lsucq.jpg||https://pic6.58cdn.com.cn/enterprise/appearance/big/n_v1bkujjdynftdfo3vod4xq.jpg||https://pic1.58cdn.com.cn/enterprise/appearance/big/n_v1bkuymcyoftdfpt5srrsq.jpg||https://pic2.58cdn.com.cn/enterprise/appearance/big/n_v1bl2lwkiqftdfpclsxv4a.jpg||https://pic7.58cdn.com.cn/enterprise/appearance/big/n_v1bl2lwxqsftdfpkrxrmya.jpg||https://pic7.58cdn.com.cn/enterprise/appearance/big/n_v1bkuyfvivftdfoy7pbycq.jpg</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>技术总监</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>10年以上</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
+        <v>25</v>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>一、技术战略与架构设计1.规划审计/内控/合规领域的技术体系，设计基于SpringCloud微服务架构，支撑多产品线协同开发（需兼容国产化数据库/中间件）。2.制定AI技术融合路线，推动大模型（LLM）、RPA、OCR等技术与系统的深度集成。3.建立技术安全体系，满足等保三级、数据脱敏、审计留痕等合规要求。二、团队管理1.统管后端/前端/数据/测试团队，建立标准化研发流程。2.把控核心模块开发质量，主导关键模块编码。3.制定技术人才成长路径，提升团队工程能力。三、技术架构与创新1.设计并优化微服务架构，主导分布式系统、数据治理及AI应用的技术方案。2.突破监督领域技术难点，包括多源异构数据治理、国产化替代技术方案等。3.构建开发者赋能体系，搭建企业级技术中台，设计开发标准化组件库等。四、业务协同与交付保障1.深度参与售前阶段，输出技术解决方案（POC演示/架构设计图/TCO估算）。2.建立研发效能监测体系（需求吞吐率/缺陷密度/部署频率），确保产品交付SLA 98%。3.主导技术债务治理，实现代码健康度可视化（技术债务占比＜%）。</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>一、技术能力1.计算机相关专业及以上，10年以上开发经验，5年以上微服务架构设计经验，3年以上技术管理经验。2.精通高并发场景技术方案（如审计数据实时采集集群优化），有TB级数据处理实战经验。3.持有TOGAF/PMP，熟悉C I3/5级流程标准。4.熟悉数据治理方法论，掌握SQL调优、ETL工具及BI平台，能结合行业数据特性设计模型输入输出。5.熟悉大模型技术原理及应用场景。二、架构能力1.设计符合国央企客户要求的四层架构图（接入层/服务层/数据层/基础设施层）。2.设计审计领域典型系统，满足智能风险预警系统（规则引擎+实时计算）；多租户SaaS化审计平台（数据隔离方案）；审计证据链管理系统等。三、综合素养1.熟悉审计准则（如COSO框架）、财税法规等业务逻辑，能快速识别监督业务痛点。2.超强适应力，强成本控制意识，擅长技术选型性价比评估。3.对技术前沿敏感，持续关注微服务、AIGC等领域动态，具备创新意识与快速学习能力。四、加分项1.有审计软件、财税系统等审计、风控行业技术负责人经验。2.主导过AI在监督领域的落地项目。3.持有PMP、系统架构师等。4.熟悉云原生技术及AI框架，国</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>北京新质向阳科技有限公司</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>91110108MABX56C82X</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>北京新质向阳科技有限公司,成立日期:2022年08月16日,创建于北京市,经营范围:一般项目：技术服务、技术开发、技术咨询、技术交流、技术转让、技术推广；计算机系统服务；软件外包服务；软件销售；计算机软硬件及辅助设备批发；计算机软硬件及辅助设备零售；软件开发；信息技术咨询服务；信息系统集成服务；广告设计、代理；广告制作；人工智能应用软件开发；工业互联网数据服务；数据处理和存储支持服务；物联网设备制造；物联网设备销售；物联网应用服务；物联网技术研发；物联网技术服务；计算机软硬件及外围设备制造；云计算设备制造；云计算设备销售；云计算装备技术服务。（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）许可项目：互联网信息服务。（依法须经批准的项目，经相关部门批准后方可开展经营活动，具体经营项目以相关部门批准文件或许可证件为准）（不得从事国家和本市产业政策禁止和限制类项目的经营活动。）,企业注册地址:北京市门头沟区莲石湖西路98号院13号楼2层204;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>测试工程师</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
+        <v>44</v>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>1.负责前端React/Next.js应用和后端FlaskAPI的完整测试工作2.参与需求分析和测试方案设计3.设计与执行前后端测试用例，包括UI功能测试和API接口测试4.进行集成测试、端到端测试和回归测试5.规划和实施自动化测试方案6.建立并维护测试文档和测试规范7.负责缺陷跟踪和质量分析报告</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>必备技能1.及以上，计算机相关专业优先2.三年以上Web应用测试经验，具备前后端测试能力3.扎实的软件测试理论基础，熟悉各类测试方法和策略前端测试技能1.熟悉React/Next.js应用测试，掌握前端测试框架（如Jest、ReactTestingLibrary）2.熟练使用前端自动化测试工具3.熟悉前端性能测试和兼容性测试4.了解前端组件化测试方法后端测试技能1.熟悉PythonFlask框架的测试方法2.精通RESTfulAPI测试，熟练使用Post、curl等工具3.了解数据库操作测试和SQL测试4.熟悉接口性能测试（如使用JMeter、Locust等）技术要求1.具备基础的Python和JavaScript编程能力2.熟练使用测试管理工具（如JIRA、TestRail）3.熟悉Git版本控制4.了解Docker容器化环境下的测试方法5.掌握常用测试自动化框架6.熟悉CI/CD流程中的测试环节加分项1.有自动化测试框架开发经验2.熟悉BDD/TDD测试开发方法3.有AI应用测试经验4.了解安全测试和渗透测试5.有性能测试和压力测试经验6.熟悉敏捷开发流程软技能要求1.强烈的质量意</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>万店盈利（海南）科技咨询有限公司</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>91460000MA5TYK010Y</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>数据分析师</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>10000</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>1年以下</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>1.负责公司业务相关数据库结构（维度、指标）的维护与优化，确保数据体系清晰、稳定、可扩展。2.使用Python及相关库进行数据清洗、整理、加工与抽取，支持上层的数据分析与建模工作。3.参与搭建与维护各类自动化数据爬取脚本，包括公开数据源、行业平台及竞争对手信息等，定期产出原始数据集。4.基于业务需求，进行基础的数据分析、可视化工作，为业务提供数据支持与决策建议。5.参与公司在大语言模型（LLM）相关方向的探索与试验，协助构建“数据+智能体”场景，包括prompt设计、数据结构适配等工作。</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>1.熟练掌握Python编程语言，掌握主流数据处理库（如Pandas、Numpy、Requests、BeautifulSoup、Selenium等）；2.熟悉基本的数据库结构设计与操作（如MySQL/PostgreSQL/SQLite等），能编写高效的SQL；3.具备一定数据分析、数据挖掘或建模能力，对探索数据背后的价值有浓厚兴趣；4.对大语言模型（如ChatGPT、Claude、文心一言等）保持好奇与关注，乐于尝试其在数据处理和交互中的创新应用；5.有良好的自驱力与学习能力，能够从模糊问题中抽象结构，主动推进项目进展；6.有相关项目经验（如爬虫脚本、ETL管道、分析报告或LLM应用）者优先。加分项： 有使用LangChain、LlamaIndex、ChatGPTAPI等工具进行智能体或问答系统搭建经验； 熟悉大模型RAG框架、嵌入向量、PromptEngineering等技术； 有GitHub项目或技术博客可供展示。我们提供： 扁平化的团队氛围，自由探索空间； 覆盖数据到AI全链条的项目机会； 有竞争力的薪酬体系； 鼓励学习与试错的成长环境。公司介绍：  万店盈利」专注专注咨询行业十</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>上海睿蚌企业服务有限公司</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>91310114MA7B2KTQ2G</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28万</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>上海睿蚌企业服务有限公司,成立日期:2021年10月19日,创建于上海市,经营范围:一般项目：企业管理咨询；项目策划与公关服务；咨询策划服务；信息咨询服务（不含许可类信息咨询服务）；市场营销策划；企业形象策划；社会经济咨询服务；安全咨询服务；组织文化艺术交流活动；信息技术咨询服务；会议及展览服务；商务代理代办服务；礼仪服务；婚庆礼仪服务；个人商务服务；技术服务、技术开发、技术咨询、技术交流、技术转让、技术推广（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）。,企业注册地址:上海市奉贤区陈桥路1887号1幢3层D179室;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
+        <v>18</v>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>1.负责白龙马C端业务的前端架构及工程效率(APP混合开发react/vue/小程序taro)2.负责核心模块开发、代码编写及维护、关键技术选型、难点攻坚等工作3.具备一站式多端研发(前端/后端/移动端)能力职位要求：1.计算机相关专业及以上；2.五年以上前端工作经验，至少参加过一个完整中型前端项目开发；3.精通模块化,前端编译和构建工具,并深入理解其设计原理,例如ReactJS、AntD等;4.能够独立进行前端页面代码开发及调试，能够充分理解设计需求并落地；5.精通React/Vue等类似MV*框架实践经验，具备独立项目开发能力；6.对代码规范、算法和数据结构、代码质量、性能优化有较高的理解和应用实践;7.掌握一门服务端（Node/Java或其他语言）或具备native移动开发能力;8.具有良好的语言表达能力，善于与人沟通合作，有良好的团队意识及高度责任心；9.关注前端技术发展，乐于学习分享，良好的沟通心态，执行力强，能承受一定的工作强度；10.有移动端iOS/Android平台开发经验者优先；11.有团队管理/项目管理经验者优先。行业优势：1、出行市场空间大，B端蓝海市场未来可期，</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>1.计算机相关专业及以上；2.五年以上前端工作经验，至少参加过一个完整中型前端项目开发；3.精通模块化,前端编译和构建工具,并深入理解其设计原理,例如ReactJS、AntD等;4.能够独立进行前端页面代码开发及调试，能够充分理解设计需求并落地；5.精通React/Vue等类似MV*框架实践经验，具备独立项目开发能力；6.对代码规范、算法和数据结构、代码质量、性能优化有较高的理解和应用实践;7.掌握一门服务端（Node/Java或其他语言）或具备native移动开发能力;8.具有良好的语言表达能力，善于与人沟通合作，有良好的团队意识及高度责任心；9.关注前端技术发展，乐于学习分享，良好的沟通心态，执行力强，能承受一定的工作强度；10.有移动端iOS/Android平台开发经验者优先；11.有团队管理/项目管理经验者优先。行业优势：1、出行市场空间大，B端蓝海市场未来可期，白龙马作为行业独角兽，具备天然行业增量市场优势公司亮点：1、市场地位：出行SaaS领域独角兽2、业务规模：区域合作伙伴0+，覆盖0+城市，0W+网约车运力，日均处理发单，总交易额GTV百亿级+3、背景优势：背靠高德，阿</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>重庆梧桐车联科技有限公司</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>91500000MAABQDLH5W</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>56055.879300万</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>C#开发</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>111</v>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>1.开发裸眼3DARHUD的实时渲染引擎与核心算法，包括虚实融合、动态视差补偿、3D光场生成等模块。2.设计并优化AR图形叠加算法（如车道线、导航箭头、障碍物标注），确保低延迟、高精度显示。3.实现SLAM（同步定位与建图）或视觉定位算法与HUD系统的集成，支持动态环境下的稳定AR投影。4.与光学/硬件团队协作，开发HUD校准算法（如畸变校正、亮度自适应）及多传感器数据融合逻辑。5.构建车载ARHUD软件架构，适配QNX/yocot等车载系统，满足功能安全与实时性要求。6.研究裸眼3D显示技术（如视差屏障、多层全息）的软件驱动方案，优化人眼追踪与多焦面渲染性能。7.支持HUD与自动驾驶系统（ADAS）的交互设计，实现与摄像头、毫米波雷达的数据联动。</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>1.及以上，计算机科学、软件工程、电子信息、数学等相关专业。2.3年以上AR/VR、图形引擎、嵌入式系统开发经验，有汽车HUD或车载显示系统项目经验优先。3.精通C++/TS，熟悉OpenGL/Vulkan/DirectX等图形API，有Unity/cocos引擎开发经验。4.掌握计算机视觉基础算法（如SLAM、图像配准、目标检测），熟悉OpenCV/PCL/XR等库。5.熟悉车载系统开发（QNX、LinuxRTOS），了解CAN/LIN通信协议及AutoSAR架构。6.具备性能优化经验（如多线程、内存管理、GPU加速），熟悉嵌入式平台资源约束下的开发。加分项1.熟悉自动驾驶感知系统（如高精地图、传感器融合）与ARHUD的交互逻辑。2.有裸眼3D显示算法（光场渲染、眼动追踪）或AR光学系统（如光波导）的软件开发经验。3.了解汽车功能安全标准（ISO2）及ASPICE开发流程。4.数学功底扎实（几何光学、矩阵变换、3D空间建模）。岗位职责：1.负责车机端（Android）3D渲染的设计与开发2.负责汽车座舱中3D渲染效果的关键技术攻关和实现工作3.负责Unity中3D渲染性能调优，功能优</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>北京谦合益邦云信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>外商投资企业</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>91110105MAD999ND57</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>129.907337万</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>通信技术工程师</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>硕士</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
+        <v>25</v>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>1.底层算子设计与实现：深入理解NPU芯片底层架构，负责集合通信算子在芯片上的底层设计与开发，包括但不限于Send、Receive、Broadcast、Scatter、Gather、Reduce、AllReduce、AllGather、ReduceScatter、AllToAll等基本通信原语的实现，确保算子功能准确无误，满足高性能计算需求。2.通信原语优化：针对芯片特性，对通信原语进行性能优化。分析阻塞与非阻塞、同步与异步、可靠与不可靠等不同通信模式在NPU芯片上的表现，通过代码优化、资源调度等手段，提升通信原语的执行效率，降低延迟，提高数据传输带宽。3.算法适配与集成：研究并实现如Ring等集合通信算法，将其与开发的底层算子和通信原语进行有效集成。根据不同的应用场景和数据规模，选择优算法，保障集合通信在大规模数据处理和复杂计算任务中的高效运行。4.兼容性与调试：确保开发的集合通信底层功能与NPU芯片硬件、芯片指令集以及相关系统软件（如操作系统、编译器等）的兼容性。负责对开发过程中出现的问题进行调试，通过深入分析硬件日志、性能指标等，快速定位并解决问题，保障功能的稳定性和可靠性。</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>1.计算机科学、电子工程、集成电路等相关专业，及以上优先。熟悉C/C++，Python编程，具备扎实的编程基础和良好的代码规范；熟悉汇编语言者优先，能够进行底层代码的优化与调试。2.有深入的异构硬件平台开发经验，对NPU芯片架构有透彻理解，熟悉其运算单元、存储层次、通信链路等硬件组成部分；了解GPU等其他异构芯片架构者可作为加分项。3.深入理解集合通信概念，熟悉各种通信原语的原理和实现方式；掌握常见集合通信算法，如Ring、HD等的原理、优势及适用场景。4.熟练掌握性能分析工具和方法，能够准确识别性能瓶颈并进行针对性优化；拥有强大的debug能力，能够通过硬件调试工具、日志分析等多种手段，快速定位并解决底层开发过程中出现的复杂问题。5.具备良好的团队合作精神和沟通能力，能够与芯片设计、系统软件、应用开发等不同团队高效协作，共同推进项目进展。具备快速学习新知识和新技术的能力，能够迅速掌握并应用于实际工作中，应对不断变化的技术挑战。6.加分项：熟悉CUDA/ROCm编程,熟悉GPU/GPGPU/TPU/DPU/NPU等架构，熟悉NCCL和NCCL-Tests等通信库和工具，熟悉RMDA/R</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>北京华宏信达科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>股份有限公司</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>911101066774372712</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2000万</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>CTO/首席技术官</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>30000</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
+        <v>18</v>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>1、建立和完善研发管理体系，全面负责研发项目（侧重于产品研发项目）和研发部团队的管理。2、负责产品和技术的预备研究和项目实施方案，组织相关部门和人员根据流程进行各阶段的评审和评估。3、负责所研发产品的标准化文件拟定及检定。4、负责企业业务流程的分析、优化，分析制定项目的业务功能需求。5、根据产品和项目需求，分析、设计与实现系统架构方案，保障系统架构的合理性、可扩展性及易用性。6、负责产品架构分析，提出软硬件架构整体设计，数据库存储设计方案，培训指导其他工程师的设计工作。7、对相关产品系统架构方案进行评审及改进，控制产品系统架构质量。8、负责核心技术问题的攻关，系统优化；协助解决项目开发过程中的技术难题。9、制定开发规范，参与制定技术标准，编写相应的技术文档，并对通用技术进行整理，提术复用。10、协助产品经理制定产品研发计划和控制项目研发进度。11、对系统的重用、扩展、安全、性能、伸缩性、简洁等做系统级的把握。12、对系统框架相关技术和业务进行培训，指导开发人员开发。并解决系统开发、运行中出现的各种问题。13、参与项目的需求调研，充分了解需求，合理设计系统架构，配合销售进行项目售前支持工</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>1.;统招，计算机相关专业，以上优先。2.;十年以上的工作经验，五年以上的企业应用产品分析、设计和开发经验，五年以上的企业业务需求分析和项目实施经验。3.;具有较丰富的团队管理经验，至少四年领导十五人以上的技术团队的经历。4.;具有丰富的ERP、MES、OA等方面企业应用的研发和项目实施经验，至少成功研发三个中等规模以上的企业应用软件系统，并且至少成功实施过三个以上的大中型企业应用项目。5.;精通企业应用软件系统的分析设计和建模，精通数据库设计。6.;精通J2EE技术和常用框架、工具，如SSH、eclipse、Extjs等。7.;精通项目管理的理论、方法，具有丰富的IT项目管理经验。8.;有很强的学习能力，良好的人际交往和沟通能力，强烈的工作责任感，为人诚实正直。加分项有以下行业经验：铁路/船舶/航空/航天制造·仪器仪表/工业自动化</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>北京震耀科技有限公司</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>9111010876679844XE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>600万</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>包文科</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>北京震耀科技有限公司,成立日期:2004年09月01日,创建于北京市,经营范围:技术开发、技术服务；计算机系统集成；专业承包；销售化工产品（不含危险化学品及一类易制毒化学品）、机械设备、电子产品、建筑材料、金属材料、五金、交电；货物进出口、技术进出口、代理进出口。（企业依法自主选择经营项目，开展经营活动；依法须经批准的项目，经相关部门批准后依批准的内容开展经营活动；不得从事本市产业政策禁止和限制类项目的经营活动。）,企业注册地址:北京市海淀区上地十街1号院3号楼9层912;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>C#开发</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
+        <v>60</v>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>（工作内容和主要职责）：1、根据公司战略和上级要求，主导核心项目搭建及实现、底层组件研发。负责整体架构中核心代码的编写及维护。2、负责分派的开发任务/负责产品服务端的开发工作、深入理解业务需求。3、负责公司私有化、遗留系统现代化等项目的研发及推动实现工作。4、组织开展技术验证与实现，核心技术问题公关，解决产品开发中各种技术难题。5、进行新技术预研，将适配的新技术和成熟的技术、框架引入到现有的应用架构中来，不断的持续优化和完善整体6、保证所负责系统的稳定性、可扩展性和高性能。7、协助及推动各产品线技术落地及问题解决。任职资格（职位要求）：1、及以上，计算机相关专业，5年以上.NET及体系开发工作经验，3年以上大型项目和大规模高并发访问的WEB应用架构开发经验。2、精通C#、Python、Go、Java、NodeJS等编程语言至少2~3种。3、熟悉分布式、缓存、消息、微服务等机制，对分布式常用技术进行合理应用，解决实际问题。4、熟悉数据库及中间件技术(MySQLOracleMongoDBRedisMQ),有数据库优化及SQL优化经验。5、熟悉前端技术如Vue或Angular，至少1年开发经</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>）：1、及以上，计算机相关专业，5年以上.NET及体系开发工作经验，3年以上大型项目和大规模高并发访问的WEB应用架构开发经验。2、精通C#、Python、Go、Java、NodeJS等编程语言至少2~3种。3、熟悉分布式、缓存、消息、微服务等机制，对分布式常用技术进行合理应用，解决实际问题。4、熟悉数据库及中间件技术(MySQLOracleMongoDBRedisMQ),有数据库优化及SQL优化经验。5、熟悉前端技术如Vue或Angular，至少1年开发经验。6、良好的代码能力、沟通协作能力，掌握常用的基本算法、设计模式。7、具有较好的抽象设计能力，具有抽象定义系统领域、定义领域边界能力和成功案例。</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>湖北通远格知科技有限公司</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>91420111MA49MUKCXL</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>200万</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>CTO/首席技术官</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>10年以上</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
+        <v>17</v>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>1.战略规划：?协助CEO制定公司中长期技术发展战略，确保技术方向与业务目标高度契合。?负责产研团队的整体规划和管理，推动技术创新和产品研发，提升公司在行业中的竞争力。2.团队管理：?组建并领导高效的产品和技术团队，包括架构师、算法工程师、开发工程师、产品经理等核心成员。?制定团队绩效考核体系，培养高潜力人才，打造的产研团队。3.项目管理：?全面负责公司核心产品的研发管理工作，从需求分析、设计评审到上线交付的全生命周期管控。?确保重点项目按时高质量完成，对产品的市场表现和技术实现负主要责任。4.技术决策：?主导关键技术选型和技术架构设计，解决核心技术难题，保障系统稳定性、安全性和可扩展性。?深入了解行业技术趋势，探索新技术的应用场景，推动技术驱动业务发展。5.跨部门协作：?与市场、销售、运营等部门紧密合作，确保技术方案能够满足业务需求并带来实际价值。?定期向CEO汇报工作进展，提供技术支持和决策建议。6.创新推动：?推动公司内部的技术创新，鼓励团队成员提出新想法，并将其转化为实际成果。------------------------</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>1.计算机科学、信息技术或相关专业及以上，优先。2.8年以上互联网或科技行业经验，其中至少3年在大型企业担任产研总监或类似高级管理职位，有成功主导过从0到1的产品研发经验者优先。3.对软件架构设计、分布式系统、云计算、大数据处理等领域有深入理解。4.具备出色的团队管理和领导能力，能够激励团队成员达成目标。5.良好的沟通协调能力，能够在复杂环境中推动多方协作。6.具备较强的战略思维能力和商业敏感度，能够将技术与业务紧密结合。------------------------加分项：?在人工智能、大数据等前沿领域有研究或实践经验者优先。?曾在知名互联网公司或独角兽企业担任技术高管者优先。?有创业经历或带领团队成功完成大规模项目的经验者优先。</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>北京凯莫拉科技有限公司</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>91110113MA01HUXW4Q</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3330万</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>14</v>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>1.深度参与电力交易SaaS系统的前端开发全流程，从需求分析到上线部署，负责关键功能模块的设计、开发与持续维护，保障系统的交互体验与性能表现。2.基于React技术栈，运用函数式编程思维结合Hooks特性进行高效组件化开发；借助UmiJS搭建、优化项目架构，提升代码的可维护性与开发效率。3.完成各类复杂的数据可视化需求，精准呈现业务数据，为业务决策提供有力支持。部署。</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>1.及以上，计算机相关专业，有SaaS系统开发经验者优先。2.精通React，熟练掌握其核心原理、生命周期与状态管理机制，能够运用Hooks实现复杂业务逻辑。3.熟练掌握UmiJS，能基于此搭建完整的项目结构，灵活运用路由、插件等功能。4.熟悉TailwindCSS，能够运用原子化CSS理念进行高效的样式开发。5.熟练使用AntDesign、AntDesignPro，具备优秀的界面布局与视觉审美能力。6.熟练运用ahooks，具备自定义Hook的开发能力。7.熟练掌握Echarts，可根据业务需求定制复杂的数据可视化图表。8.深入理解Webpack原理，能够熟练进行性能优化、代码拆分等工作。岗位职责1.参与Python爬虫开发，完成数据采集、清洗及存储，支持业务部门数据需求；2.基于FastAPI/Flask框架开发数据接口，协助搭建内部工具平台；3.维护MySQL、MongoDB数据库，优化数据存储结构，配合完成Redis缓存设计；4.参与技术文档编写，协助团队进行代码调试与性能优化。任职要求核心技能：-熟练掌握Python编程，熟悉面向对象编程思想；-了解爬虫技术，对反扒破解有钻研</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>北京鸿雪信息科技有限公司</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>91110105099449288W</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1500万</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>北京市西城区</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>手机通讯器材及配件销售，电脑配件零售，配件销售</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>运维工程师</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>30000</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>北京 - 西城</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
+        <v>26</v>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>1、具备较好的沟通能力，能够进行客户需求分析和价值挖掘，结合技术背景提供完善的解决方案；2、设计并带领团队研发符合客户需求、用户体验良好的系统/平台；3、探索、研究业界新的技术方向，提升公司的核心竞争力以及技术对外影响力；4、熟悉大规模集群下的运维能力建设与开发，对互联网架构设计、运维体系有深入理解；</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>1、或以上，3-5年以上相关工作经验，计算机相关专业；2、在在线集群服务的运维和优化上有丰富的经验，有大型互联网公司系统开发、测试、运维、应用工作经验者优先；3、积极乐观，责任心强，工作认真细致，具有良好的团队沟通与协作能力；4、热爱编程，有强烈的求知欲、好奇心和进取心，能及时关注和学习业界新技术。技术背景一：1、对Linux系统有较深入的理解，有容器生产环境研发运维经验；2、熟悉云原生技术架构，熟悉Kubernetes核心组件以及周边生态，有丰富地实战经验；3、对容器相关网络、存储方案熟悉；4、对开源服务网格技术(如Istio、Eoy)有深入研究；5、熟悉Linux内核相关技术(如eBPF)，甚至有相关的开发经验；6、有云计算中虚拟化、云原生、安全、网络、中间件等领域的研发或架构经历；7、有设计及落地过大型互联网架构优化/改造等。技术背景二：1、在CPU、GPU算力集群管理、调度和优化等方面项目优化实战经验，有成熟的方法论，并在知名产品上成功验证；2、熟悉K8s和Docker源码，给主要项目贡献过代码，并具备一定社区影响力优先；3、对CPU、GPU及异构芯片的软件栈有深入的研究，熟悉</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>北京优易地信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>911101075976985438</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>300万</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>北京市昌平区</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>12000</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>北京 - 昌平</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>6</v>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>负责客户业务系统的研发工作。完成上级安排的研发任务。参与项目的需求调研、系统设计、用户培训、上线部署。能够独立完成模块设计、代码编写、单元测试等工作，负责代码注释，以及相关文档的编写。参与客户现场会议。负责公司产品WEB前端模块功能的设计、实现工作;负责公司项目的页面编写，Javascript数据处理、Ajax数据交互;按照项目计划，在保证质量的前提下、按时完成开发任务;与项目经理、后端工程师紧密工作在一起，负责公司各产品易用性改进、界面技术优化和WEB应用性能优化。Web前沿技术研究和新技术调研职位要求：计算机相关专业以上，3年以上工作经验。如果您酷爱编程，可以忽略上一条要求。精通HTML5、JS、jQeury、CSS2/3、XML、Ajax等技术并有良好的代码风格精通2种以上前端常用框架（VUE、React、Angular、Bootstrap等）了解前端模块化及组件化解决方案，并对框架实现原理有深入了解了解网页性能优化对细节考究，追求美感，逻辑分析能力强;良好的编程风格及文档编写习惯理解Web标准、语义化，可以解决主流浏览器及不同版本的兼容性问题熟练使用Photoshop、Sket</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>计算机相关专业以上，3年以上工作经验。如果您酷爱编程，可以忽略上一条要求。精通HTML5、JS、jQeury、CSS2/3、XML、Ajax等技术并有良好的代码风格精通2种以上前端常用框架（VUE、React、Angular、Bootstrap等）了解前端模块化及组件化解决方案，并对框架实现原理有深入了解了解网页性能优化对细节考究，追求美感，逻辑分析能力强;良好的编程风格及文档编写习惯理解Web标准、语义化，可以解决主流浏览器及不同版本的兼容性问题熟练使用Photoshop、Sketch进行图片处理。关于BJUED：我们规模不大，但是客户遍及全球；我们都很年轻，但是获奖无数；我们扎根底层研发，保持着纯技术的傲娇；我们热爱创新，脑洞无限。我们是少有的不玩儿概念，执着于技术的团队。加入我们，你会感受到迷上工作的快乐。我们的公司更像一个家，有能让你成就感十足的创新工作，当然也少不了办公室那杯香浓拿铁。十年之前，公司创立，我们一直稳步前行。今年，是我们的发展之年，需要加快步伐。真挚的邀请与我们志趣相投的小伙伴加入，一起创造新的十年。</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>南京企拓客科技有限公司</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>91320105MACG258RXQ</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3万</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>PHP开发</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>30000</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
+        <v>22</v>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>1.负责大数据模型GPT、大数据精准拓客系统、AI外呼系统、CRM系统的后端开发，包括数据处理、算法实现、接口开发等。2.参与系统架构设计和优化，确保系统的高可用性、稳定性和可扩展性。负责编写高质量的PHP代码，并进行代码审查和测试，确保代码质量和系统性能。3.深入研究大数据技术和精准拓客策略，与系统分析师和产品经理紧密合作，实现业务需求和系统功能。4.负责系统的数据安全性、稳定性和可扩展性，确保系统在高并发场景下的正常运行。5.参与相关文档的编写和维护，包括系统设计文档、接口文档、使用手册等。持续关注新技术和行业动态，积极学习和应用新技术，提升系统的技术水平和竞争力。</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>1.双及以上，计算机或相关专业优先考虑。2.具备5年以上PHP开发经验，有大型项目或互联网产品开发经验者优先。3.精通PHP语言，熟悉常用PHP框架（如Laravel、Symfony等）和开发工具。熟悉Web开发相关技术，包括HTML5、CSS3、JavaScript等前端技术，以及MySQL、Redis等数据库技术。4.熟悉Linux操作系统和常用服务器配置，具备良好的服务器运维能力。5.熟悉大数据相关技术，如Hadoop、Spark等，有数据处理和分析经验者优先。具备良好的编码习惯和代码规范意识，注重代码质量和程序性能。6.具备较强的学习能力和团队协作精神，能够与其他部门进行有效沟通和协作。对大数据技术和精准拓客领域有浓厚兴趣，愿意在该领域深入学习和探索。加分项：1.有大数据精准拓客系统或相关项目开发经验者优先考虑。2.熟悉数据挖掘、机器学习等相关技术者优先考虑。3.具备分布式系统、高并发处理经验者优先考虑。4.有开源项目贡献或维护经验者优先考虑。</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>北京原点数安科技有限公司</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>91110108MA01T7D166</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1033.053300万</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>产品总监</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>25</v>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>1.产品战略规划：-制定并执行公司数据安全产品的整体战略，重点发展智能化方向，结合AI和LLM技术提升产品竞争力。-分析市场趋势和竞争格局，识别AI驱动的数据安全创新机会，推动产品迭代与升级。2.产品全生命周期管理：-负责从需求分析、产品设计、开发到上线的全流程管理，确保产品按时交付并满足客户需求。-协调研发、市场、销售等部门，推动产品落地和商业化。3.客户需求洞察：-深入理解金融行业客户的数据安全需求，将客户反馈转化为产品功能优化建议。-定期与客户沟通，建立长期合作关系，提升客户满意度。4.市场与品牌建设：-参与市场推广活动，提升公司数据安全产品的品牌影响力。-与行业合作伙伴建立战略合作关系，拓展产品应用场景。</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>1.教育背景：-及以上，计算机科学、信息安全等相关专业优先。2.工作经验：-5年以上数据安全或相关领域产品管理经验，具备从0到1的产品落地经验。-熟悉金融行业数据安全法规和标准（如《数据安全法等）。3.技能要求：-精通数据安全技术（如加密、脱敏、访问控制等），具备技术背景者优先。-熟练使用主流产品设计工具（如Axure、Figma、Sketch等），能够独立完成高保真原型设计。-具备AI和LLM相关知识，有智能化数据安全产品设计经验者优先。-出色的沟通能力和跨部门协作能力，能够高效推动项目落地。-具备敏锐的市场洞察力和商业思维，能够平衡技术可行性与市场需求。4.个人特质：-结果导向，抗压能力强，能够在快节奏的创业环境中高效工作。-对数据安全领域充满热情，愿意长期深耕行业。加分项：-有金融行业数据安全项目实施经验。-熟悉国内外数据安全产品生态。-有AI/LLM在数据安全领域应用的实际项目经验。加分项有以下行业经验：计算机软件·信息安全·通信/网络设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>河南久荣计算机科技有限公司</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>91110105740064456D</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>100-499</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>5000万</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>吴经理</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>河南久荣计算机科技有限公司是中资北方投资顾问有限公司河南分公司。负责中资北方公司市场的开发和拓展，是总部在河南区域的*销售服务中心。公司提供较好的薪酬待遇以及晋升机会，同时也为公司员工提供持续的学习机会。 中资北方投资顾问有限公司成立于1997年，是经中国证监会批准的获得首批具有证券投资资格的证券咨询公司，资格证书号ZX0013。 公司以投资银行和证券投资咨询业务为主体，凭借自身的人才优势和研究实力，建立了与证券主管部门、各类专业研究机构、著名院校以及新闻媒体等之间的信息网络和良好的合作关系。公司成立至今，已为上百家客户提供了各类专业投资银行服务，得到了客户及业界的普遍认同，积累了一批优质客户，形成了长期合作的战略关系。 当前，随着中国证券市场的迅猛发展，投资者队伍日益扩大，投资者越来越迫切需要在证券投资上获得及时、专业的投资指导。公司挟十多年资本市场投行之经验，适时开展证券投资顾问业务，力争向投资者倡导价值投资理念，传播科学投资方法，为投资者证券决策提供专业的投资顾问支持。 中资北方投资顾问有限公司将以专注的态度，与时俱进的经营理念和高度的社会责任感，打造国内证券投资顾问业务领域高端</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>运维工程师</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>10000</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>18</v>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>?1、负责天翼云平台的日常运维与管理，确保平台稳定、高效运行，及时响应并解决各类技术问题。?2、依据客户业务需求，对天翼云资源进行合理规划、配置与部署，提供专业的云解决方案。?3、监测云平台网络状况，运用基础网络知识进行故障排查与优化，保障网络的顺畅连接与安全。?4、维护基础架构系统，对服务器、存储等设备进行日常巡检、性能监控及优化，确保系统可靠运行。?5、与客户及内部团队保持紧密沟通，及时了解业务需求变化，提供技术支持与咨询服务，推动项目顺利实施。?二、</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>?1、云知识：熟悉天翼云产品体系，包括但不限于云主机、云存储、云数据库等，有实际操作和使用经验。深入理解云计算原理与架构，掌握云资源管理、弹性伸缩、负载均衡等相关知识。?2、网络知识：具备扎实的基础网络知识，熟悉TCP/IP协议栈，能熟练进行IP地址规划、子网划分。了解网络设备（如路由器、交换机、防火墙）的基本配置与管理，可进行简单的网络故障排查与修复，持有CCNA/HCNA。?3、基础架构系统知识：熟悉常见的服务器操作系统（如WindowsServer、Linux）的安装、配置与维护。掌握服务器硬件知识，能进行服务器硬件故障诊断与处理。了解存储系统（如SAN、NAS）的基本原理与配置。?4、其他能力：具备良好的问题解决能力，能快速定位并解决复杂技术问题。拥有较强的沟通协调能力，可与不同团队及客户进行有效沟通。具备较强的学习能力，能快速掌握新知识与新技术，适应不断变化的工作需求。有良好的服务意识，能够积极主动地为客户提供优质服务。?5、优先条件：持有相关云计算（如天翼云、华为云、阿里云等）者优先。有大型云平台运维经验或参与过企业上云项目者优先。</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>北京星宇辰科技有限公司</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>91110112MA01MNRA4U</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Python开发</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>6</v>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>1、与客户沟通，并根据客户需求列出功能清单，撰写需求说明书。2、根据需求说明书完成原型图设计，实现技术方案评审、技术系统的架构设计、系统分析、平台功能开发和性能优化等各项任务。3、依据功能规格书完成数据库建模、程序开发与测试，开发过程中能解决项目中的关键问题和技术难题，对技术框架进行总体把控，并负责平台各类安全问题的解决。4、对项目开发流程、项目质量和项目开发进度的规划、控制、监督和管理。5、对项目进行调试和性能等专项测试，并完成项目的部署上线</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>1、有三年以上Python开发工作经验，能熟练掌握Python开发语言，并熟练掌握JavaScript、Ajax、jQuery、HTML5、CSS3、Vue等前端开发语言，熟悉并掌握Django、Flask等web框架并进行MVT模式开发,能对开发项目进行自动化测试、性能优化及部署上线；熟悉HTTP、TCP、UDP、WebSocket通讯协议、多线程、多进程通讯。2、熟练掌握Mysql/Mariadb、Postgresql、Sqlserver、Sqllite等关系型数据库，Sql语法性能调优；熟悉Redis、Mongodb等非关系型数据库。3、熟悉Java/C++/C其中任意一门编程语言，熟悉Linux开发环境，有良好的代码质量和风格，有独立部署项目、排查问题能力。4、熟悉Tensorflow、Keras等深度学习框架和工具，使用深度学习技术解决过一个实际问题（文本分类、实体识别、图像识别、场景识别等等）者优先。5、拥有分布式处理经验、高并发处理经验、微服务架构开发经验者优先；有机器学习、深度学习等相关项目实际经验，或在知名数据挖掘比赛中取得 名次者优先;有丰富的互联网项目集成、开发、</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>北京优云优客信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>91110111MA01FDGT4B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>200万</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>北京市昌平区</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>北京优云优客信息技术有限公司成立于2018年11月2日，注册资本200万元，公司所在地为高科技互联网公司云集的TBD云集中心 ，创业初期拥有员工人数36人，员工均曾经在上市公司接受过*的电话销售技能培训，且很多是销售界的百万销冠，公司有着*的销售团队和销售管理方法，系统化专业化的技能技巧培训。公司经营范围为技术开发、技术服务、技术推广;教育科技开发;旅游资源开发(不含旅游业务);产品设计;网页设计;设计、制作、代理、发布广告;家居装饰及设计;市场营销策划;自费出国留学中介服务;企业管理咨询、经济信息咨询、商务信息咨询、旅游信息咨询、环保技术咨询(中介除外);企业管理;财务咨询(不得开展审计、验资、查帐、评估、会计咨询等需经专项审批的业务,不得出具相应的审计报告、验资报告、查帐报告、评估报告等文字材料);基础软件服务;应用软件服务;软件开发;互联网信息服务。(企业依法自主选择经营项目,开展经营活动;互联网信息服务以及依法须经批准的项目,经相关部门批准后依批准的内容开展经营活动;不得从事本市产业政策禁止和限制类项目的经营活动。)优云优客致力成为一家将*优质的服务给到*优秀的客户的互联网新兴</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>北京 - 昌平</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>7</v>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>1.主导App全流程开发：负责安卓和iOS系统App的设计与开发，从需求分析、架构设计到代码实现，确保产品高质量交付。2.优化用户体验：对App进行性能优化，提升应用的稳定性、流畅度以及用户体验，保障应用在不同设备和系统版本上的兼容性。3.协同创新：与产品、设计和后端团队紧密合作，参与产品功能讨论，为产品迭代提供专业的技术建议，实现产品的创新与优化。4.攻克技术难题：深入研究并解决开发过程中遇到的复杂技术问题，持续关注行业前沿技术，为团队引入新技术、新方法。二、</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>1.与专业：及以上，计算机科学、软件工程等相关专业，扎实的专业知识是您的敲门砖。2.开发经验：拥有3年以上前端、安卓或iOSApp开发经验，有完整的项目开发经历，熟悉敏捷开发流程，能主导或深度参与过至少一款成功上线的App开发。3.技术能力-原型设计：熟练使用至少一种原型设计工具，能输出高质量的能落地的设计稿。-安卓开发：熟练掌握Java或Kotlin语言，熟悉安卓开发框架和常用设计模式，精通安卓UI设计、多线程、网络通信等开发技术（复杂场景下结合Uni-app解决问题）。-iOS开发：熟练掌握Swift或Objective-C语言，熟悉iOS开发框架，对iOS界面设计规范、内存管理机制有深入理解（复杂场景下结合Uni-app解决问题）。-其他：熟练掌握Uni-app开发，熟悉常用的第三方库和工具，具备良好的代码规范和注释习惯，能够独立完成复杂功能模块的开发与调试。4.沟通协作：具备良好的沟通能力和团队协作精神，善于在跨部门团队中表达自己的想法，共同推动项目进展。5.学习能力：对技术有强烈的好奇心和求知欲，具备快速学习新知识、新技术的能力，能紧跟行业发展趋势。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>上海子年信息系统有限公司</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>91310107MA1G14N9XD</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>500万</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>电信网络工程师</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>11000</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>6</v>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>桌面运维工程师</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>及时处理客户需求教育背景：及以上行业经验：3年岗位经验：2年及以上Security+等安全。岗位经验：3-5年教育背景：及以上工作职责机房管理:负责机房管理，包括但不限于:机房出入管理、资产管理，与各供应商对接进行机房内布局、设备安装、线缆管理等工作。Cabling:具备cabling故障排查能力，能与Cabling供应商对接进行cabling故障排查和维修确保数据点为网络连通性和稳定性。用户支持:负责四方城用户支持和服务，解决用户在网络和基础设施使用过程中遇到的基本问题。做好信息收集，并与其他技术团队合作以解决复杂问题。网络设备:进行网络设备或业务的基本排查，包括但不限于设备状态、基本故障诊断等工终技术支持:协助团队完成其他相关的技术支持工作。职位要求经验:具有相关工作经历和技术专业背景，特别是在机房管理和网络维护方面有丰富经验。技能:熟悉机房设备布局和线缆管理，并具有良好的操作和维护能力。:拥有CCNA或同等的技术能力，并对网络设备有深入的理解和操作经验，熟练学握网络基本技术，如TCP/IP，DNS，DHCP沟通能力:具有良好的沟通能力和团队合作精神，能有效解决技术问题并与用户进行</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>重庆左云右数科技有限公司</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>91500103MA5U63B47R</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>500万</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>重庆左云右数科技有限公司,成立日期:2016年05月19日,创建于重庆市,经营范围:一般项目：计算机软硬件开发及销售；计算机网络技术的技术开发、技术咨询；计算机系统集成；销售计算机软件及辅助设备、五金交电、仪器仪表、机械设备、纸制品、办公用品、服装、建筑材料（不含危险化学品）；企业管理咨询；企业营销策划；商务信息咨询；货物及技术进出口（法律、行政法规禁止的项目除外，法律、行政法规限制的项目取得许可后经营）（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）,企业注册地址:重庆市渝中区体育村44号4031号;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>运维工程师</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>30000</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>1、运维团队管理：制定运维团队现场管理规范，明确运维团队各阶段目标，管理运维团队日常工作，激励运维人员工作积极性，确保运维团队正常运行。2、运维工作管理：识别各项运维工作重要程度优先级，合理安排运维工作计划；有序分派运维工作、及时跟进运维情况和结果；保证运维工作有序推进。3、运维数据管理：确保运维人员完整、准确的记录用户反馈的各类问题，并对问题进行初步识别、分类和解答；技术问题及时转派到后端工程师处理，积极跟进处理进度、并及时反馈给用户；定期统计运维工作情况，并与客户进行确认。4、业务需求收集：积极与客户沟通，识别和收集业务中的新需求，并及时反馈给开发组进行分析和评估，推进客户新需求的落地和确认，并负责新需求实施后的测试验收。5、培训和知识分享：负责系统运维中通用知识的提炼和总结，组织运维人员建立和管理运维知识库、编写和完善系统使用手册，根据项目组的安排对经销商进行培训和系统使用知识的分享。6、客户关系维护：现场维护好与客户的友好关系，积极完成客户交代的各项工作，建立运维团队在客户心目中的良好印象，获取客户对日常运维工作的积极支持。</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>1、、计算机科学、信息技术或相关领域；2、了解数据库基本原理和操作优先考虑；3、熟悉汽车行业销售、售后领域相关业务；4、熟悉DMS系统功能及逻辑，有相关工作经验者优先；5、性格开朗，积极主动，良好的团队合作意识和沟通能力，强烈的责任心和服务意识；</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>北京木木森网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>91110114MA01HKMQ88</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>128万</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>北京木木森网络科技有限公司,成立日期:2019年03月08日,创建于北京市,经营范围:技术开发、技术交流、技术转让、技术推广、技术服务、技术咨询；软件开发；基础软件服务、应用软件服务（不含医用软件）；计算机系统服务；经济信息咨询（不含中介服务）；设计、制作、代理、发布广告；销售日用百货、五金交电（不含电动自行车）、装饰材料、文化用品、化工产品（不含危险化学品）、服装鞋帽、计算机、软件及辅助设备。（企业依法自主选择经营项目，开展经营活动；依法须经批准的项目，经相关部门批准后依批准的内容开展经营活动；不得从事本市产业政策禁止和限制类项目的经营活动。）,企业注册地址:北京市昌平区北清路1号院3号楼11层1单元1209;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>C#开发</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>16000</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>42</v>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>1.???负责上位机软件设计及开发；2.???负责集成方案设计及开发、联调；3.???负责设计文档的撰写和完善；4.???负责问题的定位和分析；5.???按照公司要求进行新技术的预研；6.???完成资源部门安排的资源工作。?</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>1.??????精通C#开发语言，具有3年以上WinformWPF应用开发经验2.??????精通Python开发语言，具有2年以上开发经验3.??????熟练使用VisualStudio08、、、Pycharm等开发工具4.??????熟悉常用的数据格式，如xml、json等，熟悉各种数据格式的转换及序列化及反序列化5.??????熟悉常用数据库mysql，sqlite、redis等6.??????熟悉多线程编程，了解线程锁及线程同步相关知识，掌握多线程调试及问题定位的方法7.??????熟悉web接口编程及发布相关技术，对Rest、Restful等有一定了解，熟悉相关的开发技术及框架，且熟悉post、swa er等工具的使用8.??????熟悉ipc、rpc跨进程通信开发技术，对thrift、grpc等框架有一定了解9.??????了解常用的网络通信协议，如tcp、udp、http、snmp、icmp、ftp等10.???熟悉常用的版本管理工具，git等11.???具有逻辑分析和创新能力，具有较强的问题分析和解决能力，且具有良好的团队协作能力，能承受一定的工作压力</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>北京思平广告有限公司</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>911101086908196969</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>500万</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>北京市东城区</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>软件研发工程师</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>13000</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>北京 - 东城</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>负责广告广告平台后端核心模块的设计与开发，包括流量处理、广告投放策略、数据实时计算等业务逻辑；独立负责系统模块的设计、编码、调试和优化；根据业务需求，能够利用基础的前端技术完成简单的前端页面或交互开发，满足整体业务流程需求；优化现有系统架构，提升平台性能、稳定性与扩展性；编写高质量、可维护的代码，并对关键模块进行单元测试和性能调优；分析和解决生产环境中的问题，确保系统高可用性；持续关注广告技术及DSP领域的新技术和行业动态，为产品创新提供技术支持。</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>3年以上后端开发经验，有广告DSP或相关广告平台开发经验者优先；熟悉高并发、大数据量的分布式系统设计与实现，具备扎实的编程功底（Java、C++、Go、Python、PHP等至少一门语言熟练掌握）；熟悉常用数据库（如MySQL、Redis、MongoDB等）及缓存、消息队列等中间件；理解广告系统业务流程，具备广告流量实时处理、数据分析和算法优化经验者优先；具备基础的前端开发技能（如HTML、CSS、JavaScript等），能完成简单的前端页面开发和调试；具备独立完成项目开发的能力，善于自我管理和快速响应业务需求；良好的沟通协作能力，具备快速学习和解决问题的能力；本岗位需要：具备广告平台相关数据分析、算法设计或系统开发经验；有大型互联网广告平台开发经验或知名广告技术公司工作经历优先</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>北京罗克维尔斯科技有限公司</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>北京市通州区</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>软件测试</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>北京 - 通州</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>- 根据设计文档编写测试用例- 按照测试用例执行功能点测试- 提交并分析测试结果- 熟悉测试流程及技术，熟悉LoadRunner优先- 良好沟通能力和团队合作精神，热爱软件技术【职位要求】- 年龄21到25岁，大专及以上学历- 计算机、理工、设计、工程类等相关专业优先- 学习能力强，勤奋好学，肯吃苦- 应届毕业生优先考虑- 不招聘假期工【薪资福利】- 薪资：10000-18000元- 五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>- 年龄21到25岁，大专及以上学历- 计算机、理工、设计、工程类等相关专业优先- 学习能力强，勤奋好学，肯吃苦- 应届毕业生优先考虑- 不招聘假期工【薪资福利】- 薪资：10000-18000元- 五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>北京胜普多邦通信技术有限公司</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>游戏策划</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>#跟随老员工学习技术操作#掌握基础计算机及办公软件使用#及时发现并解决问题#回顾技术指导内容，提升技能【职位要求】#年龄20-30岁，应届生可投#专业不限，相关专业优先#0基础0经验可培训上岗#学习能力强，勤奋好学，能吃苦#接受技术类工作内容【薪资福利】#月薪8000-16000元#提供住宿，24小时热水#周末双休，带薪假期#缴纳五险一金+企业年金#团建活动，饭补交通补助</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>#年龄20-30岁，应届生可投#专业不限，相关专业优先#0基础0经验可培训上岗#学习能力强，勤奋好学，能吃苦#接受技术类工作内容【薪资福利】#月薪8000-16000元#提供住宿，24小时热水#周末双休，带薪假期#缴纳五险一金+企业年金#团建活动，饭补交通补助</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>北京品阅东方科技有限公司</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>91110106MA01J13J92</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>10万</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>北京-丰台-右安门 北京市丰台区百强大道10号楼12层2单元北京市丰台区百强大道10号楼12层2单元</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>我们是一家专业从事国内外优秀出版资源引进、整合、销售的高科技企业。自成立之日起，公司始终秉承“与客户同进步、与员工共成长”的发展理念，聚合全国出版资源，利用先进的数字出版技术，实现出版业态和服务模式创新，为用户提供*及时、高效的信息服务，致力于打造国际*的内容资源服务商。</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>https://pic4.58cdn.com.cn/nowater/zcmapp/n_v34522999586c7462093a5049d2b74dce7.jpg||https://pic1.58cdn.com.cn/nowater/zcmapp/n_v3ee722a9343c64ca4a9dd05f5e6a19efb.jpg</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>IT技术支持</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>10000</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>1-2年</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>1、负责公司产品的安装、调试和故障处理工作2、对系统运行状态进行监控并及时处理3、负责与用户沟通解决各类技术问题及用户需求4、负责收集用户意见并及时反馈给上级或相关部门改进产品性能5、负责产品维护、升级、修复等相关工作6、协助完成相关文档的编写等工作7、负责配合其他部门做好技术支持工作8、定期提交项目总结报告，并提出建议方案9、根据公司要求，制定实施计划并按计划执行10、负责产品上线后用户的培训指导11、负责对产品数据进行分析、整理和维护12、完成上级领导交办的其它任务职位要求：1、熟练掌握计算机操作2、熟悉服务器系统和硬件3、熟悉网络安全配置4、熟悉SQL语句，并熟练操作数据库系统（SQL server/ORCAL/MYSQL等）5、熟悉前端开发工作时间：1、8：30~17：00</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>1、熟练掌握计算机操作2、熟悉服务器系统和硬件3、熟悉网络安全配置4、熟悉SQL语句，并熟练操作数据库系统（SQL server/ORCAL/MYSQL等）5、熟悉前端开发工作时间：1、8：30~17：00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>北京至乐天下科技有限公司</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>游戏策划</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>1. 热爱游戏动漫，有意向长期发展；2. 能尽快入职，服从安排；3. 对游戏动漫有独到见解；4. 表达良好，团队合作佳。职位要求：接受应届生及转行者，有高级技术人员指导。工作时间：朝九晚六，周末双休，具体时间可根据业务需求灵活安排。薪资福利：月薪8000-12000元，五险一金，年底双薪，年度旅游，豪华团建，节日聚餐，饭补，项目提成。</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>接受应届生及转行者，有高级技术人员指导。工作时间：朝九晚六，周末双休，具体时间可根据业务需求灵活安排。薪资福利：月薪8000-12000元，五险一金，年底双薪，年度旅游，豪华团建，节日聚餐，饭补，项目提成。</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>北京华民中电电力工程有限公司</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>91110113MA00BGAT11</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>5000万</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>北京市大兴区</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>梁玥</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>北京-大兴-西红门 西红门鸿坤金融谷25号楼西红门鸿坤金融谷25号楼</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>项目专员/助理</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>10000</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>北京 - 大兴</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>1. 协助项目经理进行工程项目的日常管理工作，包括进度跟踪、质量控制和安全管理。2. 负责收集和整理项目资料，编制项目报告，确保资料的完整性和准确性。3. 参与项目会议，记录会议纪要，并跟进落实各项决策。4. 协助处理项目中的突发事件，及时向项目经理汇报并提出解决方案。</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>1. 大专及以上学历、建筑工程等相关专业优先。2. 熟悉工程管理流程，了解建筑法规和标准。3. 具备良好的沟通能力和团队协作精神。4. 有较强的责任心和执行力，能适应一定的工作压力。5. 熟练使用办公软件和工程管理软件。</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>东方嘉业云创（北京）科技有限公司</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>91110106MA01RK2107</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>100万</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>肖海</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>北京-丰台-科技园区 丰科路6号院万达广场丰科路6号院万达广场</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>东方嘉业云创（北京）科技有限公司,成立日期:2020年05月28日,创建于北京市,经营范围:技术开发；技术咨询；技术转让；技术推广；技术服务；体育赛事咨询；承办展览展示活动；组织体育竞赛；健身休闲活动；销售电子产品、通讯设备、工艺品、服装、鞋帽、日用品、办公用品、化妆品、钟表、眼镜、珠宝首饰、文化用品、摄影器材、体育用品及器材、运动防护用具、建筑材料、五金交电（不含电动自行车）、通讯设备、钟表；日用电器修理（不符合家用电子电器维修业服务经营规范不得开展经营活动）；家居装饰；企业管理咨询；文化娱乐经纪人服务；组织文化艺术交流活动。（市场主体依法自主选择经营项目，开展经营活动；依法须经批准的项目，经相关部门批准后依批准的内容开展经营活动；不得从事国家和本市产业政策禁止和限制类项目的经营活动。）,企业注册地址:北京市丰台区丰科路6号院4号楼2层3-233;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>https://pic6.58cdn.com.cn/nowater/zpqypc/n_v3209db5efa7734973937b03340a750ef6.png?delexif=1||https://pic7.58cdn.com.cn/nowater/zpqypc/n_v37db9af2260cb450aa6dc2acfc1f26081.png?delexif=1||https://pic5.58cdn.com.cn/nowater/zpqypc/n_v36aaa5167eeb9462f89b7c69409932ee0.png?delexif=1</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>IT技术支持</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>10000</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>1-2年</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>负责各品牌笔记本电脑软硬件维修，包括软件安装调试、硬件故障诊断与更换，确保维修质量及客户满意度。职位要求：-19-40岁，有实体门店/电子卖场1年以上维修经验-熟悉笔记本拆装维修流程，动手能力强-沟通能力好，责任心强，具备团队合作意识薪资福利：综合月薪6000-10000元，提供免费住宿工作时间：根据业务需求灵活安排</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>-19-40岁，有实体门店/电子卖场1年以上维修经验-熟悉笔记本拆装维修流程，动手能力强-沟通能力好，责任心强，具备团队合作意识薪资福利：综合月薪6000-10000元，提供免费住宿工作时间：根据业务需求灵活安排</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>巽灵科技（北京）有限公司</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>91110108MACXH1AG9F</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>500万</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>8000</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>1.需求理解与开发?深入研究汽车/能源供应链业务场景，与产品、业务团队沟通，通过需求反讲评审，精准把握前端交互与视觉需求。?基于设计文档，使用Vue、React等主流框架完成供应链系统前端模块开发，实现组件化、响应式界面，确保交互逻辑与视觉效果符合产品要求。2.系统优化与协作?参与代码审查，优化前端代码的可维护性、性能与用户体验（如首屏加载、动画流畅度）。?负责前端模块的单元测试与联调，配合测试团队完成集成测试，编写测试用例，保障系统稳定运行；与后端、设计、运维团队协作推进项目落地。3.技术创新与探索?关注前端技术趋势，引入新技术（如Webpack/Vite性能优化、前端缓存策略）和组件库（如AntDesign、ECharts），优化数据可视化与交互体验。?参与技术研讨，分享前端开发经验，推动团队技术能力提升（如性能优化方案、组件复用规范）。4.项目支持与维护?在项目实施阶段为现场团队提供前端技术支持，解决部署、兼容性等问题。?维护已上线系统，及时修复前端故障，根据业务反馈持续优化界面交互与功能迭代。</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>1.与专业?及以上，计算机相关专业，应届或1-2年前端开发经验均可。2.技能要求?前端框架：熟练掌握Vue、React，精通ReactHooks、组件化开发、状态管理（Redux/ContextAPI）、路由（ReactRouter）及性能优化策略。?组件库与工具：熟练使用AntDesign、ElementUI、ECharts等组件库，能基于业务需求定制组件。?核心语言：精通JavaScript（ES6+特性），能编写高效、可维护的代码，掌握异步编程（Promise/Async-Await）、闭包、原型链等核心概念。?基础技术：精通HTML5、CSS3，深刻理解语义化标签、盒模型、Flexbox/Grid布局、响应式设计原理，能处理浏览器兼容性问题（如不同设备适配、IE兼容方案）。?前端工程化：熟悉Webpack、Vite等构建工具，掌握npm/yarn/pnpm包管理，了解前端模块化（Co onJS/ESModule）与构建流程优化。?样式方案：熟练使用Sass/ s等CSS预处理器或CSS-in-JS（如styled-components），具备自定义主题与样式规范设计能力。?调试</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>上海茗日智能科技有限公司</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>91310113MA1GLYPP4Q</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2000万</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Python开发</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>23000</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>24</v>
+      </c>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>--------------1.落地对话智能服务方案，参与工程设计、开发、维护、升级；2.编写、维护自动化测试用例；3.配合技术Lead，解决开发过程中的技术问题；4.定期总结和分享工作中沉淀的经验和成果，主动参与团队工程技术提升的讨论</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>--------------技术：1.一类或以上，计算机和软件工程相关专业；2.1年以上Python后端的项目开发经验；3.熟悉tornado,aiohttp,redis,rab tmq,sqlserver，在熟悉现有代码2周后，运用以上技术实际进行开发；4.必须能够独立阅读理解、撰写、整理工程开发文档；Professionalism：1.有强烈的学习欲望；2.不设边界；3.具备良好的沟通能力，能够以解决问题为目的，与团队进行高效沟通；4.具备以结果为导向的意识，能够确保自己Deliver的结果。你deliver的结果将会被产品同事验收，请确保自己的work不会被轻易challenge；5.具备基础的英文书面读写的能力，能够看懂和编写英文文档；你会获得--------------1.经验：你可以回答“参与世界100强跨国企业前沿的智能项目，是一种怎样的体验？”2.工程成就：用你的代码和我们一起，为那些大品牌打造智能服务，为它们的大量终端用户群提供全新的优质体验，liketheyneverhadbefore；3.财务增长：随着startup的高速增长，你也将获得对应的财务增长公司介绍--</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>北京罗克维尔斯科技有限公司</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>北京市通州区</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>软件测试</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>北京 - 通州</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>- 根据设计文档编写测试用例- 按照测试用例执行功能点测试- 提交并分析测试结果- 熟悉测试流程及技术，熟悉LoadRunner优先- 良好沟通能力和团队合作精神，热爱软件技术【职位要求】- 年龄21到25岁，大专及以上学历- 计算机、理工、设计、工程类等相关专业优先- 学习能力强，勤奋好学，肯吃苦- 应届毕业生优先考虑- 不招聘假期工【薪资福利】- 薪资：10000-18000元- 五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>- 年龄21到25岁，大专及以上学历- 计算机、理工、设计、工程类等相关专业优先- 学习能力强，勤奋好学，肯吃苦- 应届毕业生优先考虑- 不招聘假期工【薪资福利】- 薪资：10000-18000元- 五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>北京胜普多邦通信技术有限公司</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>游戏策划</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>#配合高级人员完善游戏设计项目#跟进项目进度，协调沟通各部门#分析用户喜好，提出创新创意想法【职位要求】#20-30周岁，对游戏动漫有浓厚兴趣#逻辑思维清晰，希望创作自己的游戏作品#热爱游戏动漫行业，愿意将爱好转化为职业#具备良好的表达能力和团队合作精神【薪资福利】#月薪7000-14000元，年薪可达12万#五险一金|包吃包住|年底双薪|周末双休|加班补助|交通补助|饭补|话补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>#20-30周岁，对游戏动漫有浓厚兴趣#逻辑思维清晰，希望创作自己的游戏作品#热爱游戏动漫行业，愿意将爱好转化为职业#具备良好的表达能力和团队合作精神【薪资福利】#月薪7000-14000元，年薪可达12万#五险一金|包吃包住|年底双薪|周末双休|加班补助|交通补助|饭补|话补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>珠海必要工业科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>北京石市景山区</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>网络/系统安全</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>北京 - 石景山</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>- 负责系统网络安全相关工作- 熟练应用网管系统，分析网络报文- 操作管理数据中心主流网络设备- 制定网络安全策略- 参与网络架构设计与优化【职位要求】- 年龄21到25岁，大专及以上学历- 计算机、理工、工程类等相关专业优先- 应届毕业生优先考虑- 熟悉TCP/IP协议、SNMP协议- 精通网络设备操作及SD-WAN、SDN知识- 持有CCIE、HCIE等者优先- 具备良好安全意识和故障处理能力【薪资福利】- 薪资：10000-16000元- 福利：五险一金|包吃包住|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>- 年龄21到25岁，大专及以上学历- 计算机、理工、工程类等相关专业优先- 应届毕业生优先考虑- 熟悉TCP/IP协议、SNMP协议- 精通网络设备操作及SD-WAN、SDN知识- 持有CCIE、HCIE等者优先- 具备良好安全意识和故障处理能力【薪资福利】- 薪资：10000-16000元- 福利：五险一金|包吃包住|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>北京胜普多邦通信技术有限公司</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>数据开发</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>6</v>
+      </c>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>✓负责公司WEB端与移动端产品的界面设计✓理解产品需求和交互原型，并进行视觉呈现✓配合前端完成设计交付，保证视觉效果质量✓结合用户研究和产品分析，优化用户体验【职位要求】✓高中及以上学历，有设计相关技能优先✓能提供清晰的产品原型、流程图、线框图✓熟悉交互设计方法，具备良好的美术基础和色彩感✓注重细节，沟通能力强，有学习热情和自驱力【工作时间】✓朝九晚六，周末双休，国家法定节假日正常休息【薪资福利】✓薪资6000-9000元/月✓五险一金|包吃包住|年底双薪|加班补助|交通补助|饭补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>✓高中及以上学历，有设计相关技能优先✓能提供清晰的产品原型、流程图、线框图✓熟悉交互设计方法，具备良好的美术基础和色彩感✓注重细节，沟通能力强，有学习热情和自驱力【工作时间】✓朝九晚六，周末双休，国家法定节假日正常休息【薪资福利】✓薪资6000-9000元/月✓五险一金|包吃包住|年底双薪|加班补助|交通补助|饭补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>珠海必要工业科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>北京市大兴区</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>北京 - 大兴</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>·根据提供的算法，开发H5网页页面功能【职位要求】·年龄21到25岁，大专及以上学历（不符合勿扰）·计算机、理工、设计、工程类等相关专业优先·有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性·掌握一种前端开发框架及其生态，如Vue、React，Vue优先·熟练使用element-ui、ant-design等组件库，能独立封装组件·掌握svg、caas绘图技术（必须）·熟悉threejs、babylonjs等3d框架，有相关作品或经验·有较好学习能力及接受能力，勤奋努力好学，肯吃苦·应届毕业生优先考虑，非假期工【薪资福利】·薪资：16000-25000元·五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>·年龄21到25岁，大专及以上学历（不符合勿扰）·计算机、理工、设计、工程类等相关专业优先·有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性·掌握一种前端开发框架及其生态，如Vue、React，Vue优先·熟练使用element-ui、ant-design等组件库，能独立封装组件·掌握svg、caas绘图技术（必须）·熟悉threejs、babylonjs等3d框架，有相关作品或经验·有较好学习能力及接受能力，勤奋努力好学，肯吃苦·应届毕业生优先考虑，非假期工【薪资福利】·薪资：16000-25000元·五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>珠海必要工业科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>北京市昌平区</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>软件研发工程师</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>北京 - 昌平</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>✓ 负责软件开发及维护工作✓ 与系统人员沟通需求，编写开发文档✓ 参与软件架构设计【职位要求】✓ 电子、通信、计算机相关专业毕业✓ 逻辑分析能力强，能对业务逻辑进行合理抽象和拆分【薪资福利】✓ 薪资范围10000-19000元/月，15薪✓ 五险一金|包吃包住|年底双薪✓ 交通补助|加班补助|饭补|话补|房补|职业培训✓ 周末双休</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>✓ 电子、通信、计算机相关专业毕业✓ 逻辑分析能力强，能对业务逻辑进行合理抽象和拆分【薪资福利】✓ 薪资范围10000-19000元/月，15薪✓ 五险一金|包吃包住|年底双薪✓ 交通补助|加班补助|饭补|话补|房补|职业培训✓ 周末双休</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>珠海必要工业科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>北京市昌平区</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>北京 - 昌平</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>- 根据提供的算法，开发H5网页页面功能【职位要求】- 年龄21到25岁，大专及以上学历- 计算机、理工、设计、工程类等相关专业优先- 有较好的学习能力及接受能力，勤奋努力好学，肯吃苦- 应届毕业生优先考虑- 前期有老员工带领学习，直到完全胜任工作- 需掌握HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性- 掌握Vue或React前端框架，Vue优先- 熟练使用element-ui、ant-design等组件库，能独立封装组件- 掌握svg、caas绘图技术（必须）- 熟悉threejs、babylonjs等3d框架，有相关作品或经验【薪资福利】- 薪资：15000-26000元/月- 福利：五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>- 年龄21到25岁，大专及以上学历- 计算机、理工、设计、工程类等相关专业优先- 有较好的学习能力及接受能力，勤奋努力好学，肯吃苦- 应届毕业生优先考虑- 前期有老员工带领学习，直到完全胜任工作- 需掌握HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性- 掌握Vue或React前端框架，Vue优先- 熟练使用element-ui、ant-design等组件库，能独立封装组件- 掌握svg、caas绘图技术（必须）- 熟悉threejs、babylonjs等3d框架，有相关作品或经验【薪资福利】- 薪资：15000-26000元/月- 福利：五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>北京乐知行软件有限公司</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>北京市昌平区</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>运维工程师</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>北京 - 昌平</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>- 负责云计算环境下的运维工作- 学习并掌握SNMP协议及网管系统应用- 协助数据中心网络设备（路由交换、负载均衡、防火墙）的操作管理- 参与网络架构设计与优化- 分析网络报文，处理故障和性能优化问题【职位要求】- 年龄21到25岁，大专及以上学历，理工、计算机等相关专业优先- 有较强学习能力，勤奋好学，肯吃苦- 应届毕业生优先考虑- 熟悉Linux/Windows操作系统- 精通TCP/IP协议，熟悉SD-WAN、SDN网络知识- 持有CCIE、HCIE等有效期内者优先【薪资福利】- 薪资：9000-13000元- 福利：五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>- 年龄21到25岁，大专及以上学历，理工、计算机等相关专业优先- 有较强学习能力，勤奋好学，肯吃苦- 应届毕业生优先考虑- 熟悉Linux/Windows操作系统- 精通TCP/IP协议，熟悉SD-WAN、SDN网络知识- 持有CCIE、HCIE等有效期内者优先【薪资福利】- 薪资：9000-13000元- 福利：五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>北京罗克维尔斯科技有限公司</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>*根据提供的算法，开发H5网页页面功能【职位要求】*年龄21到25，大专及以上学历（不符合勿扰）*计算机、理工、设计、工程类等相关专业优先*有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性*掌握Vue或React前端框架，Vue优先，能独立封装组件*熟练使用element-ui、ant-design等组件库*掌握svg、caas绘图技术（必须）*熟悉threejs、babylonjs等3d框架，有相关作品或经验*学习能力强，勤奋好学，肯吃苦，应届毕业生优先*不招聘假期工【薪资福利】*薪资15000-27000元*五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>*年龄21到25，大专及以上学历（不符合勿扰）*计算机、理工、设计、工程类等相关专业优先*有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性*掌握Vue或React前端框架，Vue优先，能独立封装组件*熟练使用element-ui、ant-design等组件库*掌握svg、caas绘图技术（必须）*熟悉threejs、babylonjs等3d框架，有相关作品或经验*学习能力强，勤奋好学，肯吃苦，应届毕业生优先*不招聘假期工【薪资福利】*薪资15000-27000元*五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>北京罗克维尔斯科技有限公司</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>JAVA开发</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>1、负责信息化系统软件设计及功能模块开发2、编写软件概要设计和详细设计文档3、按规范进行单元测试和集成测试4、负责已上线系统的日常维护与升级【职位要求】1、年龄21到25，大专及以上学历2、计算机、理工、设计、工程类等相关专业优先3、学习能力强，勤奋好学，肯吃苦4、应届毕业生优先考虑5、不招聘假期工【薪资福利】1、薪资：15000-24000元2、五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>1、年龄21到25，大专及以上学历2、计算机、理工、设计、工程类等相关专业优先3、学习能力强，勤奋好学，肯吃苦4、应届毕业生优先考虑5、不招聘假期工【薪资福利】1、薪资：15000-24000元2、五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>亚联（天津）信息技术有限责任公司</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>JAVA开发</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>·负责信息化系统软件设计及实现，根据系统设计完成功能模块的开发·编写软件概要设计、详细设计文档等相关技术文档·按规范进行单元测试、集成测试工作·已上线系统的日常维护及升级【职位要求】·年龄21到25，学历大专及以上·计算机、理工、设计、工程类等相关专业优先·有较好的学习能力及接受能力·勤奋努力好学，肯吃苦·应届毕业生优先考虑·不招聘假期工·前期有老员工带领学习，直到完全胜任工作【薪资福利】·薪资区间：12000_18000·五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>·年龄21到25，学历大专及以上·计算机、理工、设计、工程类等相关专业优先·有较好的学习能力及接受能力·勤奋努力好学，肯吃苦·应届毕业生优先考虑·不招聘假期工·前期有老员工带领学习，直到完全胜任工作【薪资福利】·薪资区间：12000_18000·五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>亚联（天津）信息技术有限责任公司</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>测试工程师</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>✓ 根据设计文档编写测试用例✓ 按照测试用例执行功能点测试✓ 提交并分析测试结果✓ 熟悉测试流程及相关技术，熟悉LoadRunner优先✓ 良好沟通与团队合作能力，对软件技术有热情【职位要求】✓ 年龄20到30，学历大专及以上✓ 计算机、理工、设计、工程类等相关专业优先✓ 学习能力强，勤奋好学，肯吃苦✓ 应届毕业生优先考虑✓ 不招聘假期工【薪资福利】✓ 薪资18000-25000元✓ 五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>✓ 年龄20到30，学历大专及以上✓ 计算机、理工、设计、工程类等相关专业优先✓ 学习能力强，勤奋好学，肯吃苦✓ 应届毕业生优先考虑✓ 不招聘假期工【薪资福利】✓ 薪资18000-25000元✓ 五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>北京罗克维尔斯科技有限公司</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>软件研发工程师</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>1、根据提供的算法，开发H5网页页面功能【职位要求】1、年龄21到25，学历大专及以上2、计算机、理工、设计、工程类等相关专业优先3、有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性4、掌握一种前端开发框架及其生态，如Vue、React，并对其设计原理有较深理解，Vue优先5、熟练使用element-ui、ant-design等组件库，可以独立封装组件6、掌握svg、caas绘图等技术（必须）7、熟悉threejs、babylonjs等3d框架的使用，有相关的3d作品或工作经验8、有较好的学习能力及接受能力；勤奋努力好学，肯吃苦；应届毕业生优先考虑9、不招聘假期工【薪资福利】1、薪资：15000-23000元2、福利保障：五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>1、年龄21到25，学历大专及以上2、计算机、理工、设计、工程类等相关专业优先3、有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性4、掌握一种前端开发框架及其生态，如Vue、React，并对其设计原理有较深理解，Vue优先5、熟练使用element-ui、ant-design等组件库，可以独立封装组件6、掌握svg、caas绘图等技术（必须）7、熟悉threejs、babylonjs等3d框架的使用，有相关的3d作品或工作经验8、有较好的学习能力及接受能力；勤奋努力好学，肯吃苦；应届毕业生优先考虑9、不招聘假期工【薪资福利】1、薪资：15000-23000元2、福利保障：五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>北京乐知行软件有限公司</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>北京石市景山区</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>运维工程师</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>北京 - 石景山</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>✓ 负责数据中心网络设备运维，包括路由交换、负载均衡、防火墙等✓ 熟悉SNMP协议及网管系统操作✓ 参与故障定位和系统性能优化✓ 协助制定网络安全策略【职位要求】✓ 年龄21-25岁，大专及以上学历✓ 计算机、理工、设计、工程类等相关专业优先✓ 应届毕业生或实习生均可✓ 熟练掌握TCP/IP协议及网络报文分析技术✓ 有CCIE、HCIE等者优先✓ 熟悉Linux、Windows操作系统✓ 不招聘假期工【薪资福利】✓ 薪资范围10000-16000元✓ 五险一金|包吃包住|年底双薪|周末双休✓ 交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>✓ 年龄21-25岁，大专及以上学历✓ 计算机、理工、设计、工程类等相关专业优先✓ 应届毕业生或实习生均可✓ 熟练掌握TCP/IP协议及网络报文分析技术✓ 有CCIE、HCIE等者优先✓ 熟悉Linux、Windows操作系统✓ 不招聘假期工【薪资福利】✓ 薪资范围10000-16000元✓ 五险一金|包吃包住|年底双薪|周末双休✓ 交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>汇金智融（北京）科技有限公司</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>北京市西城区</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>JAVA开发</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>北京 - 西城</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>1、负责信息化系统软件设计及实现，根据系统设计完成功能模块的开发。2、编写软件概要设计、详细设计文档等相关技术文档。3、按规范进行单元测试、集成测试工作。4、已上线系统的日常维护及升级。【职位要求】1、年龄21到25，学历大专及以上，不符合勿扰。2、计算机、理工、设计、工程类等相关专业优先。3、有较好的学习能力及接受能力。4、勤奋努力好学，肯吃苦。5、应届毕业生优先考虑。6、不招聘假期工。7、前期有老员工带领学习，直到完全胜任工作。【薪资福利】1、薪资：15000-24000元。2、福利：五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训。</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>1、年龄21到25，学历大专及以上，不符合勿扰。2、计算机、理工、设计、工程类等相关专业优先。3、有较好的学习能力及接受能力。4、勤奋努力好学，肯吃苦。5、应届毕业生优先考虑。6、不招聘假期工。7、前期有老员工带领学习，直到完全胜任工作。【薪资福利】1、薪资：15000-24000元。2、福利：五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训。</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>汇金智融（北京）科技有限公司</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>北京市西城区</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>算法工程师</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>北京 - 西城</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>1、从事深度学习算法模型的研究与开发，解决图像目标检测、分类、识别、分割等问题。2、具备自然语言处理人工智能领域的相关经验。3、参与AI应用系统需求分析、代码实现及设计文档编制。4、应用AI技术解决产业界实际问题。【职位要求】1、年龄21到25岁，大专及以上学历，计算机、理工、设计、工程类等相关专业优先。2、学习能力强，接受新事物快，勤奋好学，肯吃苦。3、应届毕业生优先考虑。4、不招聘假期工。5、前期有老员工带领学习，直至胜任工作。【薪资福利】1、薪资：12000-17000元2、五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>1、年龄21到25岁，大专及以上学历，计算机、理工、设计、工程类等相关专业优先。2、学习能力强，接受新事物快，勤奋好学，肯吃苦。3、应届毕业生优先考虑。4、不招聘假期工。5、前期有老员工带领学习，直至胜任工作。【薪资福利】1、薪资：12000-17000元2、五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>汇金智融（北京）科技有限公司</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>北京市通州区</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>运维工程师</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>北京 - 通州</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>·计算机相关操作，Java开发，web，大数据，运维，测试等工作·及时发现并解决疑难问题·细心好学，责任心强，善于发现问题不足【职位要求】·年龄21到25岁，大专及以上学历·应届毕业生优先，0经验可投·学习能力强，勤奋努力，肯吃苦·理工、设计、工程类等相关专业优先【薪资福利】·薪资10000-17000元·提供住宿员工公寓，24小时热水·周末双休，带薪假期·五险一金+企业年金·包吃、交通补助、加班补助、饭补、话补、房补·年底双薪，职业培训</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>·年龄21到25岁，大专及以上学历·应届毕业生优先，0经验可投·学习能力强，勤奋努力，肯吃苦·理工、设计、工程类等相关专业优先【薪资福利】·薪资10000-17000元·提供住宿员工公寓，24小时热水·周末双休，带薪假期·五险一金+企业年金·包吃、交通补助、加班补助、饭补、话补、房补·年底双薪，职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>北京罗克维尔斯科技有限公司</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>北京市通州区</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>北京 - 通州</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>1、根据提供的算法，开发H5网页页面功能。【职位要求】1、年龄21到25岁，大专及以上学历；2、计算机、理工、设计、工程类等相关专业优先；3、有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性；4、掌握一种前端开发框架及其生态，如Vue、React，并对其设计原理有较深理解，Vue优先；5、熟练使用element-ui、ant-design等组件库，可以独立封装组件；6、掌握svg、caas绘图等技术（必须）；7、熟悉threejs、babylonjs等3d框架的使用，有相关3d作品或工作经验。【薪资福利】1、薪资：10000-14000元/月；2、福利：五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训。</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>1、年龄21到25岁，大专及以上学历；2、计算机、理工、设计、工程类等相关专业优先；3、有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性；4、掌握一种前端开发框架及其生态，如Vue、React，并对其设计原理有较深理解，Vue优先；5、熟练使用element-ui、ant-design等组件库，可以独立封装组件；6、掌握svg、caas绘图等技术（必须）；7、熟悉threejs、babylonjs等3d框架的使用，有相关3d作品或工作经验。【薪资福利】1、薪资：10000-14000元/月；2、福利：五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训。</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>汇金智融（北京）科技有限公司</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>北京市东城区</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>运维工程师</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>北京 - 东城</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>- 负责云计算环境下的网络设备运维及管理- 协助完成数据中心网络架构搭建与优化- 进行网络故障定位与性能调优- 制定并执行网络安全策略- 配合团队完成日常运维任务【职位要求】- 年龄21到25，大专及以上学历，理工类、计算机等相关专业优先- 应届毕业生或0基础可投，勤奋好学，能吃苦- 熟悉TCP/IP协议、SNMP协议，掌握网络报文分析技术- 精通主流网络设备操作管理，熟悉SD-WAN/SDN知识，有CCIE/HCIIE等优先- 熟悉Linux/Windows系统，具备分布式网络架构经验者优先【薪资福利】- 薪资：10000-14000元- 福利：五险一金|包吃包住|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>- 年龄21到25，大专及以上学历，理工类、计算机等相关专业优先- 应届毕业生或0基础可投，勤奋好学，能吃苦- 熟悉TCP/IP协议、SNMP协议，掌握网络报文分析技术- 精通主流网络设备操作管理，熟悉SD-WAN/SDN知识，有CCIE/HCIIE等优先- 熟悉Linux/Windows系统，具备分布式网络架构经验者优先【薪资福利】- 薪资：10000-14000元- 福利：五险一金|包吃包住|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>北京罗克维尔斯科技有限公司</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>北京市东城区</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>数据开发</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>北京 - 东城</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>- 开展数据开发工作，包括数据迁移、采集、清洗、存储、加工计算等- 开展数据分析系统、数据应用系统及监管数据报送类系统开发改造- 参与数据模型规划设计与开发- 参与数据需求分析及需求设计文档编写- 开展数据测试方案设计与数据验证工作【职位要求】- 年龄21到25，大专及以上学历，计算机、理工、设计、工程类等相关专业优先- 有较好的学习能力及接受能力- 勤奋努力好学，肯吃苦- 应届毕业生优先考虑- 不招聘假期工【薪资福利】- 薪资：10000_15000- 福利：五险一金 包住 包吃 年底双薪 周末双休 交通补助 加班补助 饭补 话补 房补 职业培训</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>- 年龄21到25，大专及以上学历，计算机、理工、设计、工程类等相关专业优先- 有较好的学习能力及接受能力- 勤奋努力好学，肯吃苦- 应届毕业生优先考虑- 不招聘假期工【薪资福利】- 薪资：10000_15000- 福利：五险一金 包住 包吃 年底双薪 周末双休 交通补助 加班补助 饭补 话补 房补 职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>创盛视联数码科技（北京）有限公司</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>北京石市景山区</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>JAVA开发</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>北京 - 石景山</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>*负责信息化系统软件设计及实现，完成功能模块开发。*编写软件概要设计、详细设计文档等技术文档。*按规范进行单元测试、集成测试工作。*已上线系统的日常维护及升级。【职位要求】*年龄21到25，学历大专及以上，不符合勿扰。*计算机、理工、设计、工程类等相关专业优先。*有较好的学习能力及接受能力，勤奋努力好学，肯吃苦。*应届毕业生优先考虑。*不招聘假期工。【薪资福利】*薪资：17000-25000元。*五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训。</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>*年龄21到25，学历大专及以上，不符合勿扰。*计算机、理工、设计、工程类等相关专业优先。*有较好的学习能力及接受能力，勤奋努力好学，肯吃苦。*应届毕业生优先考虑。*不招聘假期工。【薪资福利】*薪资：17000-25000元。*五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训。</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>亚联（天津）信息技术有限责任公司</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>北京市顺义区</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>JAVA开发</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>北京 - 顺义</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>·负责信息化系统软件设计及实现，完成功能模块开发·编写软件概要设计、详细设计文档等技术文档·按规范进行单元测试、集成测试工作·已上线系统的日常维护及升级【职位要求】·年龄21到25，大专及以上学历（不符合勿扰）·计算机、理工、设计、工程类等相关专业优先·有较好的学习能力和接受能力·勤奋努力好学，肯吃苦·应届毕业生优先考虑·不招聘假期工【薪资福利】·薪资：18000-25000元·五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>·年龄21到25，大专及以上学历（不符合勿扰）·计算机、理工、设计、工程类等相关专业优先·有较好的学习能力和接受能力·勤奋努力好学，肯吃苦·应届毕业生优先考虑·不招聘假期工【薪资福利】·薪资：18000-25000元·五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>创盛视联数码科技（北京）有限公司</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>北京市大兴区</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>网络/系统安全</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>北京 - 大兴</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>✓负责公司安全风险评估、加固和审计✓处理安全事件分析与响应✓制定并落实安全策略✓研究并总结安全知识✓提供安全技术培训【职位要求】✓了解信息安全体系及标准（如BS7799或ISO27001）✓熟悉路由器、防火墙、交换机等网络设备部署与维护✓掌握Windows、Linux系统安全策略✓熟悉AD域、防火墙、IDS/IPS等安全产品✓能编写技术文档，了解攻击与防护技术✓学历大专及以上，不限工作经验【薪资福利】✓薪资10000-15000元✓五险一金|包吃包住|年底双薪|周末双休✓交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>✓了解信息安全体系及标准（如BS7799或ISO27001）✓熟悉路由器、防火墙、交换机等网络设备部署与维护✓掌握Windows、Linux系统安全策略✓熟悉AD域、防火墙、IDS/IPS等安全产品✓能编写技术文档，了解攻击与防护技术✓学历大专及以上，不限工作经验【薪资福利】✓薪资10000-15000元✓五险一金|包吃包住|年底双薪|周末双休✓交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>亚联（天津）信息技术有限责任公司</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>北京市西城区</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>北京 - 西城</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>- 根据提供的算法，开发H5网页页面功能【职位要求】- 年龄21到25岁，大专及以上学历- 计算机、理工、设计、工程类等相关专业优先- 有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性- 掌握一种前端开发框架及其生态，如Vue、React，Vue优先- 熟练使用element-ui、ant-design等组件库，可独立封装组件- 掌握svg、caas绘图技术（必须）- 熟悉threejs、babylonjs等3d框架，有相关作品或经验- 勤奋好学，肯吃苦，接受能力强- 应届毕业生优先考虑【薪资福利】- 薪资：15000-25000元- 福利：五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>- 年龄21到25岁，大专及以上学历- 计算机、理工、设计、工程类等相关专业优先- 有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性- 掌握一种前端开发框架及其生态，如Vue、React，Vue优先- 熟练使用element-ui、ant-design等组件库，可独立封装组件- 掌握svg、caas绘图技术（必须）- 熟悉threejs、babylonjs等3d框架，有相关作品或经验- 勤奋好学，肯吃苦，接受能力强- 应届毕业生优先考虑【薪资福利】- 薪资：15000-25000元- 福利：五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>创盛视联数码科技（北京）有限公司</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>网络/系统安全</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>·负责网络安全运维工作·协助网络设备操作管理及性能优化·参与数据中心网络架构设计与维护·制定并执行网络设备安全策略·进行故障定位和系统优化【职位要求】·年龄21到25岁，大专及以上学历·计算机、理工、设计、工程类等相关专业优先·应届毕业生优先考虑·具备良好的学习能力与接受能力·勤奋好学，肯吃苦·熟练掌握SNMP协议、TCP/IP协议、网络报文分析技术·熟悉主流网络设备操作，了解SD-WAN、SDN网络知识·持有CCIE、HCIE等有效期内者优先·熟悉Linux、Windows操作系统·具备较强的安全意识与实战经验【薪资福利】·薪资：15000-25000元/月·五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>·年龄21到25岁，大专及以上学历·计算机、理工、设计、工程类等相关专业优先·应届毕业生优先考虑·具备良好的学习能力与接受能力·勤奋好学，肯吃苦·熟练掌握SNMP协议、TCP/IP协议、网络报文分析技术·熟悉主流网络设备操作，了解SD-WAN、SDN网络知识·持有CCIE、HCIE等有效期内者优先·熟悉Linux、Windows操作系统·具备较强的安全意识与实战经验【薪资福利】·薪资：15000-25000元/月·五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>北京乐知行软件有限公司</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>JAVA开发</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>*负责信息化系统软件设计及功能模块开发*编写软件设计文档等技术资料*按规范完成单元测试和集成测试*维护已上线系统并进行升级【职位要求】*年龄21到25，大专及以上学历，应届生优先*计算机、理工、设计、工程类等相关专业优先*学习能力强，勤奋好学，肯吃苦*非假期工，长期稳定工作者优先考虑*前期有老员工带领，直至胜任工作【薪资福利】*月薪15000-25000元*五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>*年龄21到25，大专及以上学历，应届生优先*计算机、理工、设计、工程类等相关专业优先*学习能力强，勤奋好学，肯吃苦*非假期工，长期稳定工作者优先考虑*前期有老员工带领，直至胜任工作【薪资福利】*月薪15000-25000元*五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>北京罗克维尔斯科技有限公司</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>C/C++开发</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>#根据提供的算法，开发H5网页页面功能【职位要求】#年龄21到25，学历大专及以上#计算机、理工、设计，工程类等相关专业优先#有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性#掌握Vue、React等前端开发框架，Vue优先#熟练使用element-ui、ant-design等组件库，可独立封装组件#掌握svg、caas绘图技术（必须）#熟悉threejs、babylonjs等3d框架，有相关作品或经验#有较好的学习能力及接受能力，勤奋努力好学，肯吃苦#应届毕业生优先考虑#不招聘假期工【薪资福利】#薪资9000-14000元#五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>#年龄21到25，学历大专及以上#计算机、理工、设计，工程类等相关专业优先#有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性#掌握Vue、React等前端开发框架，Vue优先#熟练使用element-ui、ant-design等组件库，可独立封装组件#掌握svg、caas绘图技术（必须）#熟悉threejs、babylonjs等3d框架，有相关作品或经验#有较好的学习能力及接受能力，勤奋努力好学，肯吃苦#应届毕业生优先考虑#不招聘假期工【薪资福利】#薪资9000-14000元#五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>创盛视联数码科技（北京）有限公司</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>C/C++开发</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>✓ 根据提供的算法，开发H5网页页面功能。【职位要求】✓ 年龄21到25岁，大专及以上学历；✓ 计算机、理工、设计、工程类等相关专业优先；✓ 有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性；✓ 掌握Vue、React等前端框架，Vue优先；✓ 熟练使用element-ui、ant-design等组件库，可独立封装组件；✓ 掌握svg、caas绘图技术（必须）；✓ 熟悉threejs、babylonjs等3D框架，有相关作品或经验优先；✓ 应届毕业生优先考虑，前期有老员工带领学习。【薪资福利】✓ 薪资9000-15000元；✓ 五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训。</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>✓ 年龄21到25岁，大专及以上学历；✓ 计算机、理工、设计、工程类等相关专业优先；✓ 有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性；✓ 掌握Vue、React等前端框架，Vue优先；✓ 熟练使用element-ui、ant-design等组件库，可独立封装组件；✓ 掌握svg、caas绘图技术（必须）；✓ 熟悉threejs、babylonjs等3D框架，有相关作品或经验优先；✓ 应届毕业生优先考虑，前期有老员工带领学习。【薪资福利】✓ 薪资9000-15000元；✓ 五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训。</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>天津顶晟无线网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>数据开发</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>- 开展数据开发工作，包括数据迁移、采集、清洗、存储、加工计算等- 开展数据分析系统、数据应用系统及监管数据报送类系统开发改造- 参与数据模型规划设计与开发- 参与数据需求分析及需求设计文档编写- 开展数据测试方案设计与数据验证工作【职位要求】- 年龄21到25，大专及以上学历，不符合勿扰- 计算机、理工、设计、工程类等相关专业优先- 有较好的学习能力及接受能力- 勤奋努力好学，肯吃苦- 应届毕业生优先考虑- 不招聘假期工- 前期有老员工带领学习，直到完全胜任工作【薪资福利】- 薪资：15000_24000- 福利：五险一金 包住 包吃 年底双薪 周末双休 交通补助 加班补助 饭补 话补 房补 职业培训</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>- 年龄21到25，大专及以上学历，不符合勿扰- 计算机、理工、设计、工程类等相关专业优先- 有较好的学习能力及接受能力- 勤奋努力好学，肯吃苦- 应届毕业生优先考虑- 不招聘假期工- 前期有老员工带领学习，直到完全胜任工作【薪资福利】- 薪资：15000_24000- 福利：五险一金 包住 包吃 年底双薪 周末双休 交通补助 加班补助 饭补 话补 房补 职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>北京罗克维尔斯科技有限公司</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>北京市东城区</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>JAVA开发</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>北京 - 东城</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>1.参与产品设计开发，负责Java后端模块编码。2.根据需求编写代码并测试，确保软件质量。3.维护和优化现有系统，保障稳定运行。4.协助解决技术问题，提升团队水平。</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>1.计算机相关专业大专及以上学历。2.熟悉Java语言及SpringBoot、MyBatis等框架。3.学习能力强，能快速掌握新技术。4.性格开朗，有团队精神。5.有实习经验优先。工作时间：每周五天，每天8小时，弹性工作制。薪资福利：年薪15-20万，基本工资+绩效+年终奖。享五险一金、包吃包住、带薪年假。提供职业培训、交通补助、加班补贴等。</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>央视国际网络有限公司</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>北京石市景山区</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>数据开发</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>北京 - 石景山</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t># 参与数据平台设计开发，保障数据准确完整# 编写数据处理脚本，优化流程提升效率# 协助构建数据模型，支持业务决策分析# 定期维护更新数据系统，确保稳定运行【职位要求】# 大专及以上学历，不限工作经验# 熟悉Python、SQL等语言，了解数据处理原理# 学习能力强，逻辑思维清晰，具备问题解决能力# 性格开朗，沟通良好，团队合作意识强【工作时间】# 每周工作五天，每天八小时，周末双休【薪资福利】# 薪资范围：10000-15000元/月# 五险一金|包吃包住|年底双薪|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t># 大专及以上学历，不限工作经验# 熟悉Python、SQL等语言，了解数据处理原理# 学习能力强，逻辑思维清晰，具备问题解决能力# 性格开朗，沟通良好，团队合作意识强【工作时间】# 每周工作五天，每天八小时，周末双休【薪资福利】# 薪资范围：10000-15000元/月# 五险一金|包吃包住|年底双薪|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>央视国际网络有限公司</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>北京市顺义区</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>北京 - 顺义</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>1. 参与Web项目开发，编写高质量代码；2. 根据需求完成前端页面设计与实现；3. 选择并优化前端框架，提升用户体验；4. 协助后端对接接口，确保数据准确。职位要求：1. 计算机相关专业大专及以上学历；2. 对前端技术有兴趣，愿意从零学习；3. 熟悉HTML、CSS、JavaScript等前端技术；4. 沟通能力强，团队合作意识好。工作时间：弹性工作制，每周4天，每天7.5小时。薪资福利：1. 薪资15000-25000元，底薪4000+绩效；2. 提供完善培训体系；3. 包吃包住，五险一金，周末双休，多种补贴。</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>1. 计算机相关专业大专及以上学历；2. 对前端技术有兴趣，愿意从零学习；3. 熟悉HTML、CSS、JavaScript等前端技术；4. 沟通能力强，团队合作意识好。工作时间：弹性工作制，每周4天，每天7.5小时。薪资福利：1. 薪资15000-25000元，底薪4000+绩效；2. 提供完善培训体系；3. 包吃包住，五险一金，周末双休，多种补贴。</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>央视国际网络有限公司</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>北京市大兴区</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>数据开发</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>北京 - 大兴</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>#参与大数据平台设计与开发，负责数据采集、清洗、存储及分析#负责数据模型设计与优化，提升处理效率#根据业务需求，制定并实现数据解决方案#持续学习新大数据技术，推动团队进步【职位要求】#计算机相关专业大专及以上学历，数学基础良好#熟悉Python/Java编程语言，了解SQL语句#了解Hadoop、Spark等大数据技术#学习能力强，适应新技术快#性格开朗，具备团队协作精神【工作时间】#每周五天，每天8小时，周末双休【薪资福利】#月薪15000-23000元#五险一金齐全#提供包吃包住#年底双薪#交通补助、加班补助、饭补、话补、房补#职业培训支持</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>#计算机相关专业大专及以上学历，数学基础良好#熟悉Python/Java编程语言，了解SQL语句#了解Hadoop、Spark等大数据技术#学习能力强，适应新技术快#性格开朗，具备团队协作精神【工作时间】#每周五天，每天8小时，周末双休【薪资福利】#月薪15000-23000元#五险一金齐全#提供包吃包住#年底双薪#交通补助、加班补助、饭补、话补、房补#职业培训支持</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>北京乐知行软件有限公司</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>运维工程师</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>1. 负责云计算平台日常维护与监控，保障系统稳定运行。2. 检查系统性能，优化资源分配，提升效率。3. 处理系统故障，及时响应并解决问题。4. 参与制定和改进运维流程。职位要求：1. 计算机相关专业大专及以上学历。2. 熟悉Linux操作系统，掌握基本命令。3. 熟悉阿里云、AWS等云服务产品。4. 具备问题分析和解决能力，责任心强，善于团队合作。工作时间：标准工作时间，周末双休。薪资福利：1. 薪资：14K/月。2. 年终奖：根据公司业绩和个人表现发放。3. 五险一金、带薪年假、节假日福利。4. 提供内部培训和外部进修机会。</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>1. 计算机相关专业大专及以上学历。2. 熟悉Linux操作系统，掌握基本命令。3. 熟悉阿里云、AWS等云服务产品。4. 具备问题分析和解决能力，责任心强，善于团队合作。工作时间：标准工作时间，周末双休。薪资福利：1. 薪资：14K/月。2. 年终奖：根据公司业绩和个人表现发放。3. 五险一金、带薪年假、节假日福利。4. 提供内部培训和外部进修机会。</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>央视国际网络有限公司</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>运维工程师</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>- 维护云计算平台，确保系统稳定运行；- 监控性能，处理异常；- 协助解决用户问题；- 优化运维流程。职位要求：- 计算机或相关专业大专以上学历；- 了解云计算技术，接受0经验；- 良好的学习能力，责任心强。工作时间：- 周末双休，时间灵活。薪资福利：- 月薪15K-25K，15薪；- 五险一金，带薪年假7天起；- 提供培训机会，舒适办公环境；- 包住包吃，交通补助，加班补助，饭补，话补，房补。</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>- 计算机或相关专业大专以上学历；- 了解云计算技术，接受0经验；- 良好的学习能力，责任心强。工作时间：- 周末双休，时间灵活。薪资福利：- 月薪15K-25K，15薪；- 五险一金，带薪年假7天起；- 提供培训机会，舒适办公环境；- 包住包吃，交通补助，加班补助，饭补，话补，房补。</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>珠海必要工业科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>北京市东城区</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>北京 - 东城</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>- 根据提供的算法，开发H5网页页面功能【职位要求】- 年龄21到25，大专及以上学历- 计算机、理工、设计、工程类等相关专业优先- 有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性- 掌握一种前端开发框架及其生态，如Vue、React，Vue优先- 熟练使用element-ui、ant-design等组件库，可独立封装组件- 掌握svg、caas绘图技术（必须）- 熟悉threejs、babylonjs等3d框架，有相关作品或经验- 有较好的学习能力及接受能力，勤奋努力好学，肯吃苦- 应届毕业生优先考虑- 不招聘假期工【薪资福利】- 薪资：9000-16000元- 福利：五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>- 年龄21到25，大专及以上学历- 计算机、理工、设计、工程类等相关专业优先- 有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性- 掌握一种前端开发框架及其生态，如Vue、React，Vue优先- 熟练使用element-ui、ant-design等组件库，可独立封装组件- 掌握svg、caas绘图技术（必须）- 熟悉threejs、babylonjs等3d框架，有相关作品或经验- 有较好的学习能力及接受能力，勤奋努力好学，肯吃苦- 应届毕业生优先考虑- 不招聘假期工【薪资福利】- 薪资：9000-16000元- 福利：五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>汇金智融（北京）科技有限公司</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>北京市顺义区</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>运维工程师</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>北京 - 顺义</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>#负责数据中心网络设备运维管理#参与网络架构设计与优化#处理网络故障并进行性能调优#执行网络安全策略配置#配合团队完成日常系统维护工作【职位要求】#年龄21到25，大专及以上学历#理工、计算机等相关专业优先#应届毕业生可0经验#学习能力强，勤奋好学#熟练掌握SNMP协议及网管系统#精通TCP/IP协议及网络报文分析技术#熟悉Linux/Windows操作系统#具备CCIE/HCI等者优先【薪资福利】#薪资范围：10000-17000元#五险一金|包吃包住|年底双薪#周末双休|交通补助|加班补助#饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>#年龄21到25，大专及以上学历#理工、计算机等相关专业优先#应届毕业生可0经验#学习能力强，勤奋好学#熟练掌握SNMP协议及网管系统#精通TCP/IP协议及网络报文分析技术#熟悉Linux/Windows操作系统#具备CCIE/HCI等者优先【薪资福利】#薪资范围：10000-17000元#五险一金|包吃包住|年底双薪#周末双休|交通补助|加班补助#饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>汇金智融（北京）科技有限公司</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>北京市大兴区</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>JAVA开发</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>北京 - 大兴</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>✓ 负责信息化系统软件设计及功能模块开发✓ 编写软件设计文档和技术资料✓ 按规范完成单元测试和集成测试✓ 参与已上线系统的日常维护与升级【职位要求】✓ 年龄21-25岁，大专及以上学历✓ 计算机、理工、设计、工程类等相关专业优先✓ 学习能力强，勤奋好学，肯吃苦✓ 应届毕业生优先，0经验可✓ 不招聘假期工【薪资福利】✓ 薪资：15000-24000元/月✓ 福利：五险一金|包吃包住|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>✓ 年龄21-25岁，大专及以上学历✓ 计算机、理工、设计、工程类等相关专业优先✓ 学习能力强，勤奋好学，肯吃苦✓ 应届毕业生优先，0经验可✓ 不招聘假期工【薪资福利】✓ 薪资：15000-24000元/月✓ 福利：五险一金|包吃包住|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>央视国际网络有限公司</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>北京石市景山区</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>北京 - 石景山</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>·根据提供的算法，开发H5网页页面功能【职位要求】·年龄21到25，学历大专及以上·计算机、理工、设计、工程类等相关专业优先·有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性·掌握一种前端开发框架及其生态，如Vue、React，并对其设计原理有较深理解，Vue优先·熟练使用element-ui、ant-design等组件库，可以独立封装组件·掌握svg、caas绘图等技术（必须）·熟悉threejs、babylonjs等3d框架的使用，有相关的3d作品或工作经验·有较好的学习能力及接受能力，勤奋努力好学，肯吃苦·应届毕业生优先考虑·前期有老员工带领学习，直到完全胜任工作·不招聘假期工【薪资福利】·薪资区间：15000-26000元·五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>·年龄21到25，学历大专及以上·计算机、理工、设计、工程类等相关专业优先·有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性·掌握一种前端开发框架及其生态，如Vue、React，并对其设计原理有较深理解，Vue优先·熟练使用element-ui、ant-design等组件库，可以独立封装组件·掌握svg、caas绘图等技术（必须）·熟悉threejs、babylonjs等3d框架的使用，有相关的3d作品或工作经验·有较好的学习能力及接受能力，勤奋努力好学，肯吃苦·应届毕业生优先考虑·前期有老员工带领学习，直到完全胜任工作·不招聘假期工【薪资福利】·薪资区间：15000-26000元·五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>北京罗克维尔斯科技有限公司</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>北京市西城区</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>C/C++开发</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>北京 - 西城</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>✓ 负责信息化系统软件设计及功能模块开发✓ 编写软件设计文档和技术资料✓ 按规范完成单元测试和集成测试✓ 维护和升级已上线系统【职位要求】✓ 年龄21到25岁，大专及以上学历✓ 计算机、理工、设计、工程类等相关专业优先✓ 学习能力强，勤奋好学，肯吃苦✓ 应届毕业生优先考虑✓ 前期有老员工带领学习，直至胜任工作✓ 不招聘假期工【薪资福利】✓ 薪资范围：10000-16000元✓ 五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>✓ 年龄21到25岁，大专及以上学历✓ 计算机、理工、设计、工程类等相关专业优先✓ 学习能力强，勤奋好学，肯吃苦✓ 应届毕业生优先考虑✓ 前期有老员工带领学习，直至胜任工作✓ 不招聘假期工【薪资福利】✓ 薪资范围：10000-16000元✓ 五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>北京罗克维尔斯科技有限公司</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>北京市西城区</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>软件测试</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>北京 - 西城</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>·根据设计文档编写测试用例·按照测试用例执行功能测试·提交并分析测试结果·熟悉测试流程及相关技术·具备良好沟通能力和团队合作精神【职位要求】·年龄21到25，大专及以上学历（不符合勿扰）·计算机、理工、设计、工程类等相关专业优先·学习能力强，勤奋好学，肯吃苦·应届毕业生优先考虑·无经验无基础可投，前期有老员工带领学习·不招聘假期工【薪资福利】·薪资：10000-16000元/月·五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>·年龄21到25，大专及以上学历（不符合勿扰）·计算机、理工、设计、工程类等相关专业优先·学习能力强，勤奋好学，肯吃苦·应届毕业生优先考虑·无经验无基础可投，前期有老员工带领学习·不招聘假期工【薪资福利】·薪资：10000-16000元/月·五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>北京罗克维尔斯科技有限公司</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>北京市西城区</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>数据开发</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>北京 - 西城</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>✓ 开展数据开发工作，包括数据迁移、采集、清洗、存储、加工计算等✓ 参与数据分析系统、数据应用系统及监管数据报送类系统开发改造✓ 参与数据模型规划设计与开发✓ 参与数据需求分析及需求设计文档编写✓ 开展数据测试方案设计与数据验证工作【职位要求】✓ 年龄21到25岁，大专及以上学历✓ 计算机、理工、设计、工程类等相关专业优先✓ 有较好的学习能力及接受能力✓ 勤奋努力好学，肯吃苦✓ 应届毕业生优先考虑✓ 不招聘假期工【薪资福利】✓ 薪资区间：16000-24000元✓ 福利保障：五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>✓ 年龄21到25岁，大专及以上学历✓ 计算机、理工、设计、工程类等相关专业优先✓ 有较好的学习能力及接受能力✓ 勤奋努力好学，肯吃苦✓ 应届毕业生优先考虑✓ 不招聘假期工【薪资福利】✓ 薪资区间：16000-24000元✓ 福利保障：五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>北京乐知行软件有限公司</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>运维工程师</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>✓ 负责云计算环境下的运维工作✓ 协助网络设备管理与性能优化✓ 参与数据中心网络架构设计与维护✓ 处理系统故障及安全策略制定✓ 学习并掌握SNMP、TCP/IP等网络协议【职位要求】✓ 年龄21到25岁，大专及以上学历✓ 计算机、理工、工程类等相关专业优先✓ 应届毕业生优先考虑✓ 有较强学习能力与吃苦精神✓ 熟悉Linux/Windows系统及网络设备操作✓ 持有CCIE/HCIIE等者优先【薪资福利】✓ 薪资15000-25000元✓ 五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>✓ 年龄21到25岁，大专及以上学历✓ 计算机、理工、工程类等相关专业优先✓ 应届毕业生优先考虑✓ 有较强学习能力与吃苦精神✓ 熟悉Linux/Windows系统及网络设备操作✓ 持有CCIE/HCIIE等者优先【薪资福利】✓ 薪资15000-25000元✓ 五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>珠海必要工业科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>数据开发</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>- 开展数据开发工作，包括数据迁移、采集、清洗、存储、加工计算等- 开展数据分析系统、数据应用系统及监管数据报送类系统开发改造- 参与数据模型规划设计与开发- 参与数据需求分析及需求设计文档编写- 开展数据测试方案设计与数据验证工作【职位要求】- 年龄21到25，学历大专及以上- 计算机、理工、设计，工程类等相关专业优先- 有较好的学习能力及接受能力- 勤奋努力好学，肯吃苦- 应届毕业生优先考虑- 不招聘假期工【薪资福利】- 薪资：15000-23000元- 福利：五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>- 年龄21到25，学历大专及以上- 计算机、理工、设计，工程类等相关专业优先- 有较好的学习能力及接受能力- 勤奋努力好学，肯吃苦- 应届毕业生优先考虑- 不招聘假期工【薪资福利】- 薪资：15000-23000元- 福利：五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>北京乐知行软件有限公司</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>C/C++开发</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>#负责信息化系统软件设计及实现，完成功能模块开发。#编写软件设计文档等技术资料。#按规范进行单元测试、集成测试。#已上线系统的日常维护和升级。【职位要求】#年龄21到25岁，大专及以上学历（不符合勿扰）#计算机、理工、设计、工程类等相关专业优先#学习能力强，勤奋好学，肯吃苦#应届毕业生优先考虑#不招聘假期工#前期有老员工带领学习，直到胜任工作【薪资福利】#薪资：10000-17000元/月#五险一金|包吃包住|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>#年龄21到25岁，大专及以上学历（不符合勿扰）#计算机、理工、设计、工程类等相关专业优先#学习能力强，勤奋好学，肯吃苦#应届毕业生优先考虑#不招聘假期工#前期有老员工带领学习，直到胜任工作【薪资福利】#薪资：10000-17000元/月#五险一金|包吃包住|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>北京罗克维尔斯科技有限公司</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>算法工程师</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>1、从事深度学习算法模型的研究与开发，使用深度学习方法解决图像中的目标检测、分类、识别、分割等问题。2、有自然语言处理人工智能领域的相关经验。3、参与AI应用系统的需求分析，功能模块代码的实现及项目重要设计文档的编制。4、应用AI解决大规模产业界实际问题。【职位要求】1、年龄21到25，学历大专及以上；2、计算机、理工、设计、工程类等相关专业优先；3、有较好的学习能力及接受能力；4、勤奋努力好学，肯吃苦；5、应届毕业生优先考虑；6、不招聘假期工。【薪资福利】1、薪资：10000-17000元；2、五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训。</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>1、年龄21到25，学历大专及以上；2、计算机、理工、设计、工程类等相关专业优先；3、有较好的学习能力及接受能力；4、勤奋努力好学，肯吃苦；5、应届毕业生优先考虑；6、不招聘假期工。【薪资福利】1、薪资：10000-17000元；2、五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训。</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>创盛视联数码科技（北京）有限公司</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>网络/系统安全</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U95" t="n">
+        <v>1</v>
+      </c>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>- 负责网络设备操作管理，包括路由交换、负载均衡、防火墙等- 掌握TCP/IP协议及网络报文分析技术- 制定网络安全策略，具备较强的安全意识- 参与数据中心网络架构设计与优化- 协助处理网络故障并进行性能优化【职位要求】- 年龄21到25岁，大专及以上学历- 计算机、理工等相关专业优先- 熟悉SNMP协议、网管系统- 精通TCP/IP协议，熟悉SD-WAN、SDN网络知识- 持有CCIE、HCIE等优先- 勤奋好学，肯吃苦，接受能力强【薪资福利】- 薪资：13000-18000元/月- 福利：五险一金|包吃包住|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>- 年龄21到25岁，大专及以上学历- 计算机、理工等相关专业优先- 熟悉SNMP协议、网管系统- 精通TCP/IP协议，熟悉SD-WAN、SDN网络知识- 持有CCIE、HCIE等优先- 勤奋好学，肯吃苦，接受能力强【薪资福利】- 薪资：13000-18000元/月- 福利：五险一金|包吃包住|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>汇金智融（北京）科技有限公司</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>软件研发工程师</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U96" t="n">
+        <v>1</v>
+      </c>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>·负责信息化系统软件设计及实现·根据系统设计完成功能模块开发·编写软件概要设计、详细设计文档等技术文档·按规范进行单元测试、集成测试工作·已上线系统的日常维护及升级【职位要求】·年龄21到25，学历大专及以上·计算机、理工、设计、工程类等相关专业优先·有较好的学习能力及接受能力·勤奋努力好学，肯吃苦·应届毕业生优先考虑·不招聘假期工【薪资福利】·薪资15000-25000·五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>·年龄21到25，学历大专及以上·计算机、理工、设计、工程类等相关专业优先·有较好的学习能力及接受能力·勤奋努力好学，肯吃苦·应届毕业生优先考虑·不招聘假期工【薪资福利】·薪资15000-25000·五险一金|包住|包吃|年底双薪|周末双休|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>北京罗克维尔斯科技有限公司</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>经验不限
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>#根据提供的算法，开发H5网页页面功能【职位要求】#年龄21到25，学历大专及以上#计算机、理工、设计、工程类等相关专业优先#有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性#掌握Vue、React等前端开发框架，Vue优先#熟练使用element-ui、ant-design等组件库，能独立封装组件#掌握svg、caas绘图技术（必须）#熟悉threejs、babylonjs等3d框架，有相关作品或经验#有较好的学习能力及接受能力，勤奋好学，肯吃苦#应届毕业生优先考虑【工作时间】#周末双休【薪资福利】#薪资16000-25000元#五险一金|包住|包吃|年底双薪|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>#年龄21到25，学历大专及以上#计算机、理工、设计、工程类等相关专业优先#有扎实的HTML5、CSS3、JavaScript语言基础，熟悉ES6语法新特性#掌握Vue、React等前端开发框架，Vue优先#熟练使用element-ui、ant-design等组件库，能独立封装组件#掌握svg、caas绘图技术（必须）#熟悉threejs、babylonjs等3d框架，有相关作品或经验#有较好的学习能力及接受能力，勤奋好学，肯吃苦#应届毕业生优先考虑【工作时间】#周末双休【薪资福利】#薪资16000-25000元#五险一金|包住|包吃|年底双薪|交通补助|加班补助|饭补|话补|房补|职业培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>阳光金网（北京）通信有限公司</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>91110107MA00C9XJ27</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1500万</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>阳光金网（北京）通信有限公司,成立日期:2017年03月02日,创建于北京市,经营范围:许可项目：*类增值电信业务；第二类增值电信业务；基础电信业务。（依法须经批准的项目，经相关部门批准后方可开展经营活动，具体经营项目以相关部门批准文件或许可证件为准）一般项目：信息技术咨询服务；技术服务、技术开发、技术咨询、技术交流、技术转让、技术推广；信息系统集成服务；软件开发；信息系统运行维护服务；通讯设备销售；计算机软硬件及辅助设备零售；计算机软硬件及辅助设备批发；互联网数据服务；云计算装备技术服务；智能控制系统集成；计算机及通讯设备租赁；5G通信技术服务；电子产品销售；金属材料销售；信息安全设备销售；人工智能应用软件开发；安全技术防范系统设计施工服务；数字视频监控系统销售；通信设备销售；供应用仪器仪表销售；软件外包服务；基于云平台的业务外包服务；软件销售；电气设备销售；电线、电缆经营；机械设备销售；普通机械设备安装服务；音响设备销售；数据处理服务；云计算设备销售；工业互联网数据服务；人工智能基础资源与技术平台；互联网设备销售；可穿戴智能设备销售；智能家庭消费设备销售；智能车载设备销售；物联网设</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>电信网络工程师</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>13000</v>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U98" t="n">
+        <v>16</v>
+      </c>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>1、客户网络架构管理：负责客户超算中心网络的整体规划、设计及实施，依据业务需求和性能标准，持续优化网络架构。2、网络设备运维：负责超算中心网络设备的安装、配置和日常管理，确保设备的稳定运行，并及时更新网络运维文档，保证信息准确、时效。3、网络监控与报告：实时监控超算中心网络运行状态，定期编制并提交详细的网络性能报告，为客户提供全面、可靠的网络性能反馈。</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>1、与专业：及以上，计算机科学、信息技术等相关专业。2、网络技能：精通网络七层结构和TCP/IP协议，具备强大的网络故障排查和解决能力，熟悉超算网络架构，包括InfiniBand（IB）、RoCE架构及X86+GPGPU主流技术。3、专业技术经验：熟悉超算中心网络建设和IDC相关技术，擅长高级路由交换、负载均衡、安全设备、无线网络等技术，熟悉Leaf/Spine两层网络设计。有使用思科/华为/华三交换路由产品的安装和调试经验者优先。4、文档撰写：具备优秀的技术文档撰写能力，能够独立撰写超算中心网络方案、评估报告及相关售后支持文档。5、语言与团队合作：具有良好的英文沟通能力，能够与国际团队合作，具备强烈的团队协作意识。6、资格证书：持有HCIE、CCIE或同等级别网络者优先。7、工作经验：具有超算中心网络架构规划、设计、实施、维护的实际工作经验者优先。</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>河北华宇信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>91130108MA08HR1U27</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>500万</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>河北华宇信息技术有限公司,成立日期:2017年05月10日,创建于石家庄市,经营范围:计算机软硬件技术开发、技术咨询、技术服务；计算机系统集成服务、计算机网络工程施工，数据处理和存储服务；网站设计与开发；会议服务；电子与智能化工程、安防工程设计与施工；工业自动化系统、仪器仪表、电线电缆、环保设备、消防器材、家具、照明器械、办公用品及耗材、电子产品、五金产品、安防产品、智能设备、工业自动化设备的销售。（依法须经批准的项目，经相关部门批准后方可开展经营活动）,企业注册地址:河北省石家庄市裕华区方兴路11号润园8-2-1403等2处;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>运维工程师</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>10000</v>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>1、开展日常运维工作包括值班、系统运维、数据维护等要求。2、能够制定相关规范流程和技术标准，设计相关系统方案，组织和管理一线运维团队开展日常维护工作，形成报告。包括巡检、资产盘点、容量管理、监控及告警处置、预案及演练、备份及恢复、系统割接及配置调整、运维服务报告等。3、分析系统资源使用情况，形成优化方案，整治不合理使用，程度利用系统资源；能够针对性开展专项治理、系统割接及配置调整方案评估与随工、配置管理、安全策略和风险评估实践并形成书面报告；4、云平台工程师能够使用自动化工具、运维平台及AI技术等提升日常运维、故障处置、护航保障质效；CMDB运维数据模型及数据管理维护、容量评估与优化、监控方案与标准落地、牵头整体（跨系统）预案演练工作，制定预案自动化方案，引入混沌工程等新技术、版本或补丁升级方案评估与统筹等工作。</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>1、具备深厚的运维技术背景和故障快速响应能力；2、具备出色的沟通能力和服务意识，以确保能够高效地满足创新院运维管理团队的需求并保障业务的稳定运行；3、执行力强、有复盘和优化思维，带动整体体系快速向前发展；4、高级5年以上工作经验及以上，初级/中级1-3年工作经验以上。岗位福利：双休/法定节假日/生日福利/免费培训</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>北京润世科技有限公司（润世科技）</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>91110102MA01DDFU59</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>500万</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>刘泽汉</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>北京润世科技有限公司北京润世科技有限公司依托北京大学专利技术而设立，专注于微生物技术研发与应用。通过系统的科学研究与技术开发，公司在微生物采油、水污染治理、土壤修复与改良、农牧业等微生物技术相关领域积累了完整的核心技术和系统的解决方案，主要专利技术与产品包括：稠油冷采、黑臭水体治理、土壤改良、耐盐碱植物内生菌、牲畜肠道菌群优化等功能微生物菌剂，石油烃降解等功能酶制剂，以及稠油冷采、黑臭水体治理、含油工业废水 等成套技术，并在现场应用中积累了独特领先的技术优势。公司*独特的优势在于其强劲持续的研发能力，公司主体由研发人员组成，超过70%拥有硕士及以上学历。公司始终坚持与北京大学、清华大学等国内外知名科研单位进行委托研究合作，聘请具有现场工作经验的专家和学者为公司顾问，指导公司的研发，保证公司技术具有持续领先优势。微生物很小，但在自然界中无所不在，并在改变地球、影响人类生产生活过程中起着难以取代的重要作用。微生物及微生物技术一直在润泽着全人类。润世科技，无微不至！我们师法自然，愿借助微生物改变大*的科技力量，与您携手共同建设环境友好型、资源节约型社会，润泽我们生活着的地球和*！</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>运维工程师</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U100" t="n">
+        <v>12</v>
+      </c>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>1、负责日常服务器网络以及业务系统管理维护，确保系统稳定运行2、负责搭建以及维护软件开发过程中涉及到的工具（包括项目管理，测试平台，ci/cd，中间件等）3、负责监控服务器的各项运营数据，主动识别异常数据，对故障数据进行深入分析，及时捕捉运营中的质量问题，并制定相应的解决策略4、负责编写和维护运维相关的技术文档、操作手册和工作流程5、为公司内部员工提供技术支持，解决他们在工作中遇到的IT相关问题</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>1、计算机、通信、电子信息信息安全等相关专业及以上2、具备3年以上运维工作经验3、熟练掌握服务器硬件的架构、原理及常见故障处理方法4、熟练掌握Shell、Perl、Java、Python中的一种或多种，熟悉掌握Windows、Linux操作系统的基础知识，具备Shell和Perl下按需编写工具脚本的能力5、熟悉虚拟化技术，有k8s，容器实践项目经验6、具备独立搭建DevOps、CI/CD、运维自动化等系统以及业务运营能力7、具备独立搭建以及维护软件开发需要的中间件包括不限于redis、Mq、分布式定时任务、日志分析服务、监控告警等8、良好的服务意识，主动、有责任感，优秀的沟通协作能力,善于团队协作,主动思考，自我驱动力强9、具有信息安全的技术能力和防范经验，熟悉相关网络、设备安全工作有信创环境运维经验者优先</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>上海家阳实业有限公司</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>91310107MA1G0KYG5C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>500万</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>上海市嘉定区</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>上海家阳实业有限公司,成立日期:2018年01月19日,创建于上海市,经营范围:一般项目：日用百货销售；五金产品零售；风动和电动工具销售；建筑装饰材料销售；非金属矿及制品销售；金属材料销售；技术玻璃制品销售；日用陶瓷制品销售；销售代理；基于云平台的业务外包服务；专业保洁、清洗、消毒服务；网络与信息安全软件开发；会议及展览服务；广告制作；建筑物清洁服务；园林绿化工程施工；图文设计制作。（除依法须经批准的项目外，凭营业执照依法自主开展经营活动） 许可项目：酒类经营；食品销售；建设工程设计；建设工程施工。（依法须经批准的项目，经相关部门批准后方可开展经营活动，具体经营项目以相关部门批准文件或许可证件为准）,企业注册地址:上海市嘉定区惠平路801号3幢10层1006-2室;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>数据分析师</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>上海 - 嘉定</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>1-2年</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>- 负责数据收集、整理与清洗，确保数据准确完整- 使用Excel、Python等工具进行数据分析，发现趋势和问题- 支持市场销售分析及采购、销售、仓库数据汇总- 完成领导交办的其他事项【职位要求】- 大专及以上学历，有大型连锁超市经验优先- 熟练使用Excel数据透视表和函数- 具备责任心、沟通能力和团队协作意识- 持有相关数据统计证书者优先- 年龄28-45岁【工作时间】- 做六休一，早8:00-晚17:30【薪资福利】- 薪资：5000-7000元，具体面议- 提供五险一金、高温补助- 试用期2个月</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>- 大专及以上学历，有大型连锁超市经验优先- 熟练使用Excel数据透视表和函数- 具备责任心、沟通能力和团队协作意识- 持有相关数据统计证书者优先- 年龄28-45岁【工作时间】- 做六休一，早8:00-晚17:30【薪资福利】- 薪资：5000-7000元，具体面议- 提供五险一金、高温补助- 试用期2个月</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>上海博世机电设施工程有限公司</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>91310112785876001M</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>上海市浦东区</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>胡先生</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>公司成立至今已经运营十多年，在行业内建立了优异的信誉度和知名度。公司主要针对商务楼、酒店、工厂、医院、机场等各类建筑使用的中央空调系统等公用设施进行专业化的维修承包。 公司事业前景广阔，提供完善的福利待遇和发展空间，真诚期望德才兼备的人士可以加入公司的团队，将个人的发展融入到公司的发展中，共创共享未来美好的明天。</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>https://pic3.58cdn.com.cn/enterprise/appearance/big/n_v230fb9293b77d44719c0df427f35e88f6.png||https://pic4.58cdn.com.cn/nowater/zpqypc/n_v3caf5bb39b5b14f1c84568b13aea12e24.png?delexif=1||https://pic4.58cdn.com.cn/nowater/zpqypc/n_v3f5659a6166374b4c87cef1886dc36850.png?delexif=1</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>项目经理/主管</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>11000</v>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>上海 - 浦东</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t># 制定并执行客户管理工作计划# 与客户沟通工程部现场服务，及时反馈改进需求# 定期回访客户，了解维修信息# 跟进合同续签与新业务开发# 协助管理客户合同并推动扩展# 完成上级交办的其他任务【职位要求】# 积极进取，责任心强，有亲和力和沟通能力# 身体健康，精力充沛# 具备经营管理意识和全局观# 熟悉办公软件为佳# 空调暖通、工程管理或机电化工相关背景优先# 有1年以上项目主管、客服主管或工业品销售经验优先【工作时间】# 做五休二，加班可调休【薪资福利】# 薪资：6500-11000元# 五险一金|周末双休|交通补助|饭补|话补|年终奖|带薪休假</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t># 积极进取，责任心强，有亲和力和沟通能力# 身体健康，精力充沛# 具备经营管理意识和全局观# 熟悉办公软件为佳# 空调暖通、工程管理或机电化工相关背景优先# 有1年以上项目主管、客服主管或工业品销售经验优先【工作时间】# 做五休二，加班可调休【薪资福利】# 薪资：6500-11000元# 五险一金|周末双休|交通补助|饭补|话补|年终奖|带薪休假</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>成都白氏兄弟电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>91510107MA6BD4CG74</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>100万</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>上海市闵行区</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>成都白氏兄弟电子科技有限公司,成立日期:2020年10月13日,创建于成都市,经营范围:计算机系统服务；科技信息咨询服务；信息技术咨询服务；计算机网络系统工程服务；计算机软硬件及网络技术、电子信息及信息技术处理、系统集成、通信技术的开发、转让、咨询服务；计算机和辅助设备修理；家用电器修理；销售计算机、软件及辅助设备；销售计算机消耗材料；销售电子产品；销售办公设备；销售办公用品；销售通讯设备；销售音响设备；安防设备销售；销售家用电器；销售电子元器件。（依法须经批准的项目，经相关部门批准后方可开展经营活动）,企业注册地址:四川省成都市武侯区高阳路70号4层附412号;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>IT技术支持</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>上海 - 闵行</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>1-2年
+		,可接收应届生</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U103" t="n">
+        <v>10</v>
+      </c>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>1、上门为客户维修电脑，包括硬件故障排查与更换、软件安装优化、系统重装等2、与客户沟通了解问题，提供专业解决方案3、记录维修过程及结果，确保客户满意【职位要求】1、不限学历，有1-2年相关工作经验2、熟悉电脑硬件和操作系统，有实际维修经验优先3、具备良好的沟通能力和客户服务意识4、持有电工证或相关维修证书优先考虑【工作时间】1、工作时间灵活，可根据客户需求安排上门时间【薪资福利】1、月薪5000-8000元，根据经验和能力面议2、提供绩效奖金和年终奖3、享有带薪年假4、提供必要的维修工具和设备支持5、定期组织技术培训和职业发展计划</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>1、不限学历，有1-2年相关工作经验2、熟悉电脑硬件和操作系统，有实际维修经验优先3、具备良好的沟通能力和客户服务意识4、持有电工证或相关维修证书优先考虑【工作时间】1、工作时间灵活，可根据客户需求安排上门时间【薪资福利】1、月薪5000-8000元，根据经验和能力面议2、提供绩效奖金和年终奖3、享有带薪年假4、提供必要的维修工具和设备支持5、定期组织技术培训和职业发展计划</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>上海加事通因私出入境服务有限公司</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>91310112MACQ6FRP2F</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>50万</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>上海市长宁区</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>网络/系统安全</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>上海 - 长宁</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U104" t="n">
+        <v>1</v>
+      </c>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>1. 使用Burp Suite等工具进行海外电商网站的安全渗透测试，获取销售数据。2. 发现并修复网站的安全漏洞，保障网站的安全性。3. 提出网站安全性的改进建议，提升整体安全性。4. 快速获取商品等信息，优化网站性能。5. 设计并实施代码，实现网站自动抢课/抢位功能（适用于国外学校）。</t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>1. 熟悉网站安全相关知识，具备独立完成安全渗透任务的能力。2. 具备较强的问题分析和解决能力，能够迅速定位并处理安全问题。3. 熟练掌握编程语言，了解常见的安全漏洞及其修复方法。我们提供:- 双休不加班，团队氛围良好。- 弹性工作模式，以完成目标为导向。- 鼓励个人成长与创新，提供丰富的职业发展机会。- 3个月试用期，试用期薪资3000元。岗位：运营助理职责:1. 完成运营新媒体平台的发帖工作。2. 协调市场推广、咨询等关键环节，确保目标达成。3. 分析运营数据，定期复盘并提出改进方案。任职要求:1. 有电商相关经验，艺术、传媒、市场方向的毕业生优先考虑。2. 具备团队管理或项目统筹经验，执行力与沟通能力强。3. 注重结果，能建立并完善绩效考核体系。4. 自驱型，善于解决问题并适应变化。我们提供:- 固定底薪+绩效奖金。- 弹性工作模式，以完成目标为导向。- 鼓励个人成长与创新，创始人为QS前30海本海硕。- 3个月试用期，试用期薪资3000元。地点：线下办公，江苏路地铁站步行3分钟。</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>合肥软著信息科技有限公司</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>91340104MA2WHGNY02</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>200万</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>上海市徐汇区</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Python开发</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>上海 - 徐汇</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U105" t="n">
+        <v>1</v>
+      </c>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>1. 负责WorkFX产品的Agent后端研发，包括代码编写和测试；2. 深入挖掘和分析业务需求，撰写技术方案和系统设计文档；3. 根据产品需求，进行系统设计和编码。</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>1. 全日制本科及以上学历，计算机相关专业背景；2. 熟练使用Python进行Web开发，熟悉Flask或FastAPI框架；3. 熟悉多线程和异步编程，了解TCP/IP协议和HTTP协议；4. 熟练SQL查询及优化，熟悉PostgreSQL；5. 能快速学习新技术，具备较强的学习能力和责任心，良好的沟通表达能力和团队协作精神；6. 具备较强的抗压能力，强烈的责任心，目标驱动，注重结果，执行力强；7. 有AI Agent相关开发经验者优先。我们期待你的加入，共同推动技术创新，创造更多价值。</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>缇坦斯信息系统（上海）有限公司</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>91310115MA1K3A4Q9X</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>5000万</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>上海市普陀区</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>缇坦斯信息系统（上海）有限公司,成立日期:2016年04月12日,创建于上海市,经营范围:许可项目：各类工程建设活动（核电站建设经营、供排水管网除外）；建设工程设计。（依法须经批准的项目，经相关部门批准后方可开展经营活动，具体经营项目以相关部门批准文件或许可证件为准） 一般项目：建筑智能化信息系统集成，多媒体系统领域内的技术开发、自有技术转让，并提供相关的技术咨询和技术服务，展览展示服务，计算机软件的设计、开发、制作，自有产品、计算机软件及辅助设备的批发、进出口、佣金代理（拍卖除外），并提供相关配套服务（不涉及国营贸易管理商品，涉及配额、许可证管理商品的，按国家有关规定办理），企业管理咨询，市场营销策划，商务信息咨询（金融信息服务除外）。（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）,企业注册地址:上海市普陀区武威路88弄2号三层382室;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>电信网络工程师</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>10000</v>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>上海 - 普陀</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U106" t="n">
+        <v>15</v>
+      </c>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>1.负责IT项目的售前、售中、售后技术支持，包含（路由器、交换机、安全、防火墙等方面）2.负责公司解决方案的售前技术支持工作及信息化相关技术方案的编写3.根据项目制定工程安排schedule，工程项目完工资料的归档4.定期对公司内部工程师提供技术培训指导5.配合领导完成项目投标活动的技术支持工作，如投标技术方案的确定、投标讲解和客户答疑、技术谈判等；6.完成上级领导交办的其他工作。</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>1.计算机、网络信息化等相关专业及以上，拥有较全面的网络基础及计算机相关知识体系2.熟练掌握Cisco、HUAWEI、H3C、Fortinet、Juniper、yamaha、深信服、网康等网络设备选型与配置3.精通windows平台（Server03,08,12,）下文件服务器、AD、Exchange、WSUS等常用服务的搭建、运维4.熟悉DLP防泄漏安全系统，例如威盾、绿盾等5.了解目前主流云计算、大数据的系统的架构与实施6.具备CCNP、CCIE、HCNA、HCNP、VCP、ITIL、MCSE、Ctrix证书或者有相应能力者7.具备良好的沟通、执行和独立工作能力JobResponsi lities:1.Responsibleforthepre-sale,in-saleandafter-saletechnicalsupportofITprojectsofenterprisesandinstitutions,including(routers,switches,security,firewalls,etc.)2.Responsibleforthepre-sa technicalsupp</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>见知数据科技（上海）有限公司</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>913101043328148799</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2440.333600万</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>上海市徐汇区</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>上海 - 徐汇</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U107" t="n">
+        <v>39</v>
+      </c>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>1.页面开发与优化（1）在团队老师的指导下，使用HTML、CSS、JavaScript等技术进行前端页面的开发和实现，确保页面的布局合理、视觉效果良好且在不同浏览器和设备上具有良好的兼容性。（2）对现有的前端页面进行性能优化，包括但不限于代码压缩、图片优化、减少HTTP请求等，提升页面的加载速度和响应性能。2.交互效果实现（1）运用JavaScript框架（如Angular，Vue.js或React.js等）实现页面的交互效果，增强用户体验，如动画效果、表单验证、数据动态展示等。与后端开发团队协作，完成前后端的数据交互，确保数据的准确传输和展示。3.问题排查与修复（1）对开发过程中出现的页面显示异常、交互功能失效等问题进行调试和排查，定位问题根源，并及时修复。（2）协助团队处理线上前端页面的故障和问题，快速响应并解决相关技术难题。4.技术学习与分享（1）学习和研究前端开发的新技术、新趋势，如前端工程化、移动端适配等，关注行业动态，为团队提供技术创新的思路和建议。（2）参与团队的技术分享和交流活动，将自己所学的知识和经验与团队成员分享。</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>1.专业背景（1）计算机科学、软件工程、设计相关专业及以上在校学生，对前端开发有浓厚的兴趣。2.技术能力（1）掌握HTML、CSS、JavaScript基础知识，能够编写结构清晰、语义化的HTML代码，使用CSS进行页面样式设计，运用JavaScript实现基本的交互功能。（2）了解至少一种前端框架（如Angular，Vue.js或React.js等）的基本原理和使用方法，能够进行简单的组件开发和页面搭建。（3）熟悉前端开发工具，如Git、Webpack等，了解版本控制和项目构建的基本流程。3.学习与沟通能力（1）具有较强的学习能力和自主学习意识，能够快速掌握新知识和技能。（2）具备良好的沟通能力和团队协作精神，能够与团队成员有效沟通，共同完成项目任务。其他要求1.能够保证至少[4]个月的实习时间，每周可出勤[4]天以上。2.有较强的责任心和抗压能力，能够在规定时间内完成工作任务。加分项3.有实际的前端项目开发经验，如个人网站、课程设计项目等。4.了解前端性能优化的方法和技巧，有相关实践经验。5.掌握设计工具（如AdobePhotoshop、Sketch等）的使用，能够进行简单的界面设</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>上海直脉信息技术服务有限公司</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>91310113MABW89477X</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>200万</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>上海市杨浦区</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>上海-宝山-通河新村 百渠广场</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>上海 - 杨浦</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U108" t="n">
+        <v>22</v>
+      </c>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>1.负责淘宝客户端架构设计与功能开发，持续提升用户体验:2.承担相关模块的系统设计、性能优化及调优工作;3.负责相关技术的工程效率优化工作;4.负责新产品、新技术的预研工作。</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>1、及以上，2年以上Android客户端开发经验，熟悉Java/Kotlin、C/C++语言2、熟悉AndroidSDK/NDK以及相关配套工具;3、计算机基本功扎实，可以应对各种复杂问题，并给出解决方案:4、具备前端语言栈的开发经验的优先考虑终端开发工程师-（质量技术）职位描述1、负责客户端性能体验工具和平台研发:2、负责客户端自动化、代码质量、贾盖率工具和平台研发。任职要求1、熟悉Android0S开发，熟悉开发工具和相关性的调试工具的使用。有丰富的性能化经验和架构设计经验，对代码质量有较高追求，有性能分析和定位工具开发经验者优先，2、对Android/i0移动系统的康层实现术有一定，有hyrid技术项目经验，熟悉RedtNativeWexFlnte等术先对研发全流程工具和败自提升有深入了解者优先3、具有优秀的团队合作能力和沟通协作能力，善于学习，乐于分享，热爱挑战。终端开发工程师-（体验技术）工作职责1.负责淘宝客户端架构设计与功能开发，持续提升用户体验:2.承担相关模块的系统设计、性能优化及调优工作;3.负责相关技术的工程效率优化工作;4.负责新产品、新技术的预研工作。任职要求</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>海道尔夫仪器设备（上海）有限公司</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>91310000MA1GCGHY9A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>250万</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>上海市闵行区</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>产品专员/助理</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>上海 - 闵行</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U109" t="n">
+        <v>12</v>
+      </c>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>（包括但不限于）1)产品管理：a.产品知识与技术支持?全面掌握公司产品的技术参数、配置、选型标准及操作流程；能准确分析产品在不同应用场景下的优势和局限；?针对客户需求及售前疑问，提供独立、系统的产品解决方案，包括产品讲座、演示；?深入研究市场上同类产品的技术参数、价格策略及市场表现，为销售提供有效的竞争策略；?技术文档翻译及编辑。?销售项目术文件的整理支持。b.新品上市及推广策略?分析新产品的特点、应用场景与市场竞争情况，制定和优化新产品上市及推广策略。?与销售团队协同推进新品推广计划，确保产品顺利进入市场并快速获得认可。2)销售策略：a.市场调研与竞争分析?持续关注实验室仪器行业的趋势、技术动态、政策变动及市场竞争格局，定期整理分析报告，为管理层提供前瞻性建议；?根据市场反馈及时调整产品推广、促销策略，确保公司产品始终保持竞争优势。b.销售：?与销售团队密切配合，支持并协助销售完成公司下达的销售任务。c.业务拓展?主动开展客户拜访（单独或与销售团队协作），深入了解市场需求及行业动态，为销售提供业务增长点。?推动销售团队共同构建用户地图，扩大高端用户覆盖面。?对于新的应用、行业及公司产</t>
+        </is>
+      </c>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>1)与专业背景?及以上，化学、制药、生物或相关专业优先。2)工作经验?3年及以上实验室仪器行业产品管理、业务拓展或技术支持相关经验；?有实验室仪器销售经验者优先。3)专业技能与能力?较强的产品技术理解力和市场分析能力，能够快速掌握并应用产品知识；?出色的人际交往及口头、书面沟通能力，能独立完成技术讲座和产品演示；?优秀的商务谈判与大客户管理能力，具备前瞻性市场洞察和业务拓展能力；?具备销售经验或销售能力；?熟练使用Office软件及互联网工具，具备良好的数据整理与报告撰写能力。4)个人素质?具备出色的抗压能力及自我激励精神，能在快节奏环境中高效执行任务；?具有良好的组织协调能力，能够同时处理多个工作项目并确保按时完成；?能够适应国内外出差需求，具备良好的时间管理与自我调节能力；?英语可以顺畅沟通，具备与总部独立沟通的能力。</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>上海环未实业有限公司</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>91310115MA1K3HKFXA</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>100万</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>上海市黄浦区</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>上海 - 黄浦</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U110" t="n">
+        <v>2</v>
+      </c>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>?DesigdbuildadvancedapplicationsfortheAndroidplatform.?负责公司产品及行业应用APP的开发?Collaboratewithcross-functionalteamstodefine,design,andshipnewfeatures.?跨部门协作进行定义，设计和发布新功能?WorkwithoutsidedatasourcesandAPIs.?使用外部数据源和APIs?Unit-testcodeforrobustness,includingedgecases,usa lity,andgeneralrelia lity.?对代码的稳健性进行单元测试，包括边界情况，可用性和一般可靠性。?Workonbugfixingandimprovingapplicationperforce.?Bug修补和提升应用性能?Continuouslydiscover,evaluate,andimplementnewtechnologiestomaximizedevelopmentefficiency.?不断发现，评估和运用新技术以化开发效率Requireme</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>?CollegedegreeinComputerScience,Engineeringorarelatedsubject?专本及以上，计算机，工程或其他相关专业?1-3yearsofsoftwaredevelopmentexperience?1-3年软件开发经验?1-3yearsofAndroiddevelopment?1-3年安卓开发经验?HavepublishedatleastoneoriginalAndroidapp?至少已发布过一个原创app?ExperiencewithAndroidSDK?安卓SDK经验?ExperienceworkingwithremotedataviaRESTandJSON?有通过REST和JSON使用远程数据经验?Experiencewiththird-partylibrariesandAPIs?第三方函数库和APIs经验?Workingknowledgeofthegeneralmo lelandscape,architectures,trends,andemergingtechnologies?具有移动领域，建筑，趋势和新兴技术的应用知识?Solid</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>上海汇绿电子商务有限公司</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>913100005834398233</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>5000万</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>上海市普陀区</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>上海汇绿电子商务有限公司,成立日期:2011年10月08日,创建于上海市,经营范围:许可项目：货物进出口；技术进出口；第二类增值电信业务。（依法须经批准的项目，经相关部门批准后方可开展经营活动，具体经营项目以相关部门批准文件或许可证件为准） 一般项目：电子商务（不得从事金融业务），计算机系统集成，计算机网络工程，设计制作各类广告，广告发布（非广播电台、电视台、报刊出版单位），企业形象设计，公关活动策划，会务服务，展览展示服务，数码产品、通讯产品、计算机软硬件、电子元器件、五金、有色金属材料、建筑材料、装饰材料、木材、家具、化工原料（除危险化学品、监控化学品、烟花爆竹、民用*品、易制毒化学品）、混凝土、塑料制品、陶瓷制品、汽摩配件的销售，从事计算机软件、环保科技、建筑、建材、化工领域内的技术开发、技术转让、技术咨询、技术服务，维修服务，物业管理。（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）,企业注册地址:上海市杨浦区*路125号301室、303室及304室;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>PHP开发</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>9000</v>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>上海 - 普陀</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U111" t="n">
+        <v>14</v>
+      </c>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>和主要职责）：1、负责企业平台系统开发的设计、编程、调试、运行、维护等工作；2、编写开发文档，以及协助解决各种技术问题；3、进行详细设计、代码开发、配合测试完成项目；4、按照项目计划，按时提交高质量代码，完成开发任务。</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>1、1年以上PHP开发经验；2、熟悉PHP开发,熟悉ci,yii,laravel,thinkPHP等一个或以上常用框架，熟悉面向对象技术、MVC模式；3、熟悉Mysql数据库技术和memcached,redis等；3、熟悉Linux下Nginx/Apache、PHP、MYSQL各种配置，能够在Linux环境下开发；4、熟悉基本的HTML/CSS/JS/jQuery/AJAX等前端相关知识和svn,git等版本控制工具；6、具有良好的沟通、理解及逻辑分析能力，思维敏捷、编程及学习能力强，有责任心；绿智汇电商事业部企业简介在这剧烈摇晃的时代，不想被甩在后面，就要有一颗永远求变的心，拥有想象力和冒险精神！如果你是一名干货，又不想屈就于单调枯燥乏味的人生，那么“绿智汇”电商平台也许就是你梦寐以求、值得托（an）付(ju)终(le)身(ye)之所！79年创立的上海城建物资有限公司是国资委下以商品混凝土、预制构件、新型建材科研开发、生产销售为主业的国有独资企业，注册资本1.85亿元，具有高新技术企业称号。城建物资旗下绿色建材供应链电商平台——“绿智汇”是上海城建物资有限公司投资超过亿元，打造的绿色</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>上海品聘软件技术有限公司</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>91310120MA1HT1JY47</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>100万</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>上海市松江区</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>上海品聘软件技术有限公司,成立日期:2019年07月12日,创建于上海市,经营范围:从事计算机软件科技领域内的技术开发、技术咨询、技术服务、技术转让，企业管理咨询，商务信息咨询，市场营销策划，财务咨询，展览展示服务，企业形象策划，会务服务，电子商务（不得从事金融业务），办公用品、电子产品、纸制品、工艺品的批发、零售。【依法须经批准的项目，经相关部门批准后方可开展经营活动。】,企业注册地址:上海市奉贤区南桥镇环城西路477号1层;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>算法工程师</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>上海 - 松江</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U112" t="n">
+        <v>3</v>
+      </c>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>1.?**RAG系统设计与开发**：???-?负责设计和实现基于大模型的检索增强生成（RAG）系统，结合检索与生成技术，提升模型的回答质量和效率。???-?优化检索模块，确保检索结果的准确性和相关性，提升生成模块的输入质量。2.?**大模型微调与优化**：???-?针对特定领域或任务，对大模型进行微调，提升其在特定场景下的表现。???-?优化模型的推理效率，降低计算资源消耗，提升系统的响应速度。3.?**数据处理与增强**：???-?负责大规模数据集的构建、清洗和预处理，确保数据质量。???-?设计和实现数据增强策略，提升模型的泛化能力和鲁棒性。4.?**系统集成与部署**：???-?将RAG系统与现有产品和服务集成，确保系统的稳定性和可扩展性。???-?负责模型的部署和监控，确保系统在生产环境中的高效运行。5.?**技术研究与创新**：???-?跟踪大模型和RAG领域的新研究进展，探索新技术并应用于实际项目中。???-?参与技术分享和团队培训，提升团队整体技术水平。</t>
+        </is>
+      </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>1.?**教育背景**：???-?计算机科学、人工智能、机器学习、自然语言处理等相关领域的及以上。2.?**技术技能**：???-?掌握BERT/RoBERTa/Sentence-BERT等文本Embedding生成方法，熟悉CLIP/ResNet等多模态表征学习技术，具备Hu ingFaceTransformers/FastText等框架实战经验。-?精通HNSW/IVF-PQ等向量索引算法，熟悉Milvus/Pinecone/Weaviate等向量数据库，具备LlamaIndex/RAG等检索增强技术应用经验；了解向量数据库在生产环境的部署与优化，包括集群搭建、性能调优及高可用方案。???-?熟悉检索增强生成（RAG）技术，了解检索系统（如Elasticsearch、FAISS等）和生成模型的结合方式。???-?掌握LoRA/P-Tuning/Adapter等大模型微调方法，了解知识蒸馏/量化等模型压缩技术，熟悉PyTorchLightning/DeepSpeed工具链。-?熟练使用ElasticSearch进行结构化检索，了解BM+语义检索的混合检索策略设计。-?具备Pandas</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>上海品聘软件技术有限公司</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>91310120MA1HT1JY47</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>100万</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>上海市松江区</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>上海品聘软件技术有限公司,成立日期:2019年07月12日,创建于上海市,经营范围:从事计算机软件科技领域内的技术开发、技术咨询、技术服务、技术转让，企业管理咨询，商务信息咨询，市场营销策划，财务咨询，展览展示服务，企业形象策划，会务服务，电子商务（不得从事金融业务），办公用品、电子产品、纸制品、工艺品的批发、零售。【依法须经批准的项目，经相关部门批准后方可开展经营活动。】,企业注册地址:上海市奉贤区南桥镇环城西路477号1层;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>算法工程师</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>上海 - 松江</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U113" t="n">
+        <v>3</v>
+      </c>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>1.?**RAG系统设计与开发**：???-?负责设计和实现基于大模型的检索增强生成（RAG）系统，结合检索与生成技术，提升模型的回答质量和效率。???-?优化检索模块，确保检索结果的准确性和相关性，提升生成模块的输入质量。2.?**大模型微调与优化**：???-?针对特定领域或任务，对大模型进行微调，提升其在特定场景下的表现。???-?优化模型的推理效率，降低计算资源消耗，提升系统的响应速度。3.?**数据处理与增强**：???-?负责大规模数据集的构建、清洗和预处理，确保数据质量。???-?设计和实现数据增强策略，提升模型的泛化能力和鲁棒性。4.?**系统集成与部署**：???-?将RAG系统与现有产品和服务集成，确保系统的稳定性和可扩展性。???-?负责模型的部署和监控，确保系统在生产环境中的高效运行。5.?**技术研究与创新**：???-?跟踪大模型和RAG领域的新研究进展，探索新技术并应用于实际项目中。???-?参与技术分享和团队培训，提升团队整体技术水平。</t>
+        </is>
+      </c>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>1.?**教育背景**：???-?计算机科学、人工智能、机器学习、自然语言处理等相关领域的及以上。2.?**技术技能**：???-?掌握BERT/RoBERTa/Sentence-BERT等文本Embedding生成方法，熟悉CLIP/ResNet等多模态表征学习技术，具备Hu ingFaceTransformers/FastText等框架实战经验。-?精通HNSW/IVF-PQ等向量索引算法，熟悉Milvus/Pinecone/Weaviate等向量数据库，具备LlamaIndex/RAG等检索增强技术应用经验；了解向量数据库在生产环境的部署与优化，包括集群搭建、性能调优及高可用方案。???-?熟悉检索增强生成（RAG）技术，了解检索系统（如Elasticsearch、FAISS等）和生成模型的结合方式。???-?掌握LoRA/P-Tuning/Adapter等大模型微调方法，了解知识蒸馏/量化等模型压缩技术，熟悉PyTorchLightning/DeepSpeed工具链。-?熟练使用ElasticSearch进行结构化检索，了解BM+语义检索的混合检索策略设计。-?具备Pandas</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>北京联池系统科技有限公司</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>91110112MA01DE2U56</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>上海市浦东区</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>算法工程师</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>30000</v>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>上海 - 浦东</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>硕士</t>
+        </is>
+      </c>
+      <c r="U114" t="n">
+        <v>8</v>
+      </c>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>1.参与公司核心产品的AIOps功能研发，运用机器学习、深度学习等AI技术，对多云网络环境中的故障进行智能预测、诊断与自动修复，提升网络运维效率与可靠性。2.负责“AI+”项目在公司经营运营各环节的落地实施，包括但不限于客户需求分析、产品优化建议、业务流程自动化改造等，助力公司整体数字化转型。3.与跨部门团队紧密合作，包括云计算、网络工程、产品设计等，深入理解多云网络架构与业务场景，将AI技术与云网基础设施深度融合，开发创新性解决方案。4.跟踪GenAI及相关领域前沿技术发展趋势，积极引入新技术、新算法，持续优化公司产品与服务的智能水平，保持行业竞争力。三、</t>
+        </is>
+      </c>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>1./1院校，计算机科学与技术、软件工程、网络工程、人工智能等相关专业，优先考虑，特别优秀的在校学生也可投递。2.具备3年左右工作经验（应届需有扎实的相关课题研究经历），熟悉AI算法开发，有实际项目落地经验，能够独立承担模块开发任务。3.深入了解GenAI技术，如GPT系列模型原理、应用场景，掌握至少一种主流深度学习框架（TensorFlow、PyTorch等），具备模型训练、优化与部署能力。4.有AI+云计算/网络基础设施相关课题研究或工作经验者优先，熟悉云平台架构（AWS、Azure、阿里云等），了解网络协议（TCP/IP、HTTP、VPN等），能在云网融合环境下开展智能开发工作。5.具备很强的自驱动学习能力，良好的问题解决能力、团队协作精神与沟通能力，能够适应快速变化的创业公司环境，对新技术有强烈的探索欲望。四、</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>徕铂科服（上海）信息科技有限公司</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>91310115MACXJ1KF5E</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>上海市闵行区</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>数据采集</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>24000</v>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>上海 - 闵行</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U115" t="n">
+        <v>14</v>
+      </c>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>【有 Agent搭建/RAG/大模型微调； 数据挖掘/数据清洗； 向量化知识库构建；任意一项相关经验优先】1.负责设计、开发和维护高效、稳定的爬虫系统，满足公司各类数据采集需求，涵盖市场数据、行业动态、竞品信息等；2.综合运用Python、Java、Node.js等编程语言进行爬虫程序开发，根据不同网站的结构和反爬策略，选择合适的技术方案，确保代码具备良好的质量、性能和可扩展性；3.深入分析网页结构，熟练运用HTML、CSS、JavaScript知识，精准解析和提取目标数据，处理复杂的动态网页内容；4.实时监控爬虫运行状态，及时发现并解决性能瓶颈、数据丢失、反爬限制等问题，通过优化代码、调整抓取策略等方式，持续提升爬虫的抓取效率和稳定性；6.研究并应对各类反爬机制，如IP封锁、验证码识别、用户行为检测等，运用代理池、验证码识别技术、模拟用户行为等手段，实现有效的反反爬策略，确保爬虫能够稳定运行；7.定期维护和更新现有爬虫系统，根据网站结构变化和业务需求调整，及时优化抓取逻辑，保证数据的持续获取和有效性；8.编写详细、规范的技术文档，记录爬虫系统的设计架构、开发流程、关键代码逻辑以及维护</t>
+        </is>
+      </c>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>1、计算机科学、软件工程、数学等相关专业及以上；2、3年以上爬虫开发工作经验，具备多个完整爬虫项目的开发和维护经验；3、有过处理反爬策略的成功案例，如绕过验证码、突破IP封锁等，能够分享有效的反反爬经验和技术手段；4、熟练掌握Python、Java、Node.js等编程语言，能够构建大规模、高性能的分布式爬虫系统，提升数据采集效率；5、具备较强的问题分析和解决能力，能够快速定位和解决爬虫开发过程中遇到的各种技术难题，如数据抓取异常、性能优化等，善于通过调试工具和技术手段进行问题排查加分项：爬取过外网平台，熟悉爬虫自动化，熟悉多线程，做过IP池，处理过验证码和较为复杂的图文校验，了解过vpn与国外服务器，进行过数据清洗母公司上海正帆科技股份有限公司简介：上海正帆科技股份有限公司（股票代码86），公司：e.tech;为A股上市公司上海正帆科技股份有限公司的控股子公司，注册地在上海浦东自贸区，总部设立在上海市徐汇区零陵路9号，是由世界0强化工企业核心科学家及前腾讯高级技术专家联合打造的高科技科学大数据管理软件企业。作为一家高科技信息技术公司，我们为化学化工，医药，材料及生命科学等科研单位提供</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>上海馨海澄光网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>91310120MADH3M6P5P</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>100万</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>上海市静安区</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>18000</v>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>上海 - 静安</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U116" t="n">
+        <v>12</v>
+      </c>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>1.全链路开发与架构：主导Android端项目全生命周期开发，涵盖需求拆解、高可用架构设计、核心代码编写及全链路性能优化，确保技术方案的前瞻性与稳定性。2.框架深度应用：熟练运用GoogleJetpackCompose、Room、ViewModel等框架构建高性能应用架构，主导复杂业务模块开发，提升代码复用性与可维护性。3.跨平台技术落地：负责Flutter与原生Android的深度融合开发，主导跨平台技术选型与方案落地，保障多端功能一致性与极致用户体验。4.技术攻坚与优化：攻克内存泄漏、启动耗时、流畅度卡顿等技术难题，熟练使用Profiler等工具进行性能调优，提升应用核心指标。5.跨团队协作与迭代：与产品、设计、后端团队高效协同，推动需求迭代与版本交付，确保项目高质量上线及持续优化。</t>
+        </is>
+      </c>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>1.核心技术能力*语言精通：精通Java、Kotlin语言，熟练掌握Flutter开发及Dart语言，具备响应式编程、状态管理实战经验。*框架深度：深入理解Jetpack组件、AndroidArchitectureComponents，能结合业务场景灵活应用并解决复杂问题。*跨平台经验：具备Flutter与原生Android混合开发经验，熟悉平台通信机制、插件开发及性能调优方案。*工程能力：熟练掌握Android编译流程、Gradle构建优化，熟悉NDK开发，精通Retrofit、Glide等第三方库的使用与定制。2.经验要求：5年以上Android开发经验，主导过至少2个成功上线的Android项目，具备完整项目从0到1的交付经验。3.专项技能：*熟练使用MAT、LeakCanary等工具进行内存分析与泄漏排查，精通Android性能优化方法论；*深入理解Http、TCP/IP、Socket协议，具备复杂网络场景下的开发与调优能力；*熟悉AndroidSDK，对AndroidFramework源码有一定研究，具备系统级问题定位能力。4.软实力：具备优秀的学习能力与技术敏感度，能快速跟</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>上海维迩克显示技术有限公司</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>913101177757978878</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>500万</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>上海市长宁区</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>上海-徐汇-漕河泾 上海徐汇区宜山路889号4号楼7楼C1座上海徐汇区宜山路889号4号楼7楼C1座</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>上海维迩克显示技术有限公司，为拓普集团2004年初设立于上海的独立销售公司，负责华东市场的开拓与服务，集团总部位于北京中关村，成立于1995年。公司20多年来一直专门从事国际知名品牌液晶模块的代理和显示方案的开发，公司已和众多知名企业建立了长期稳定的合作关系，尤其在铁路、医疗仪器、工控、电力、纺织机械、金融终端、船舶、航显、通信等行业更显示出我们的优势。在2014年整个集团的销售额达到3.5亿*。目前公司主要专业代理销售夏普、NEC、京瓷、三菱、友达、群创、天马等著名公司的液晶模块，同时，我们具备根据客户的个性化要求提供OEM服务和开发终端产品的能力，对于日益发展的显示技术领域，我们将一如既往地作出我们*的努力！ 联系地址：上海市徐汇区宜山路889号齐来科技服务园区4号楼7层C1座（近地铁9号线漕河泾站、地铁12号线虹漕路站）邮政编码：200233</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>技术总监</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>上海 - 长宁</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U117" t="n">
+        <v>22</v>
+      </c>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>1.高度理解公司的发展战略，全面负责公司各平台系统的技术方向研究和总体规划，全面负责公司技术层面的所有管理工作；2.结合大数据和AI业务发展需求和系统现状，制定技术发展战略、对系统架构发展进行规划、组织制定和实施重大技术决策和方案；3.程度支撑公司大数据和AI项目或产品的技术实现和稳定运行，力求技术稳定性和先进性为公司发展提供动力，容量规划预备业务的快速增长；4.主导制定并持续优化研发工作流程和规范，保证高效率高质量的技术产出，促进技术成果的沉淀共享，确保技术成果的有效性和持续性；5.带领技术团队设计与实现产品的技术架构（包含云服务和第三方服务选型搭配、服务端架构设计、数据结构定义、服务端API定义及实现、APP客户端架构、Web客户端架构、系统运维、安全运维等），主导架构评审，保障技术的合理性与可行性；6.负责技术团队的建设、培养和关怀，提升团队的工作体验、质量、效率和技术能力，优化项目人员结构，明确职责，定期进行技术培训或分享；7.负责研发部门整体目标制定，推进团队目标、个人目标和工作计划的制定和落地执行；8.研究大数据与AI新产品和技术的发展方向，并在系统中使用以提升产品体验。</t>
+        </is>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>1.以上，具备8年以上IT和大数据的技术团队管理经验，具有极强的事业心和创业精神，能承受较大工作压力，有面对大型企业客户项目经验优先。2.精通大数据应用的架构设计、数据分析与挖掘，系统分析、系统实现、性能优化；3.熟练运用大数据开源项目快速搭建系统，保证研发团队专注于核心业务开发；4.拥有较强的系统设计和实现能力，拥有优秀的需求把握与分析能力，技术文档撰写和审查能力；5.具有较强的领导能力，有较强的判断、决策、计划与执行能力，良好的人际关系协调和沟通能力；6.具备目标设定与执行、项目管理、进度安排和控制、质量管理、有效促进他人行动的能力，能够领导团队完成平台级别的开发任务；7.对敏捷开发思想和流程有深刻的理解，可保证产品快速迭代，增量式提升；对大数据分析等技术有较深的理解和实践；8.具备敏锐的前沿大数据技术视野，洞察并调研适合系统的新技术，通过提升技术改善用户体验、降低成本和创造业务价值。9.接受出差。薪资：年薪-80万</t>
         </is>
       </c>
     </row>

--- a/58同城多城市职位详细信息.xlsx
+++ b/58同城多城市职位详细信息.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y242"/>
+  <dimension ref="A1:Y247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19870,6 +19870,423 @@
         </is>
       </c>
     </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>杭州橙蜂传媒科技有限公司</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>91330109MA7D4HQX5T</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2000万</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>广东省深圳市南山区</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>产品专员/助理</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P243" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>12000</v>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>深圳 - 南山</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U243" t="n">
+        <v>26</v>
+      </c>
+      <c r="V243" t="inlineStr"/>
+      <c r="W243" t="inlineStr"/>
+      <c r="X243" t="inlineStr">
+        <is>
+          <t>*产品开发及测试跟进：跟进产品发版上线，协助执行功能测试用例，记录缺陷并跟踪开发修复进度；*产品文档更新及培训：撰写和更新产品文档及FAQ知识库等，为内外部客户提供产品知识培训和答疑，帮助用户提升使用技能和效率；*产品运维：负责产品平台信息设置、账号权限设置等基础运维工作，定时检查确保平台及接口的稳定运行；协助处理客户的咨询和问题并进行初步的故障排查，根据需要协调研发快速解决；*客户技术支持：跟进客户技术对接的需求沟通、功能演示、实施方案、项目进度等，响应客户咨询并处理相关技术问题（如账号配置、基础报错排查），缩短客户决策周期、确保项目按时交付和客户满意;*产品支持：协助收集内外部产品需求并分析用户痛点，输出产品方案文档，制作原型示意图等；*其它：不断优化产品及技术对接相关工作流程和文档，提升工作效率；【</t>
+        </is>
+      </c>
+      <c r="Y243" t="inlineStr">
+        <is>
+          <t>*及以上，能快速理解广告或信息投放系统的运作流程，有类似B端技术项目经验者优先；*具备基础技术能力，熟悉API技术对接、产品测试、开发日志等，能够和研发有效协作、快速排查并解决技术问题；*逻辑清晰、沟通表达和执行力强，适应多线程任务，有高度的自驱力。加分项有以下行业经验：广告营销·互联网·企业服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>深圳市璟煜科技有限公司</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>91440300MADWM5R214</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>5万</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>广东省深圳市南山区</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>自然语言处理（NLP）</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr"/>
+      <c r="Q244" t="inlineStr"/>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>深圳 - 南山</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U244" t="n">
+        <v>50</v>
+      </c>
+      <c r="V244" t="inlineStr"/>
+      <c r="W244" t="inlineStr"/>
+      <c r="X244" t="inlineStr">
+        <is>
+          <t>基于?型语?模型（如GPT、Llama）开发?效对话系统，?持多轮对话与复杂交互场景。 优化对话管理模块，提升?然语?理解（NLU）与?成（NLG）的精度和响应速度。 开发?向任务完成的AIAgent，?持?本、图像等多模态输?输出。 集成与业务相关的功能模块，将AIAgent应?于实际场景。 使?Retrieval-AugmentedGeneration(RAG)技术，结合外部知识检索和?成模型，提升?成结果的准确性和相关性。 优化检索-?成的链路性能，使其适配不同业务需求。 运?LoRA或其他轻量级微调技术，快速定制化模型以满?特定需求。 从业务需求出发，快速开发功能原型，并推动技术转化为实际产品。 为?户体验设计创新解决?案，确保产品性能和实?性。职位要求 熟悉LLM微调（如LoRA、Adapter）和优化技术，能够快速适配实际业务需求。 对RAG技术有深?理解，并能?效实现知识检索与?成的结合。 曾主导或参与过?成式AI项?的开发与落地，特别是在Chatbot或AIAgent的实际应?中。 有完整的项?经历，从需求分析到上线优化，并能应对产品化挑战。 精通Python和相关?具</t>
+        </is>
+      </c>
+      <c r="Y244" t="inlineStr">
+        <is>
+          <t>熟悉LLM微调（如LoRA、Adapter）和优化技术，能够快速适配实际业务需求。 对RAG技术有深?理解，并能?效实现知识检索与?成的结合。 曾主导或参与过?成式AI项?的开发与落地，特别是在Chatbot或AIAgent的实际应?中。 有完整的项?经历，从需求分析到上线优化，并能应对产品化挑战。 精通Python和相关?具链（如Hu ingFace,Pytorch），具备快速开发与验证的能?。 具备创新能?，能够根据业务需求设计?成式AI的新应?场景。 优秀的团队协作和沟通能?，能够推动跨部?的技术落地。加分项 熟练掌握多模态?成技术（如StableDiffusion）或多模态理解技术（VLM）并能够应?于实际场景。 曾成功开发并部署Chatbot或AIAgent产品，具备从原型到?产的完整经验。 熟悉?成式AI在特定?业（如教育、客服、电商等）的应?场景。</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>北京树米智能科技有限公司</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>91440300MA5FJAH765</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>170.420000万</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>广东省深圳市南山区</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>北京树米智能科技有限公司,成立日期:2019年03月27日,创建于深圳市,经营范围:技术开发、技术咨询、技术推广、技术服务、技术转让；计算机系统服务；基础软件服务；应用软件服务；软件开发；产品设计；模型设计；工艺品设计；经济信息咨询；教育咨询；企业策划；会议服务；企业管理咨询；设计、制作、代理、发布广告；技术进出口；货物进出口；代理进出口；电脑图文设计、制作；组织文化艺术交流活动；文艺创作；承办展览展示活动；销售电子产品、通讯设备、计算机、软件及辅助设备、工艺品；委托加工。（市场主体依法自主选择经营项目，开展经营活动；依法须经批准的项目，经相关部门批准后依批准的内容开展经营活动；不得从事国家和本市产业政策禁止和限制类项目的经营活动。）,企业注册地址:北京市东城区王府井大街99号A613-M025;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>运维工程师</t>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P245" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>深圳 - 南山</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U245" t="n">
+        <v>40</v>
+      </c>
+      <c r="V245" t="inlineStr"/>
+      <c r="W245" t="inlineStr"/>
+      <c r="X245" t="inlineStr">
+        <is>
+          <t>1.负责企业级大型系统及高并发场景的架构设计、部署、监控与优化，保障系统稳定高效运行。2.主导自动化运维体系建设，推动DevOps及CI/CD流程落地，提升运维效率。3.管理云平台（AWS/阿里云/腾讯云）及容器化环境（Docker/K8s），优化资源利用率与成本。4.设计并实施高可用、容灾方案，解决网络、数据库、中间件等核心组件的性能瓶颈。5.制定安全运维规范，完成漏洞排查、渗透测试及合规（等保/GDPR）适配。</t>
+        </is>
+      </c>
+      <c r="Y245" t="inlineStr">
+        <is>
+          <t>一、基本条件1.及以上，计算机、网络工程、电子信息、通信等相关专业；2.5年以上运维经验，有大型系统或高并发场景实战经验；3.逻辑清晰，具备复杂问题定位及跨团队协作能力。二、技术能力1.操作系统与网络-精通Linux系统（CentOS/Ubuntu等）的配置、调优及故障排查；-熟悉TCP/IP、HTTP/DN等技术的应用。2.自动化与工具-熟练使用Shell/Python/Go等至少一门脚本语言，实现自动化运维；-精通Ansible、SaltStack、Terraform等自动化运维工具；-熟悉CI/CD流程（Jenkins、GitLabCI等），推动DevOps实践。3.云与容器化-熟悉主流云平台（AWS、阿里云、腾讯云、Azure）的运维及服务（如ECS、VPC、S3等）；-精通Docker、Kubernetes容器化技术，具备集群管理及微服务运维经验；-了解Server s、ServiceMesh等云原生技术。4.监控与高可用-熟练使用Prometheus、Zab x、ELK、Grafana等监控与日志分析工具；-设计并实施高可用架构（如集群、容灾、多活部署）。5.数据库与中间件</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>深圳市智邻科技有限公司</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>91440300MA5ERG4050</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>576万</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>广东省深圳市龙华区</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>深圳市智邻科技有限公司,成立日期:2017年10月09日,创建于深圳市,经营范围:计算机及网络技术开发、技术咨询；计算机软硬件的销售；数据库开发及管理；信息咨询、企业管理咨询、教育咨询、市场调研；会务策划；^人力资源服务；人才中介服务；出版物（含音像制品）批发、零售。,企业注册地址:深圳市龙华区民治街道大岭社区安宏基天曜广场1栋A座3C01;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>C#开发</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P246" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>18000</v>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>深圳 - 龙华</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U246" t="n">
+        <v>8</v>
+      </c>
+      <c r="V246" t="inlineStr"/>
+      <c r="W246" t="inlineStr"/>
+      <c r="X246" t="inlineStr">
+        <is>
+          <t>技术领导与指导：负责带领并指导研发团队，利用C#语言进行高效、高质量的软件产品开发与维护。深入理解业务需求，设计并实现技术解决方案，确保技术选型符合项目需求及公司技术战略。对Vue框架有深入了解，能够指导团队在前端开发中合理运用Vue框架，提升用户体验和界面交互性。团队管理：招聘、培训、激励及评估团队成员，建立高效、协作的研发团队。分配项目任务，监控项目进度，确保项目按时、按质完成。促进团队成员间的知识共享与技能提升，营造持续学习的氛围。项目管理：参与或主导项目规划，制定项目计划、里程碑和预算。跟踪项目进展，识别并解决项目中的风险和问题，确保项目顺利进行。运用敏捷开发或其他项目管理方法，优化研发流程，提高团队效率。技术创新与优化：关注行业动态和技术发展趋势，引入新技术、新工具，提升团队技术水平。定期评估现有系统性能，提出并实施优化方案，确保系统稳定、高效运行。跨部门协作：与产品经理、设计师、测试工程师等紧密合作，确保产品从设计到上线的全过程顺畅无阻。参与产品需求分析、评审，为产品功能实现提供专业建议。</t>
+        </is>
+      </c>
+      <c r="Y246" t="inlineStr">
+        <is>
+          <t>教育背景：计算机科学、软件工程或相关专业及以上。工作经验：3-6年软件开发经验，其中至少2年担任团队领导或项目管理角色。熟练掌握C#语言，有实际项目开发经验。对Vue框架有深入理解和实战经验，熟悉前端开发流程。技术能力：熟悉.NET框架、数据库设计（如SQLServer、MySQL等）及Web服务技术（如RESTfulAPI）。了解微服务架构、容器化（Docker）、持续集成/持续部署（CI/CD）等现代开发技术。有良好的代码风格，熟悉代码管理和版本控制工具（如Git）。管理与沟通能力：具备出色的团队管理和领导能力，能够有效激励团队成员。良好的跨部门沟通协调能力和问题解决能力。能够清晰地向非技术人员解释技术方案和进展。个人素质：责任心强，对工作充满热情，能够承受工作压力。积极主动，具有良好的学习能力和创新意识。优秀的团队合作精神，愿意分享知识和经验。</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>西安迈搏创芯人工智能科技有限公司</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>91610131MADBG8UE5Y</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>50万</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>广东省深圳市福田区</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>李先生</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>宝鸡-渭滨-火车站 开元小吃城</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>DBA</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr"/>
+      <c r="Q247" t="inlineStr"/>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>深圳 - 福田</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U247" t="n">
+        <v>32</v>
+      </c>
+      <c r="V247" t="inlineStr"/>
+      <c r="W247" t="inlineStr"/>
+      <c r="X247" t="inlineStr">
+        <is>
+          <t>一、构建与执行数据治理策略：1.设计和推动符合MSP业务需求的数据治理体系，包括数据质量、数据标准、数据安全、主数据管理等模块。2.制定数据目录、元数据管理、数据分级分类及使用规范。3.梳理现有PGIntegration表，结合API同步频率和存储周期，进行数据治理。二、跨系统数据整合与标准化：1.理解MSPSaaS系统（如PSA、R 、BI平台）中的数据结构，推动跨平台数据整合与清洗。2.与BI、RPA团队合作，确保数据一致性和可追溯性。三、数据质量管理：1.定义关键数据质量指标（DQI），持续监控并优化数据准确性、完整性和及时性。2.建立异常数据识别机制并主导修复流程。四、数据权限与合规性管理：1.定义数据访问策略，确保数据使用符合GDPR、SOC2等合规要求。2.参与审计流程，输出合规报告与风险评估建议。五、推动数据驱动的：1.指导产品、运营、客户成功等团队理解和使用规范的数据资产。2.组织数据治理培训，提高全员数据意识。3.与外国客户沟通API、dwdataset业务需求，指导内部团队实现dataset/widget/dashboard开发。</t>
+        </is>
+      </c>
+      <c r="Y247" t="inlineStr">
+        <is>
+          <t>1.与经验：计算机、信息管理、统计学等相关专业及以上；至少3年以上数据治理或数据管理相关经验，有SaaS或MSP领域经验优先；2.技能要求：精通Java、熟练使用PG，可以对复杂的PGSQL进行性能优化；熟悉常见的数据治理框架（如DAMADMBOK）；熟悉MySQL、SQLServer、Snowflake等数据库技术，能使用SQL进行数据审查；理解数据仓库、数据湖、ETL等概念，有BI工具使用经验（如PowerBI、Tableau）；了解MSP行业主流系统如ConnectWise、Kaseya、Datto、N-able等为加分项；3.其他要求：逻辑清晰，具备良好的跨部门沟通与协调能力；具备数据合规意识，对敏感数据保护有经验；有推动项目落地的执行能力，适应快速变化的业务需求。地址西安</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/58同城多城市职位详细信息.xlsx
+++ b/58同城多城市职位详细信息.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,91 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>广州嘉荣钢构有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>91440105MAE6206D3X</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>100万</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>广东省广州市白云区</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>项目专员/助理</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>广州 - 白云</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>- 协助项目执行，整理资料，跟进进度- 配合团队完成日常事务及现场协调工作【职位要求】- 学历：高中及以上- 经验：不限【工作时间】- 具体时间班次面议【薪资福利】- 薪资：5000-8000元/月- 福利：五险一金｜包吃包住｜周末双休｜话补｜房补</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>- 学历：高中及以上- 经验：不限【工作时间】- 具体时间班次面议【薪资福利】- 薪资：5000-8000元/月- 福利：五险一金｜包吃包住｜周末双休｜话补｜房补</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/58同城多城市职位详细信息.xlsx
+++ b/58同城多城市职位详细信息.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>广州嘉荣钢构有限公司</t>
+          <t>北京中昌软件技术有限公司</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -573,60 +573,68 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>91440105MAE6206D3X</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>91110101095807770R</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>100万</t>
+          <t>200万</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>广东省广州市白云区</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>王先生</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>北京-西城-三里河 河南省洛阳市洛龙区长兴街</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>主要从事地铁工程建设行业全过程造价管理软件开发及实施</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>项目专员/助理</t>
+          <t>运维工程师</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>非面谈</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>8000</t>
-        </is>
-      </c>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>广州 - 白云</t>
+          <t>北京 - 丰台</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>经验不限</t>
+          <t>1-2年</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>学历不限</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -636,12 +644,5619 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr">
         <is>
-          <t>- 协助项目执行，整理资料，跟进进度- 配合团队完成日常事务及现场协调工作【职位要求】- 学历：高中及以上- 经验：不限【工作时间】- 具体时间班次面议【薪资福利】- 薪资：5000-8000元/月- 福利：五险一金｜包吃包住｜周末双休｜话补｜房补</t>
+          <t>1、负责公司已经验收的软件项目的维护、管理、故障排除等日常工作，通过QQ/电话/微信解答用户提出的软件使用问题，如果自身解决不了，提交公司总部开发人员协助解决，确保软件的正常运作；2、维护软件系统的运行环境，对系统数据进行备份。职位要求：1、通信、电子工程、自动化、计算机等相关专业，本科或以上学历，1年以上软件系统与IT系统维护工作经验；2、熟悉和掌握各种计算机软硬件，可独立进行安装、调试及故障排除；3、精通局域网的维护及网络安全知识，可熟练进行局域网的搭建和网络设备的基本维护和故障处理；4、熟练运用WINDOWS、Oracle数据库等对服务器进行维护与管理；5、工作主动性强，耐心细致，有责任心，具备团队合作精神。6、有工程建设行业工作经验者优先考虑。7、签订3年合同，试用期3个月。工作时间：8:30-17:30</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>- 学历：高中及以上- 经验：不限【工作时间】- 具体时间班次面议【薪资福利】- 薪资：5000-8000元/月- 福利：五险一金｜包吃包住｜周末双休｜话补｜房补</t>
+          <t>1、通信、电子工程、自动化、计算机等相关专业，本科或以上学历，1年以上软件系统与IT系统维护工作经验；2、熟悉和掌握各种计算机软硬件，可独立进行安装、调试及故障排除；3、精通局域网的维护及网络安全知识，可熟练进行局域网的搭建和网络设备的基本维护和故障处理；4、熟练运用WINDOWS、Oracle数据库等对服务器进行维护与管理；5、工作主动性强，耐心细致，有责任心，具备团队合作精神。6、有工程建设行业工作经验者优先考虑。7、签订3年合同，试用期3个月。工作时间：8:30-17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>北京嘉言文化发展有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>91110108MA01MH8X55</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>300万</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>北京嘉言文化发展有限公司,成立日期:2019年09月09日,创建于北京市,经营范围:一般项目：组织文化艺术交流活动；健康咨询服务（不含诊疗服务）；远程健康管理服务；体育健康服务；林业产品销售；自然科学研究和试验发展；医学研究和试验发展；工程和技术研究和试验发展；日用化学产品制造；新材料技术推广服务；文艺创作；企业形象策划；五金产品研发；广告发布；广告设计、代理；广告制作；包装服务；会议及展览服务；技术服务、技术开发、技术咨询、技术交流、技术转让、技术推广；市场调查（不含涉外调查）；规划设计管理；咨询策划服务；企业管理咨询；翻译服务；人体干细胞技术开发和应用；信息技术咨询服务；软件开发。（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）（不得从事国家和本市产业政策禁止和限制类项目的经营活动。）,企业注册地址:北京市通州区临河里街道净水园15号楼2层1043;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>产品经理</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>11000</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>- 负责合香产品的生产管理- 负责产品质量把控- 负责团队人员管理【职位要求】- 年龄28~45岁- 本科学历- 3-5年相关工作经验【工作时间】- 10:00-19:00【薪资福利】- 薪资范围：6000-11000元</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>- 年龄28~45岁- 本科学历- 3-5年相关工作经验【工作时间】- 10:00-19:00【薪资福利】- 薪资范围：6000-11000元</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>北京市艺值字画有限公司</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>91110113MADJ63658L</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>北京市顺义区</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>陈瑞芳</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>北京市艺值字画有限公司,成立日期:2024年04月24日,创建于北京市,经营范围:一般项目：工艺美术品及礼仪用品销售（象牙及其制品除外）；组织文化艺术交流活动；艺（美）术品、收藏品鉴定评估服务；工艺美术品及收藏品批发（象牙及其制品除外）；文艺创作；艺术品代理；其他文化艺术经纪代理；文化娱乐经纪人服务；会议及展览服务；计算机系统服务；信息系统集成服务；娱乐性展览；专业设计服务；工业设计服务；数字文化创意软件开发；企业管理；企业形象策划；咨询策划服务；广告发布；平面设计；广告设计、代理；礼仪服务；翻译服务；人工智能行业应用系统集成服务；人工智能硬件销售；人工智能应用软件开发；软件开发；摄影扩印服务；图文设计制作；互联网销售（除销售需要许可的商品）；电影摄制服务；数字创意产品展览展示服务；市场调查（不含涉外调查）；广告制作；可穿戴智能设备制造；虚拟现实设备制造；电子、机械设备维护（不含特种设备）；机械设备研发；人工智能基础资源与技术平台；动漫游戏开发；玩具、动漫及游艺用品销售；游艺用品及室内游艺器材销售；可穿戴智能设备销售；电子专用设备销售；智能家庭消费设备销售；计算机软硬件及辅助设备批发；</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>软件研发工程师</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>18000</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>北京 - 顺义</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>基于 uni - app 框架，完成公司产品的多端前端开发，包括但不限于微信小程序、手机 APP（iOS 和 Android）以及 H5 页面，确保各端应用的功能准确实现与稳定运行，负责前端页面的整体架构设计与搭建，保证系统的可扩展性与维护性。​与产品经理、UI 设计师密切合作，参与产品需求评审会议，从前端技术角度提供专业建议，将设计稿高效转化为高质量的前端代码，实现良好的用户交互体验；与后端开发团队协同工作，完成接口对接与数据交互，确保前后端数据的一致性与完整性。​持续优化前端应用的性能，包括页面加载速度、交互流畅性等方面，通过代码优化、资源管理、缓存机制等多种手段，提升用户使用体验；及时解决开发过程中出现的兼容性问题，确保应用在不同设备、浏览器和操作系统上的正常显示与功能使用。​负责前端代码的日常维护与更新，修复潜在的代码缺陷与漏洞；参与团队的技术研究与创新，探索 uni - app 框架在不同业务场景下的优化方案与应用创新，为团队引入先进的前端开发理念与技术。​【职位要求】本科及以上学历，计算机、软件工程等相关专业优先，具有 4 年以上前端开发经验，其中 uni - app 开</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>本科及以上学历，计算机、软件工程等相关专业优先，具有 4 年以上前端开发经验，其中 uni - app 开发经验不少于 2 年，有大型项目的前端开发主导经验者优先考虑。​熟练掌握 HTML5、CSS3、JavaScript 等前端基础技术，能够运用这些技术实现复杂的页面布局与交互效果；对 ES6 + 语法有深入理解，能够在项目中熟练运用其特性进行高效开发。​精通 uni - app 框架，熟悉其开发规范与底层原理，熟练使用 HBuilderX 等开发工具，能够灵活运用 uni - app 进行多端应用的快速开发；熟悉组件化开发模式，具备独立封装和维护组件库的能力，对 uni - app 的生命周期、路由管理、数据存储等核心功能有深入的实践经验。​熟悉 Vue.js 框架，了解其响应式原理、组件通信机制等核心知识，能够在 uni - app 项目中熟练运用 Vuex 进行状态管理，使用 Vue Router 进行路由配置；了解前端工程化相关知识，熟悉 Webpack、Vite 等构建工具的基本配置与使用，具备前端性能优化的实践经验。​具备良好的沟通能力与团队协作精神，能够与不同背景的团</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>北京独巨匠心餐饮管理有限公司大兴分公司</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>91110115MACL03CTXT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0-20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>北京市大兴区</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>北京独巨匠心餐饮管理有限公司大兴分公司,成立日期:2023年05月26日,创建于北京市,经营范围:一般项目：餐饮管理；外卖递送服务；会议及展览服务；商业、饮食、服务专用设备制造；物业管理；企业管理；日用杂品销售；新鲜水果零售；水产品零售。（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）许可项目：餐饮服务；出版物零售；食品销售。（依法须经批准的项目，经相关部门批准后方可开展经营活动，具体经营项目以相关部门批准文件或许可证件为准）（不得从事国家和本市产业政策禁止和限制类项目的经营活动。）,企业注册地址:北京市大兴区庞各庄镇瓜乡路2号2号楼1层1002;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>项目经理/主管</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>北京 - 大兴</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>· 负责项目整体推进与管理· 协调团队资源，确保项目按时完成【职位要求】· 本科及以上学历· 3-5年相关工作经验【工作时间】· 上班时间：09:00· 下班时间：18:00【薪资福利】· 薪资区间：面议· 福利保障：五险一金招聘信息：招聘经理所属行业： 物业管理、餐饮服务工作地点： 北京公司简介职位描述（Job Description）1. 核心职责：招投标与成本核算   · 全面负责公司项目的招投标工作，包括搜集招标信息、分析招标文件、统筹标书制作、完成投标文件的编制、封装及递交。   · 主导投标项目的成本核算、利润分析及报价策略制定，确保报价的竞争性与盈利性。   · 撰写、整合和审核技术方案与商务报价，确保标书内容准确、高质量且具有竞争力。2. 方案、合同与结算管理   · 根据客户需求及项目特点，独立撰写、制定各类项目方案、商务建议书及合作协议。   · 负责日常商务合同的起草、审核、修订与流程跟进，重点关注合同金额、付款条款、结算方式等商务条款。   · 负责项目执行过程中的收入确认、进度款申请、变更签证管理及终项目结算工作，确保资金及时回笼。3. 项目核算与财务对接</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>（Qualifications）· 学历与经验：  · 本科及以上学历，财务、会计、法学、工商管理等相关专业优先。  · 3年以上相关工作经验，具备丰富的标书制作、项目核算、合同管理经验，有独立完成项目成本核算及结算的经验。  · 有 [您所在的行业，如：IT软件、政府项目、工程建设等] 行业经验者尤佳。· 专业技能：  · 精通Word, Excel, PowerPoint 等办公软件，尤其要求具备出色的Excel数据处理能力，能熟练使用函数和公式进行成本核算与分析。  · 具备优秀的文字功底和逻辑思维能力，能快速理解需求，撰写严谨、专业的方案与合同。  · 熟悉招投标全流程及相关法律法规，具备基本的财务知识，能读懂财务报表，了解项目会计基本原则。· 综合素质：  · 具备极强的责任心、细心和耐心，对数字敏感，对工作质量有极高的要求。  · 拥有出色的沟通协调能力、团队合作精神和时间管理能力，能同时高效处理多项任务。  · 具备良好的商务谈判技巧、风险意识和成本控制意识。我们期待您的加入！</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>北京智宇创科网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>91110116MAE4AD620D</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>300万</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>任先生</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>北京-海淀-魏公村 北京海淀魏公村路3号北京海淀魏公村路3号</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>于2009年成立，社区便利宠物店，客源稳定，口碑良好，位置地处地铁附近，附近居民很多，有很多顾客，现在很多顾客，生意很好，对待员工也很好，所有员工都可以在不忙的时候自由活动，配置无线上网，上班可以打游戏</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>测试工程师</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>9000</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>·负责产品测试工作，确保产品质量·记录测试结果并反馈问题【职位要求】·学历不限，经验不限·责任心强，能吃苦耐劳【工作时间】·上班时间：10:00·下班时间：18:00·周末双休可线上办公【薪资福利】·薪资范围：6000-9000元</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>·学历不限，经验不限·责任心强，能吃苦耐劳【工作时间】·上班时间：10:00·下班时间：18:00·周末双休可线上办公【薪资福利】·薪资范围：6000-9000元</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>北京中昌软件技术有限公司</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>91110101095807770R</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>200万</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>王先生</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>北京-西城-三里河 河南省洛阳市洛龙区长兴街</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>主要从事地铁工程建设行业全过程造价管理软件开发及实施</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>运维工程师</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1-2年</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>1、负责公司已经验收的软件项目的维护、管理、故障排除等日常工作，通过QQ/电话/微信解答用户提出的软件使用问题，如果自身解决不了，提交公司总部开发人员协助解决，确保软件的正常运作；2、维护软件系统的运行环境，对系统数据进行备份。职位要求：1、通信、电子工程、自动化、计算机等相关专业，本科或以上学历，1年以上软件系统与IT系统维护工作经验；2、熟悉和掌握各种计算机软硬件，可独立进行安装、调试及故障排除；3、精通局域网的维护及网络安全知识，可熟练进行局域网的搭建和网络设备的基本维护和故障处理；4、熟练运用WINDOWS、Oracle数据库等对服务器进行维护与管理；5、工作主动性强，耐心细致，有责任心，具备团队合作精神。6、有工程建设行业工作经验者优先考虑。7、签订3年合同，试用期3个月。工作时间：8:30-17:30</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>1、通信、电子工程、自动化、计算机等相关专业，本科或以上学历，1年以上软件系统与IT系统维护工作经验；2、熟悉和掌握各种计算机软硬件，可独立进行安装、调试及故障排除；3、精通局域网的维护及网络安全知识，可熟练进行局域网的搭建和网络设备的基本维护和故障处理；4、熟练运用WINDOWS、Oracle数据库等对服务器进行维护与管理；5、工作主动性强，耐心细致，有责任心，具备团队合作精神。6、有工程建设行业工作经验者优先考虑。7、签订3年合同，试用期3个月。工作时间：8:30-17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>北京嘉言文化发展有限公司</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>91110108MA01MH8X55</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>300万</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>北京嘉言文化发展有限公司,成立日期:2019年09月09日,创建于北京市,经营范围:一般项目：组织文化艺术交流活动；健康咨询服务（不含诊疗服务）；远程健康管理服务；体育健康服务；林业产品销售；自然科学研究和试验发展；医学研究和试验发展；工程和技术研究和试验发展；日用化学产品制造；新材料技术推广服务；文艺创作；企业形象策划；五金产品研发；广告发布；广告设计、代理；广告制作；包装服务；会议及展览服务；技术服务、技术开发、技术咨询、技术交流、技术转让、技术推广；市场调查（不含涉外调查）；规划设计管理；咨询策划服务；企业管理咨询；翻译服务；人体干细胞技术开发和应用；信息技术咨询服务；软件开发。（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）（不得从事国家和本市产业政策禁止和限制类项目的经营活动。）,企业注册地址:北京市通州区临河里街道净水园15号楼2层1043;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>产品经理</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>11000</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>- 负责合香产品的生产管理- 负责产品质量把控- 负责团队人员管理【职位要求】- 年龄28~45岁- 本科学历- 3-5年相关工作经验【工作时间】- 10:00-19:00【薪资福利】- 薪资范围：6000-11000元</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>- 年龄28~45岁- 本科学历- 3-5年相关工作经验【工作时间】- 10:00-19:00【薪资福利】- 薪资范围：6000-11000元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>上海茗日智能科技有限公司</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>91310113MA1GLYPP4Q</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2000万</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>产品经理</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>24</v>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>-深刻理解MRS的产品和方案体系-深入分析客户业务现状与挑战，设计针对性解决方案，挖掘出客户业务需求并加速需求落地-管理需求解决方案的规划和上线实施-跟踪分析解决方案上线后的业务效果职位要求：-及以上，毕业于国内985或海外QS0院校-3年及以上互联网行业产品经验-具备产品设计或BA相关经验-熟练使用AI工具辅助完成工作-熟练运用逻辑思维和工具思维，擅长数据分析和需求调研-优秀的中英文文档撰写能力和英语沟通能力-对大语言模型和AIAgent有浓厚兴趣</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>-及以上，毕业于国内985或海外QS0院校-3年及以上互联网行业产品经验-具备产品设计或BA相关经验-熟练使用AI工具辅助完成工作-熟练运用逻辑思维和工具思维，擅长数据分析和需求调研-优秀的中英文文档撰写能力和英语沟通能力-对大语言模型和AIAgent有浓厚兴趣</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>北京市艺值字画有限公司</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>91110113MADJ63658L</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>北京市顺义区</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>陈瑞芳</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>北京市艺值字画有限公司,成立日期:2024年04月24日,创建于北京市,经营范围:一般项目：工艺美术品及礼仪用品销售（象牙及其制品除外）；组织文化艺术交流活动；艺（美）术品、收藏品鉴定评估服务；工艺美术品及收藏品批发（象牙及其制品除外）；文艺创作；艺术品代理；其他文化艺术经纪代理；文化娱乐经纪人服务；会议及展览服务；计算机系统服务；信息系统集成服务；娱乐性展览；专业设计服务；工业设计服务；数字文化创意软件开发；企业管理；企业形象策划；咨询策划服务；广告发布；平面设计；广告设计、代理；礼仪服务；翻译服务；人工智能行业应用系统集成服务；人工智能硬件销售；人工智能应用软件开发；软件开发；摄影扩印服务；图文设计制作；互联网销售（除销售需要许可的商品）；电影摄制服务；数字创意产品展览展示服务；市场调查（不含涉外调查）；广告制作；可穿戴智能设备制造；虚拟现实设备制造；电子、机械设备维护（不含特种设备）；机械设备研发；人工智能基础资源与技术平台；动漫游戏开发；玩具、动漫及游艺用品销售；游艺用品及室内游艺器材销售；可穿戴智能设备销售；电子专用设备销售；智能家庭消费设备销售；计算机软硬件及辅助设备批发；</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>软件研发工程师</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>18000</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>北京 - 顺义</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>基于 uni - app 框架，完成公司产品的多端前端开发，包括但不限于微信小程序、手机 APP（iOS 和 Android）以及 H5 页面，确保各端应用的功能准确实现与稳定运行，负责前端页面的整体架构设计与搭建，保证系统的可扩展性与维护性。​与产品经理、UI 设计师密切合作，参与产品需求评审会议，从前端技术角度提供专业建议，将设计稿高效转化为高质量的前端代码，实现良好的用户交互体验；与后端开发团队协同工作，完成接口对接与数据交互，确保前后端数据的一致性与完整性。​持续优化前端应用的性能，包括页面加载速度、交互流畅性等方面，通过代码优化、资源管理、缓存机制等多种手段，提升用户使用体验；及时解决开发过程中出现的兼容性问题，确保应用在不同设备、浏览器和操作系统上的正常显示与功能使用。​负责前端代码的日常维护与更新，修复潜在的代码缺陷与漏洞；参与团队的技术研究与创新，探索 uni - app 框架在不同业务场景下的优化方案与应用创新，为团队引入先进的前端开发理念与技术。​【职位要求】本科及以上学历，计算机、软件工程等相关专业优先，具有 4 年以上前端开发经验，其中 uni - app 开</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>本科及以上学历，计算机、软件工程等相关专业优先，具有 4 年以上前端开发经验，其中 uni - app 开发经验不少于 2 年，有大型项目的前端开发主导经验者优先考虑。​熟练掌握 HTML5、CSS3、JavaScript 等前端基础技术，能够运用这些技术实现复杂的页面布局与交互效果；对 ES6 + 语法有深入理解，能够在项目中熟练运用其特性进行高效开发。​精通 uni - app 框架，熟悉其开发规范与底层原理，熟练使用 HBuilderX 等开发工具，能够灵活运用 uni - app 进行多端应用的快速开发；熟悉组件化开发模式，具备独立封装和维护组件库的能力，对 uni - app 的生命周期、路由管理、数据存储等核心功能有深入的实践经验。​熟悉 Vue.js 框架，了解其响应式原理、组件通信机制等核心知识，能够在 uni - app 项目中熟练运用 Vuex 进行状态管理，使用 Vue Router 进行路由配置；了解前端工程化相关知识，熟悉 Webpack、Vite 等构建工具的基本配置与使用，具备前端性能优化的实践经验。​具备良好的沟通能力与团队协作精神，能够与不同背景的团</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>巽灵科技（北京）有限公司</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>91110108MACXH1AG9F</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>500万</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>1.需求理解与开发?深入研究汽车/能源供应链业务场景，与产品、业务团队沟通，通过需求反讲评审，精准把握前端交互与视觉需求。?基于设计文档，使用Vue、React等主流框架完成供应链系统前端模块开发，实现组件化、响应式界面，确保交互逻辑与视觉效果符合产品要求。2.系统优化与协作?参与代码审查，优化前端代码的可维护性、性能与用户体验（如首屏加载、动画流畅度）。?负责前端模块的单元测试与联调，配合测试团队完成集成测试，编写测试用例，保障系统稳定运行；与后端、设计、运维团队协作推进项目落地。3.技术创新与探索?关注前端技术趋势，引入新技术（如Webpack/Vite性能优化、前端缓存策略）和组件库（如AntDesign、ECharts），优化数据可视化与交互体验。?参与技术研讨，分享前端开发经验，推动团队技术能力提升（如性能优化方案、组件复用规范）。4.项目支持与维护?在项目实施阶段为现场团队提供前端技术支持，解决部署、兼容性等问题。?维护已上线系统，及时修复前端故障，根据业务反馈持续优化界面交互与功能迭代。</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>1.与专业?及以上，计算机相关专业，应届或1-2年前端开发经验均可。2.技能要求?前端框架：熟练掌握Vue、React，精通ReactHooks、组件化开发、状态管理（Redux/ContextAPI）、路由（ReactRouter）及性能优化策略。?组件库与工具：熟练使用AntDesign、ElementUI、ECharts等组件库，能基于业务需求定制组件。?核心语言：精通JavaScript（ES6+特性），能编写高效、可维护的代码，掌握异步编程（Promise/Async-Await）、闭包、原型链等核心概念。?基础技术：精通HTML5、CSS3，深刻理解语义化标签、盒模型、Flexbox/Grid布局、响应式设计原理，能处理浏览器兼容性问题（如不同设备适配、IE兼容方案）。?前端工程化：熟悉Webpack、Vite等构建工具，掌握npm/yarn/pnpm包管理，了解前端模块化（Co onJS/ESModule）与构建流程优化。?样式方案：熟练使用Sass/ s等CSS预处理器或CSS-in-JS（如styled-components），具备自定义主题与样式规范设计能力。?调试</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>北京独巨匠心餐饮管理有限公司大兴分公司</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>91110115MACL03CTXT</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0-20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>北京市大兴区</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>北京独巨匠心餐饮管理有限公司大兴分公司,成立日期:2023年05月26日,创建于北京市,经营范围:一般项目：餐饮管理；外卖递送服务；会议及展览服务；商业、饮食、服务专用设备制造；物业管理；企业管理；日用杂品销售；新鲜水果零售；水产品零售。（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）许可项目：餐饮服务；出版物零售；食品销售。（依法须经批准的项目，经相关部门批准后方可开展经营活动，具体经营项目以相关部门批准文件或许可证件为准）（不得从事国家和本市产业政策禁止和限制类项目的经营活动。）,企业注册地址:北京市大兴区庞各庄镇瓜乡路2号2号楼1层1002;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>项目经理/主管</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>10000</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>北京 - 大兴</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>· 负责项目整体推进与管理· 协调团队资源，确保项目按时完成【职位要求】· 本科及以上学历· 3-5年相关工作经验【工作时间】· 上班时间：09:00· 下班时间：18:00【薪资福利】· 薪资区间：面议· 福利保障：五险一金招聘信息：招聘经理所属行业： 物业管理、餐饮服务工作地点： 北京公司简介职位描述（Job Description）1. 核心职责：招投标与成本核算   · 全面负责公司项目的招投标工作，包括搜集招标信息、分析招标文件、统筹标书制作、完成投标文件的编制、封装及递交。   · 主导投标项目的成本核算、利润分析及报价策略制定，确保报价的竞争性与盈利性。   · 撰写、整合和审核技术方案与商务报价，确保标书内容准确、高质量且具有竞争力。2. 方案、合同与结算管理   · 根据客户需求及项目特点，独立撰写、制定各类项目方案、商务建议书及合作协议。   · 负责日常商务合同的起草、审核、修订与流程跟进，重点关注合同金额、付款条款、结算方式等商务条款。   · 负责项目执行过程中的收入确认、进度款申请、变更签证管理及终项目结算工作，确保资金及时回笼。3. 项目核算与财务对接</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>（Qualifications）· 学历与经验：  · 本科及以上学历，财务、会计、法学、工商管理等相关专业优先。  · 3年以上相关工作经验，具备丰富的标书制作、项目核算、合同管理经验，有独立完成项目成本核算及结算的经验。  · 有 [您所在的行业，如：IT软件、政府项目、工程建设等] 行业经验者尤佳。· 专业技能：  · 精通Word, Excel, PowerPoint 等办公软件，尤其要求具备出色的Excel数据处理能力，能熟练使用函数和公式进行成本核算与分析。  · 具备优秀的文字功底和逻辑思维能力，能快速理解需求，撰写严谨、专业的方案与合同。  · 熟悉招投标全流程及相关法律法规，具备基本的财务知识，能读懂财务报表，了解项目会计基本原则。· 综合素质：  · 具备极强的责任心、细心和耐心，对数字敏感，对工作质量有极高的要求。  · 拥有出色的沟通协调能力、团队合作精神和时间管理能力，能同时高效处理多项任务。  · 具备良好的商务谈判技巧、风险意识和成本控制意识。我们期待您的加入！</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>北京亿智云科技有限公司</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>91110108MA00CC7D6M</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3000万</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>北京市西城区</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>网络/系统安全</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>18000</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>北京 - 西城</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>8</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>一、岗位概述本岗位聚焦项目现场安全运维工作，以保障客户系统、网络及数据的安全稳定运行为核心目标。通过与客户紧密配合提供安全支持，负责安全设备运营、应急响应、网络环境梳理及必要的技术文档撰写，同时承担安全事件监控分析、制度完善、风险评估等任务，需协调内部团队资源，满足客户安全需求。二、主要工作职责1、客户配合与安全支持1.1作为客户对接的核心接口，深度配合客户完成安全相关工作：1.2协助梳理客户安全策略，确保其符合业务场景与合规要求；1.3开展漏洞排查（如SQL注入等常见漏洞），提供针对性修复建议并跟踪整改效果；1.4定期向客户反馈安全运维进展，主动了解需求变化并协调资源响应。2、安全设备运营管理2.1负责防火墙、IDS/IPS等安全设备的日常配置、策略优化与状态监控，确保设备稳定运行；2.2结合客户网络架构特点，优化设备部署模式，提升安全防护的精准性与有效性。3、应急响应与事件处理3.1安全事件发生时，快速提供修复建议，协助业务系统人员执行具体操作，控制事件影响范围；3.2事后复盘事件根源，制定预防措施，更新应急预案。4、网络环境与安全评估4.1深入熟悉客户网络架构，包括内外网分离、D</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>1、与专业计算机、网络安全、信息安全等相关专业，及以上。2、经验要求a,5年以上安全运维相关工作经验，有驻场服务经验者优先；b,具备客户对接经验，熟悉服务型岗位的沟通逻辑与协作模式。3、专业技能a,安全设备操作：熟练配置与管理防火墙、IDS/IPS等设备，理解其部署模式与技术逻辑；b,漏洞管理：能处理SQL注入等常见安全漏洞，提供有效修复建议；c,网络基础：掌握网络架构知识，理解内外网分离、DMZ区域等设计原理；d,应急响应：具备安全事件研判能力，能快速定位问题并提出解决方案；e,渗透测试：有渗透测试经验，熟悉测试流程、工具及漏洞利用技术者优先。4、综合素质a,沟通协调：具备出色的客户沟通与跨团队协作能力，能清晰传递技术信息并协调资源；b,工作态度：积极主动，能适应快节奏、多变化的工作环境及驻场模式；c,学习能力：主动学习新技术、新工具，应对不断变化的网络安全威胁。四、岗位权限1、有权对项目现场及客户侧的系统、网络、安全设备进行安全检查与状态监控；2、有权要求客户及内部团队配合提供安全运维所需的信息、数据及资源支持；3、对发现的安全隐患，有权提出整改建议并跟踪落实，必要时上报客户及内部</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>北京智宇创科网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>91110116MAE4AD620D</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>300万</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>任先生</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>北京-海淀-魏公村 北京海淀魏公村路3号北京海淀魏公村路3号</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>于2009年成立，社区便利宠物店，客源稳定，口碑良好，位置地处地铁附近，附近居民很多，有很多顾客，现在很多顾客，生意很好，对待员工也很好，所有员工都可以在不忙的时候自由活动，配置无线上网，上班可以打游戏</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>测试工程师</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9000</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>·负责产品测试工作，确保产品质量·记录测试结果并反馈问题【职位要求】·学历不限，经验不限·责任心强，能吃苦耐劳【工作时间】·上班时间：10:00·下班时间：18:00·周末双休可线上办公【薪资福利】·薪资范围：6000-9000元</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>·学历不限，经验不限·责任心强，能吃苦耐劳【工作时间】·上班时间：10:00·下班时间：18:00·周末双休可线上办公【薪资福利】·薪资范围：6000-9000元</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>北京信源电子信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>91110108102055686N</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>北京市石景山区</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>全栈工程师</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>北京 - 石景山</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>26</v>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>1.服从公司及相关部门的管理及工作安排；2.负责软件业务Web页面开发，以及部分后台系统开发；3.负责Web前端基础能力建设和性能优化，确保产品良好的用户体验和可用性；4.开发流程提效和技术文档编写和维护；5.掌握HTML、JavaScript、CSS等Web开发技术，熟悉页面架构和布局以及相关的细节的实现；6.掌握vue.js生态、技术栈运用，熟悉vue.js的实现原理，具有前端工程化开发的架构能力和经验。7.掌握vant、element等常用UI框架，具备设计开发类似elementui组件库的能力；8.专注于前端开发，掌握nodejs、java等一门或多门服务端语言，掌握nginx、linux系统的各类配置，熟练使用GIT管理项目代码;9.熟悉W3C标准，熟悉各种浏览器差异及兼容性问题的解决；10.精通SpringBoot/SpringCloud微服务框架，有分布式开发或ruoyi框架二次开发经验优先；11.熟练使用MySQL数据库,掌握Redis/ElasticSearch/FastDFS技术；12.熟悉html/css/Javascript/JQuery/ajax，有vue前端</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>1.计算机或相关专业及以上，3年以上Web前端开发经验、java互联网应用开发经验，代码简洁高效；2.精通掌握HTML、JavaScript、CSS等Web开发技术，熟悉页面架构和布局以及相关的细节的实现，3.精通vue.js生态、技术栈运用，熟悉vue.js的实现原理，具有前端工程化开发的架构能力和经验。4.熟练掌握vant、element等常用UI框架，具备设计开发类似elementui组件库的能力；5.专注于前端开发，掌握nodejs、java等一门或多门服务端语言，掌握nginx、linux系统的各类配置，熟练使用GIT管理项目代码;6.熟悉W3C标准，熟悉各种浏览器差异及兼容性问题的解决；7.精通SpringBoot/SpringCloud微服务框架，有分布式开发或ruoyi框架二次开发经验优先；8.熟练使用MySQL数据库,掌握Redis/ElasticSearch/FastDFS技术；9.熟悉html/css/Javascript/JQuery/ajax，有vue前端开发能力优先；10.会使用Linux基本命令，具备在linux环境下分析日志查找问题的能力、软件部署发布的</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>上海茗日智能科技有限公司</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>91310113MA1GLYPP4Q</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2000万</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>产品经理</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>24</v>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>-深刻理解MRS的产品和方案体系-深入分析客户业务现状与挑战，设计针对性解决方案，挖掘出客户业务需求并加速需求落地-管理需求解决方案的规划和上线实施-跟踪分析解决方案上线后的业务效果职位要求：-及以上，毕业于国内985或海外QS0院校-3年及以上互联网行业产品经验-具备产品设计或BA相关经验-熟练使用AI工具辅助完成工作-熟练运用逻辑思维和工具思维，擅长数据分析和需求调研-优秀的中英文文档撰写能力和英语沟通能力-对大语言模型和AIAgent有浓厚兴趣</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>-及以上，毕业于国内985或海外QS0院校-3年及以上互联网行业产品经验-具备产品设计或BA相关经验-熟练使用AI工具辅助完成工作-熟练运用逻辑思维和工具思维，擅长数据分析和需求调研-优秀的中英文文档撰写能力和英语沟通能力-对大语言模型和AIAgent有浓厚兴趣</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>兆原数通（北京）数据科技有限公司</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>91110102MA00EWUJ7U</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100-499</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2000万</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>北京市西城区</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>兆原数通（北京）数据科技有限公司,成立日期:2017年05月25日,创建于北京市,经营范围:技术开发；技术推广；技术转让；技术服务；软件开发；数据处理；销售计算机、软件及辅助设备、电子产品、通讯设备。（企业依法自主选择经营项目，开展经营活动；依法须经批准的项目，经相关部门批准后依批准的内容开展经营活动；不得从事本市产业政策禁止和限制类项目的经营活动。）,企业注册地址:北京市西城区新街口外大街28号C座3层318号(德胜园区);诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>测试工程师</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>18000</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>北京 - 西城</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>44</v>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>1、测试策略和计划：制定测试策略和计划，根据项目需求和时间约束确定测试范围、测试目标和测试计划。2、测试用例设计：根据需求和设计文档，设计和编写测试用例，确保覆盖功能、性能、安全等方面的测试。3、自动化测试：设计、开发和维护自动化测试脚本和工具，提高测试效率和质量。4、执行测试：执行各类测试，包括功能测试、集成测试、系统测试、性能测试、安全测试等，记录测试结果。5、缺陷管理：跟踪和管理软件缺陷，确保缺陷得到及时修复和验证。6、测试环境管理：管理测试环境的配置和准备，确保测试环境的可用性和一致性。7、测试报告和沟通：编写测试报告，汇总测试结果和问题，并与开发团队、产品经理等进行有效的沟通和协作。8、测试流程改进：持续改进测试流程和方法，提高测试效率和质量，推动自动化测试和持续集成的实施。9、技术支持和培训：为团队提供测试技术支持和培训，提升团队的测试能力和质量意识。10、跨团队协作：与开发团队、产品经理、运维团队等密切合作，共同推动软件质量和交付目标。11、部署实施支持：对已完成测试的程序合理创建分支，管理相关软件包提供实施人员使用，按版本编写操作手册。</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>1、软件测试知识：熟悉软件测试的基本原理、方法和流程，包括测试计划编写、测试用例设计、测试执行、缺陷管理等。2、编程能力：具备扎实的编程能力，熟悉至少一种编程语言（如Java、Python等），能够编写自动化测试脚本或工具。3、自动化测试工具和框架：熟悉并掌握一些常用的自动化测试工具和框架，如SeleniumWebDriver、JUnit、TestNG、Appium等，能够利用这些工具进行自动化测试。4、软件开发生命周期：了解软件开发的各个阶段和流程，包括需求分析、设计、开发、测试和发布等，能够在不同阶段提供测试支持和建议。5、缺陷管理工具：熟悉常用的缺陷管理工具，如JIRA、Bugzilla等，能够有效地跟踪和管理软件缺陷。6、静态和动态测试技术：熟悉静态测试技术，如代码审查、静态分析等，以及动态测试技术，如功能测试、性能测试、安全测试等。7、数据库知识：具备良好的数据库知识，能够编写和执行SQL查询，进行数据库相关的测试和验证。8、敏捷开发和DevOps：熟悉敏捷开发和DevOps理念，了解持续集成、持续交付和持续部署等流程，能够在敏捷团队中协作和提供测试支持。9、问题解决能力：具</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>巽灵科技（北京）有限公司</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>91110108MACXH1AG9F</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>500万</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>软件研发工程师</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>8000</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>1.需求理解与开发?深入研究汽车和能源领域供应链业务需求，与产品经理、业务团队沟通，通过需求反讲评审，精准把握系统功能要求。?根据设计文档，运用主流Java开发框架，如SpringBoot、SpringCloud等，独立完成供应链系统各功能模块的程序设计与开发，确保代码质量符合行业标准，实现模块功能的准确无误。2.系统优化与协作?参与代码审查，积极发现并修正代码问题，提升代码的可读性、可维护性和性能。?负责所编写代码的联调工作，独立完成单元测试，配合测试团队完成集成测试，编写详细测试用例，保障系统稳定运行。与前端开发、测试、运维等团队紧密协作，推动项目顺利进行。3.技术创新与探索?关注行业技术发展趋势，探索引入新技术、新工具，如分布式缓存（Redis）、消息队列（RocketMQ）等，优化供应链系统性能，提升数据处理效率和系统响应速度。?主动参与公司技术研讨，分享技术经验，为团队技术能力提升贡献力量。4.项目支持与维护?在项目实施阶段，为现场实施人员提供技术支持，解决系统部署、运行过程中的技术难题。?对已上线的供应链系统进行日常维护，及时处理系统故障，保障系统7×小时稳定运行。根据业务</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>1.与专业：及以上，计算机科学与技术、软件工程等相关专业，应届或有1-2年工作经验者均可。2.技能要求?熟练掌握Java编程语言，熟悉其语法、数据类型和基本概念，能编写高质量代码，遵循良好的编码规范。?熟练使用SpringBoot开发框架，了解SpringCloud生态体系，具备微服务开发经验者优先。?熟悉关系型数据库，如MySQL，能够编写高效的SQL语句进行数据的增删改查操作。?能够使用Git版本控制工具，掌握代码提交、拉取、推送等基本操作，具备基本的分支管理能力。3.能力素质?具备较强的逻辑思维能力和问题解决能力，能够快速定位和解决代码中的问题。?拥有良好的沟通能力和团队协作精神，能够与不同部门人员有效沟通合作。?具备快速学习能力，对汽车和能源领域的供应链业务有浓厚兴趣，愿意深入学习行业知识。?能够适应一定强度的工作压力，在项目紧张期高效完成任务。4.加分项?有分布式系统开发经验，掌握服务治理、熔断降级、分布式事务等技术者优先。?了解Linux操作系统，具备基本的服务器运维能力者优先。?参与过开源项目，或有相关技术博客、技术社区贡献者优先。岗位优势：1.行业前景：深度参与汽车和能</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>巽灵科技（北京）有限公司</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>91110108MACXH1AG9F</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>500万</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>8000</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>1.需求理解与开发?深入研究汽车/能源供应链业务场景，与产品、业务团队沟通，通过需求反讲评审，精准把握前端交互与视觉需求。?基于设计文档，使用Vue、React等主流框架完成供应链系统前端模块开发，实现组件化、响应式界面，确保交互逻辑与视觉效果符合产品要求。2.系统优化与协作?参与代码审查，优化前端代码的可维护性、性能与用户体验（如首屏加载、动画流畅度）。?负责前端模块的单元测试与联调，配合测试团队完成集成测试，编写测试用例，保障系统稳定运行；与后端、设计、运维团队协作推进项目落地。3.技术创新与探索?关注前端技术趋势，引入新技术（如Webpack/Vite性能优化、前端缓存策略）和组件库（如AntDesign、ECharts），优化数据可视化与交互体验。?参与技术研讨，分享前端开发经验，推动团队技术能力提升（如性能优化方案、组件复用规范）。4.项目支持与维护?在项目实施阶段为现场团队提供前端技术支持，解决部署、兼容性等问题。?维护已上线系统，及时修复前端故障，根据业务反馈持续优化界面交互与功能迭代。</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>1.与专业?及以上，计算机相关专业，应届或1-2年前端开发经验均可。2.技能要求?前端框架：熟练掌握Vue、React，精通ReactHooks、组件化开发、状态管理（Redux/ContextAPI）、路由（ReactRouter）及性能优化策略。?组件库与工具：熟练使用AntDesign、ElementUI、ECharts等组件库，能基于业务需求定制组件。?核心语言：精通JavaScript（ES6+特性），能编写高效、可维护的代码，掌握异步编程（Promise/Async-Await）、闭包、原型链等核心概念。?基础技术：精通HTML5、CSS3，深刻理解语义化标签、盒模型、Flexbox/Grid布局、响应式设计原理，能处理浏览器兼容性问题（如不同设备适配、IE兼容方案）。?前端工程化：熟悉Webpack、Vite等构建工具，掌握npm/yarn/pnpm包管理，了解前端模块化（Co onJS/ESModule）与构建流程优化。?样式方案：熟练使用Sass/ s等CSS预处理器或CSS-in-JS（如styled-components），具备自定义主题与样式规范设计能力。?调试</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>北京亿智云科技有限公司</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>91110108MA00CC7D6M</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3000万</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>北京市西城区</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>网络/系统安全</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>18000</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>北京 - 西城</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
+        <v>8</v>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>一、岗位概述本岗位聚焦项目现场安全运维工作，以保障客户系统、网络及数据的安全稳定运行为核心目标。通过与客户紧密配合提供安全支持，负责安全设备运营、应急响应、网络环境梳理及必要的技术文档撰写，同时承担安全事件监控分析、制度完善、风险评估等任务，需协调内部团队资源，满足客户安全需求。二、主要工作职责1、客户配合与安全支持1.1作为客户对接的核心接口，深度配合客户完成安全相关工作：1.2协助梳理客户安全策略，确保其符合业务场景与合规要求；1.3开展漏洞排查（如SQL注入等常见漏洞），提供针对性修复建议并跟踪整改效果；1.4定期向客户反馈安全运维进展，主动了解需求变化并协调资源响应。2、安全设备运营管理2.1负责防火墙、IDS/IPS等安全设备的日常配置、策略优化与状态监控，确保设备稳定运行；2.2结合客户网络架构特点，优化设备部署模式，提升安全防护的精准性与有效性。3、应急响应与事件处理3.1安全事件发生时，快速提供修复建议，协助业务系统人员执行具体操作，控制事件影响范围；3.2事后复盘事件根源，制定预防措施，更新应急预案。4、网络环境与安全评估4.1深入熟悉客户网络架构，包括内外网分离、D</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>1、与专业计算机、网络安全、信息安全等相关专业，及以上。2、经验要求a,5年以上安全运维相关工作经验，有驻场服务经验者优先；b,具备客户对接经验，熟悉服务型岗位的沟通逻辑与协作模式。3、专业技能a,安全设备操作：熟练配置与管理防火墙、IDS/IPS等设备，理解其部署模式与技术逻辑；b,漏洞管理：能处理SQL注入等常见安全漏洞，提供有效修复建议；c,网络基础：掌握网络架构知识，理解内外网分离、DMZ区域等设计原理；d,应急响应：具备安全事件研判能力，能快速定位问题并提出解决方案；e,渗透测试：有渗透测试经验，熟悉测试流程、工具及漏洞利用技术者优先。4、综合素质a,沟通协调：具备出色的客户沟通与跨团队协作能力，能清晰传递技术信息并协调资源；b,工作态度：积极主动，能适应快节奏、多变化的工作环境及驻场模式；c,学习能力：主动学习新技术、新工具，应对不断变化的网络安全威胁。四、岗位权限1、有权对项目现场及客户侧的系统、网络、安全设备进行安全检查与状态监控；2、有权要求客户及内部团队配合提供安全运维所需的信息、数据及资源支持；3、对发现的安全隐患，有权提出整改建议并跟踪落实，必要时上报客户及内部</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>北京京娱酷秀文化传播有限公司</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>91110105MA0180A72M</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>100万</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>杨先生</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>北京-朝阳-酒仙桥 北京市朝阳区酒仙桥路13号148号楼1层101室北京市朝阳区酒仙桥路13号148号楼1层101室</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>公司成立于2009年，现主营KTV量贩式，旗下包括：江西省、陕西省、山西省、北京市9家直营量贩式KTV，，阳泉作为公司的*家KTV，也是总店，秉承的公司的核心理念：用心服务好每一位顾客，深的阳泉人民的信赖，现公司处于发展期，急须要人才加入，期待与您共创未来....</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>https://pic8.58cdn.com.cn/userauth/pp/n_v2b0b331fb537d4422848d0c58b62078b3.jpg||https://pic6.58cdn.com.cn/userauth/pp/n_v2b8eb850374ed4afc8f6956f96b2b3fc7.jpg||https://pic6.58cdn.com.cn/userauth/pp/n_v2445aec1daad14e0a9697068086310cb8.jpg||https://pic6.58cdn.com.cn/userauth/pp/n_v26d1a453f20044e73b7266797bd134262.jpg</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>算法工程师</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>硕士</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
+        <v>48</v>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>1.1机器学习算法研究与应用运用数据挖掘、机器学习等技术，从海量数据中深度挖掘用户行为及属性，构建精准客户画像；针对销量数据进行分析，建立有效预测模型。持续优化客户画像与销量预测模型，以适应业务变化与需求。对模型效果进行评测分析，为产品策略调整提供数据支持。1.2LLM模型开发与优化针对连锁行业如KTV、餐饮等生活服务场景（如智能客服、个性化、订单语义理解），主导大语言模型（LLM）的领域适配，包括模型微调（Fine-tuning）、提示工程（PromptEngineering）及模型蒸馏（Distillation）；设计并实现轻量化模型方案，通过知识蒸馏、量化压缩等技术降低模型推理成本，适配产品的高并发、低延迟需求。1.3领域数据与算法研究构建行业专属的高质量训练数据集（如客户对话语料、菜单/服务描述文本），设计数据清洗、增强与标注策略；探索适合垂直场景的微调方法（如LoRA、Adapter-basedTuning），优化模型在业务指标（如意图识别准确率、响应相关性）上的表现。1.4模型性能与效果评估建立模型评估体系，设计自动化测试框架，监控模型在A/B测试中的表现并持续迭代优化；研</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2.1基础要求及以上，计算机科学、自然语言处理、机器学习等相关专业。5年以上机器学习实际经验，2年以上LLM/NLP实战经验，熟练掌握Transformer架构，至少主导过1个完整LLM微调或蒸馏项目。精通PyTorch框架，熟悉Hu ingFace生态及主流开源模型（如DeepSeek、LLaMA、BLOOM、ChatGLM）；深入理解模型微调技术（如LoRA、RLHF）、蒸馏方法（如任务自适应蒸馏、层间知识迁移）；熟悉分布式训练、模型压缩（量化/剪枝）及高性能推理优化（vLLM、SGlang等工具链）。2.2行业与工程能力深度理解KTV、餐饮等行业的业务和数据（如会员营销、库存管理、动态定价）有深度理解，能将业务规则融入模型设计；有中文自然语言处理相关的项目经验，熟悉中文分词、语义理解、中文对话生成等技术3.加分项在ACL/EMNLP/NeurIPS等顶会发表过LLM相关论文，或参与过开源LLM项目（如参与模型训练、贡献核心代码）；熟悉熟悉云原生架构（AWS/Azure/阿里云）者优先；具备多模态模型（文本+语音/图像）微调经验，或边缘端（如移动设备）轻量化部署经验；熟悉行业知识图</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>山西恒辰和谷科技有限公司</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>91140500073095266K</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>山西恒辰和谷科技有限公司,成立日期:2013年07月23日,创建于晋城市,经营范围:一般项目：智能控制系统集成；软件开发；智能机器人销售；智能机器人的研发；轮胎销售；橡胶制品销售；建筑用钢筋产品销售；润滑油销售；电子产品销售；通讯设备销售；数字技术服务；物联网技术研发；物联网技术服务；物联网设备制造；物联网设备销售；通信设备制造；光通信设备销售；矿山机械销售；机械设备销售；机械设备研发；配电开关控制设备销售；机械电气设备销售；集成电路销售；信息技术咨询服务；通用设备修理；专用设备修理；信息系统运行维护服务；智能仪器仪表销售；智能仪器仪表制造。（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）,企业注册地址:山西省晋城市开发区金鼎路东、规划顺安街南（创新创业产业园5号厂房3层）;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>软件研发工程师</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>18000</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
+        <v>10</v>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>1设计和实现基于Web的视频流传输、编解码、网络传输和播放等功能。1.1熟悉流媒体技术标准和协议，如RTMP、HLS、WebRTC等，设计和开发高效稳定的视频流传输系统。1.2负责视频编解码方案的研究和实现，优化视频压缩算法和编码参数，提升视频质量和传输效率。1.3开发流媒体服务器和客户端应用，保证视频流的可靠传输和无缝播放体验。2针对不同的平台和设备，开发和优化视频流相关的客户端和服务器端应用程序。2.1针对不同的操作系统和浏览器，进行移动端和PC端的视频流应用开发。2.2优化视频流应用在不同设备上的性能和兼容性，确保用户在各种终端上都能流畅地观看视频。2.3针对移动设备的网络环境和带宽限制，进行流量控制和自适应码率调整，提供良好的视频播放体验。3负责处理视频流中可能出现的延迟、丢帧和其他传输问题，并提供相应的解决方案。3.1优化视频流传输协议和网络传输机制，减少延迟和带宽占用。3.2设计并实现缓冲管理策略，解决视频流的延迟和丢帧问题。3.3针对弱网络环境和不稳定的传输，实现前向纠错和重试机制，提高视频流的可靠性和稳定性。4与团队合作，进行视频流相关的系统架构设计和技术选型。4.1参</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>1拥有丰富的Web开发经验，熟悉前端和后端开发技术。1.1熟练掌握HTML、CSS和JavaScript等前端技术，具备良好的用户界面设计和开发能力。1.2熟悉常用的后端开发框架和语言，如Java,Python,C++,Node.js等。2精通视频编解码、流媒体传输协议（如RTMP、RTP/RTSP、HLS、WebRTC等）和网络传输技术。2.1熟悉常见的视频编码标准（如H.4、H.5等）和音频编码标准（如AAC、Opus等）。2.2理解视频流传输的原理和机制，熟悉网络传输协议和调优技术。2.3精通WebAssembly技術優先。3熟悉流媒体服务器和播放器的原理和实现，有相关项目经验者优先考虑。3.1了解流媒体服务器的部署和管理，熟悉流媒体播放器的开发和集成。3.2掌握常用的流媒体技术和工具，如FFmpeg、HLS.js、VLC，GStreamer等。4具备高并发、高可用系统的设计经验。5熟悉视频AI模型训练、调优及评估方法。6熟悉热成像相关算法在煤矿行业上的应用。7有大型互联网公司或AI相关项目经验者优先。岗位福利：双休+五险+法定节假日+节日福利</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>北京信源电子信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>91110108102055686N</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>北京市石景山区</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>全栈工程师</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>北京 - 石景山</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
+        <v>26</v>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>1.服从公司及相关部门的管理及工作安排；2.负责软件业务Web页面开发，以及部分后台系统开发；3.负责Web前端基础能力建设和性能优化，确保产品良好的用户体验和可用性；4.开发流程提效和技术文档编写和维护；5.掌握HTML、JavaScript、CSS等Web开发技术，熟悉页面架构和布局以及相关的细节的实现；6.掌握vue.js生态、技术栈运用，熟悉vue.js的实现原理，具有前端工程化开发的架构能力和经验。7.掌握vant、element等常用UI框架，具备设计开发类似elementui组件库的能力；8.专注于前端开发，掌握nodejs、java等一门或多门服务端语言，掌握nginx、linux系统的各类配置，熟练使用GIT管理项目代码;9.熟悉W3C标准，熟悉各种浏览器差异及兼容性问题的解决；10.精通SpringBoot/SpringCloud微服务框架，有分布式开发或ruoyi框架二次开发经验优先；11.熟练使用MySQL数据库,掌握Redis/ElasticSearch/FastDFS技术；12.熟悉html/css/Javascript/JQuery/ajax，有vue前端</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>1.计算机或相关专业及以上，3年以上Web前端开发经验、java互联网应用开发经验，代码简洁高效；2.精通掌握HTML、JavaScript、CSS等Web开发技术，熟悉页面架构和布局以及相关的细节的实现，3.精通vue.js生态、技术栈运用，熟悉vue.js的实现原理，具有前端工程化开发的架构能力和经验。4.熟练掌握vant、element等常用UI框架，具备设计开发类似elementui组件库的能力；5.专注于前端开发，掌握nodejs、java等一门或多门服务端语言，掌握nginx、linux系统的各类配置，熟练使用GIT管理项目代码;6.熟悉W3C标准，熟悉各种浏览器差异及兼容性问题的解决；7.精通SpringBoot/SpringCloud微服务框架，有分布式开发或ruoyi框架二次开发经验优先；8.熟练使用MySQL数据库,掌握Redis/ElasticSearch/FastDFS技术；9.熟悉html/css/Javascript/JQuery/ajax，有vue前端开发能力优先；10.会使用Linux基本命令，具备在linux环境下分析日志查找问题的能力、软件部署发布的</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>兆原数通（北京）数据科技有限公司</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>91110102MA00EWUJ7U</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100-499</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2000万</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>北京市西城区</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>兆原数通（北京）数据科技有限公司,成立日期:2017年05月25日,创建于北京市,经营范围:技术开发；技术推广；技术转让；技术服务；软件开发；数据处理；销售计算机、软件及辅助设备、电子产品、通讯设备。（企业依法自主选择经营项目，开展经营活动；依法须经批准的项目，经相关部门批准后依批准的内容开展经营活动；不得从事本市产业政策禁止和限制类项目的经营活动。）,企业注册地址:北京市西城区新街口外大街28号C座3层318号(德胜园区);诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>测试工程师</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>18000</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>北京 - 西城</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>44</v>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>1、测试策略和计划：制定测试策略和计划，根据项目需求和时间约束确定测试范围、测试目标和测试计划。2、测试用例设计：根据需求和设计文档，设计和编写测试用例，确保覆盖功能、性能、安全等方面的测试。3、自动化测试：设计、开发和维护自动化测试脚本和工具，提高测试效率和质量。4、执行测试：执行各类测试，包括功能测试、集成测试、系统测试、性能测试、安全测试等，记录测试结果。5、缺陷管理：跟踪和管理软件缺陷，确保缺陷得到及时修复和验证。6、测试环境管理：管理测试环境的配置和准备，确保测试环境的可用性和一致性。7、测试报告和沟通：编写测试报告，汇总测试结果和问题，并与开发团队、产品经理等进行有效的沟通和协作。8、测试流程改进：持续改进测试流程和方法，提高测试效率和质量，推动自动化测试和持续集成的实施。9、技术支持和培训：为团队提供测试技术支持和培训，提升团队的测试能力和质量意识。10、跨团队协作：与开发团队、产品经理、运维团队等密切合作，共同推动软件质量和交付目标。11、部署实施支持：对已完成测试的程序合理创建分支，管理相关软件包提供实施人员使用，按版本编写操作手册。</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>1、软件测试知识：熟悉软件测试的基本原理、方法和流程，包括测试计划编写、测试用例设计、测试执行、缺陷管理等。2、编程能力：具备扎实的编程能力，熟悉至少一种编程语言（如Java、Python等），能够编写自动化测试脚本或工具。3、自动化测试工具和框架：熟悉并掌握一些常用的自动化测试工具和框架，如SeleniumWebDriver、JUnit、TestNG、Appium等，能够利用这些工具进行自动化测试。4、软件开发生命周期：了解软件开发的各个阶段和流程，包括需求分析、设计、开发、测试和发布等，能够在不同阶段提供测试支持和建议。5、缺陷管理工具：熟悉常用的缺陷管理工具，如JIRA、Bugzilla等，能够有效地跟踪和管理软件缺陷。6、静态和动态测试技术：熟悉静态测试技术，如代码审查、静态分析等，以及动态测试技术，如功能测试、性能测试、安全测试等。7、数据库知识：具备良好的数据库知识，能够编写和执行SQL查询，进行数据库相关的测试和验证。8、敏捷开发和DevOps：熟悉敏捷开发和DevOps理念，了解持续集成、持续交付和持续部署等流程，能够在敏捷团队中协作和提供测试支持。9、问题解决能力：具</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>巽灵科技（北京）有限公司</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>91110108MACXH1AG9F</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>500万</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>软件研发工程师</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>8000</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>1.需求理解与开发?深入研究汽车和能源领域供应链业务需求，与产品经理、业务团队沟通，通过需求反讲评审，精准把握系统功能要求。?根据设计文档，运用主流Java开发框架，如SpringBoot、SpringCloud等，独立完成供应链系统各功能模块的程序设计与开发，确保代码质量符合行业标准，实现模块功能的准确无误。2.系统优化与协作?参与代码审查，积极发现并修正代码问题，提升代码的可读性、可维护性和性能。?负责所编写代码的联调工作，独立完成单元测试，配合测试团队完成集成测试，编写详细测试用例，保障系统稳定运行。与前端开发、测试、运维等团队紧密协作，推动项目顺利进行。3.技术创新与探索?关注行业技术发展趋势，探索引入新技术、新工具，如分布式缓存（Redis）、消息队列（RocketMQ）等，优化供应链系统性能，提升数据处理效率和系统响应速度。?主动参与公司技术研讨，分享技术经验，为团队技术能力提升贡献力量。4.项目支持与维护?在项目实施阶段，为现场实施人员提供技术支持，解决系统部署、运行过程中的技术难题。?对已上线的供应链系统进行日常维护，及时处理系统故障，保障系统7×小时稳定运行。根据业务</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>1.与专业：及以上，计算机科学与技术、软件工程等相关专业，应届或有1-2年工作经验者均可。2.技能要求?熟练掌握Java编程语言，熟悉其语法、数据类型和基本概念，能编写高质量代码，遵循良好的编码规范。?熟练使用SpringBoot开发框架，了解SpringCloud生态体系，具备微服务开发经验者优先。?熟悉关系型数据库，如MySQL，能够编写高效的SQL语句进行数据的增删改查操作。?能够使用Git版本控制工具，掌握代码提交、拉取、推送等基本操作，具备基本的分支管理能力。3.能力素质?具备较强的逻辑思维能力和问题解决能力，能够快速定位和解决代码中的问题。?拥有良好的沟通能力和团队协作精神，能够与不同部门人员有效沟通合作。?具备快速学习能力，对汽车和能源领域的供应链业务有浓厚兴趣，愿意深入学习行业知识。?能够适应一定强度的工作压力，在项目紧张期高效完成任务。4.加分项?有分布式系统开发经验，掌握服务治理、熔断降级、分布式事务等技术者优先。?了解Linux操作系统，具备基本的服务器运维能力者优先。?参与过开源项目，或有相关技术博客、技术社区贡献者优先。岗位优势：1.行业前景：深度参与汽车和能</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>北京吾游互动科技有限公司</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>91110112MA006CFC6C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>100万</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>C/C++开发</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
+        <v>10</v>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>1.内核研发与优化：?深入研究和理解Chrome浏览器的内核架构，包括V8引擎、Blink渲染引擎等。?负责浏览器内核的定制开发，根据产品需求进行功能扩展和优化。?对浏览器内核进行性能调优，提升加载速度、渲染效率和内存管理。2.功能开发与集成：?根据产品需求，设计并实现浏览器的新功能，如多标签页管理、隐私保护、扩展支持等。?与前端团队紧密合作，确保新功能与前端界面的无缝对接和良好用户体验。?参与浏览器跨平台特性的开发和优化，确保在不同操作系统和设备上的一致性表现。3.技术跟踪与调研：?跟踪Chrome浏览器的新技术动态和行业动态，提出创新性的技术解决方案。?参与相关技术方案的调研和选型，为浏览器的长期发展提供技术支持和战略建议。4.问题解决与团队协作：?解决在内核开发过程中遇到的技术难题，确保项目进度和质量。?编写技术文档和注释，提高代码的可读性和可维护性。?与团队成员紧密合作，共同推动项目的进展和完成，促进团队的技术成长和氛围建设。</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>1.教育背景：?计算机科学或相关专业及以上，具备扎实的计算机科学基础。2.专业技能：?精通C/C++语言开发，熟悉面向对象编程和常用数据结构。?熟悉Chrome浏览器的内核架构和关键技术，包括V8引擎、Blink渲染引擎等。?具备浏览器内核开发经验，熟悉多线程、多进程编程和内存管理。?对浏览器安全、隐私保护等方面有深入了解者优先。3.工作经验：?至少3年以上软件开发经验，其中至少1年以上Chrome浏览器内核开发经验。?有大型开源项目源码分析经验、浏览器性能优化经验者优先。4.其他要求?具有良好的沟通能力和团队合作精神，能够主动承担责任并推动项目的进展。?对技术有浓厚的兴趣，愿意不断探索和尝试新技术，持续学习和成长。?具备良好的问题解决能力和创新思维，能够独立思考并解决复杂的技术问题。职业发展：作为Chrome浏览器内核开发工程师，您将有机会接触到前沿的浏览器技术和行业动态。通过不断学习和实践，您将能够成长为浏览器开发领域的专家，并在职业发展上获得更多的机会和挑战。我们鼓励员工不断追求技术卓越和创新，为您提供广阔的职业发展空间和晋升机会。希望以上信息能够帮助您更好地了解Chrome浏览</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>北京京娱酷秀文化传播有限公司</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>91110105MA0180A72M</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>100万</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>杨先生</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>北京-朝阳-酒仙桥 北京市朝阳区酒仙桥路13号148号楼1层101室北京市朝阳区酒仙桥路13号148号楼1层101室</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>公司成立于2009年，现主营KTV量贩式，旗下包括：江西省、陕西省、山西省、北京市9家直营量贩式KTV，，阳泉作为公司的*家KTV，也是总店，秉承的公司的核心理念：用心服务好每一位顾客，深的阳泉人民的信赖，现公司处于发展期，急须要人才加入，期待与您共创未来....</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>https://pic8.58cdn.com.cn/userauth/pp/n_v2b0b331fb537d4422848d0c58b62078b3.jpg||https://pic6.58cdn.com.cn/userauth/pp/n_v2b8eb850374ed4afc8f6956f96b2b3fc7.jpg||https://pic6.58cdn.com.cn/userauth/pp/n_v2445aec1daad14e0a9697068086310cb8.jpg||https://pic6.58cdn.com.cn/userauth/pp/n_v26d1a453f20044e73b7266797bd134262.jpg</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>算法工程师</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>硕士</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
+        <v>48</v>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>1.1机器学习算法研究与应用运用数据挖掘、机器学习等技术，从海量数据中深度挖掘用户行为及属性，构建精准客户画像；针对销量数据进行分析，建立有效预测模型。持续优化客户画像与销量预测模型，以适应业务变化与需求。对模型效果进行评测分析，为产品策略调整提供数据支持。1.2LLM模型开发与优化针对连锁行业如KTV、餐饮等生活服务场景（如智能客服、个性化、订单语义理解），主导大语言模型（LLM）的领域适配，包括模型微调（Fine-tuning）、提示工程（PromptEngineering）及模型蒸馏（Distillation）；设计并实现轻量化模型方案，通过知识蒸馏、量化压缩等技术降低模型推理成本，适配产品的高并发、低延迟需求。1.3领域数据与算法研究构建行业专属的高质量训练数据集（如客户对话语料、菜单/服务描述文本），设计数据清洗、增强与标注策略；探索适合垂直场景的微调方法（如LoRA、Adapter-basedTuning），优化模型在业务指标（如意图识别准确率、响应相关性）上的表现。1.4模型性能与效果评估建立模型评估体系，设计自动化测试框架，监控模型在A/B测试中的表现并持续迭代优化；研</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2.1基础要求及以上，计算机科学、自然语言处理、机器学习等相关专业。5年以上机器学习实际经验，2年以上LLM/NLP实战经验，熟练掌握Transformer架构，至少主导过1个完整LLM微调或蒸馏项目。精通PyTorch框架，熟悉Hu ingFace生态及主流开源模型（如DeepSeek、LLaMA、BLOOM、ChatGLM）；深入理解模型微调技术（如LoRA、RLHF）、蒸馏方法（如任务自适应蒸馏、层间知识迁移）；熟悉分布式训练、模型压缩（量化/剪枝）及高性能推理优化（vLLM、SGlang等工具链）。2.2行业与工程能力深度理解KTV、餐饮等行业的业务和数据（如会员营销、库存管理、动态定价）有深度理解，能将业务规则融入模型设计；有中文自然语言处理相关的项目经验，熟悉中文分词、语义理解、中文对话生成等技术3.加分项在ACL/EMNLP/NeurIPS等顶会发表过LLM相关论文，或参与过开源LLM项目（如参与模型训练、贡献核心代码）；熟悉熟悉云原生架构（AWS/Azure/阿里云）者优先；具备多模态模型（文本+语音/图像）微调经验，或边缘端（如移动设备）轻量化部署经验；熟悉行业知识图</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>重庆梧桐车联科技有限公司</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>91500000MAABQDLH5W</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>56055.879300万</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>C#开发</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
+        <v>111</v>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>1.开发裸眼3DARHUD的实时渲染引擎与核心算法，包括虚实融合、动态视差补偿、3D光场生成等模块。2.设计并优化AR图形叠加算法（如车道线、导航箭头、障碍物标注），确保低延迟、高精度显示。3.实现SLAM（同步定位与建图）或视觉定位算法与HUD系统的集成，支持动态环境下的稳定AR投影。4.与光学/硬件团队协作，开发HUD校准算法（如畸变校正、亮度自适应）及多传感器数据融合逻辑。5.构建车载ARHUD软件架构，适配QNX/yocot等车载系统，满足功能安全与实时性要求。6.研究裸眼3D显示技术（如视差屏障、多层全息）的软件驱动方案，优化人眼追踪与多焦面渲染性能。7.支持HUD与自动驾驶系统（ADAS）的交互设计，实现与摄像头、毫米波雷达的数据联动。</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>1.及以上，计算机科学、软件工程、电子信息、数学等相关专业。2.3年以上AR/VR、图形引擎、嵌入式系统开发经验，有汽车HUD或车载显示系统项目经验优先。3.精通C++/TS，熟悉OpenGL/Vulkan/DirectX等图形API，有Unity/cocos引擎开发经验。4.掌握计算机视觉基础算法（如SLAM、图像配准、目标检测），熟悉OpenCV/PCL/XR等库。5.熟悉车载系统开发（QNX、LinuxRTOS），了解CAN/LIN通信协议及AutoSAR架构。6.具备性能优化经验（如多线程、内存管理、GPU加速），熟悉嵌入式平台资源约束下的开发。加分项1.熟悉自动驾驶感知系统（如高精地图、传感器融合）与ARHUD的交互逻辑。2.有裸眼3D显示算法（光场渲染、眼动追踪）或AR光学系统（如光波导）的软件开发经验。3.了解汽车功能安全标准（ISO2）及ASPICE开发流程。4.数学功底扎实（几何光学、矩阵变换、3D空间建模）。岗位职责：1.负责车机端（Android）3D渲染的设计与开发2.负责汽车座舱中3D渲染效果的关键技术攻关和实现工作3.负责Unity中3D渲染性能调优，功能优</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>山西恒辰和谷科技有限公司</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>91140500073095266K</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>山西恒辰和谷科技有限公司,成立日期:2013年07月23日,创建于晋城市,经营范围:一般项目：智能控制系统集成；软件开发；智能机器人销售；智能机器人的研发；轮胎销售；橡胶制品销售；建筑用钢筋产品销售；润滑油销售；电子产品销售；通讯设备销售；数字技术服务；物联网技术研发；物联网技术服务；物联网设备制造；物联网设备销售；通信设备制造；光通信设备销售；矿山机械销售；机械设备销售；机械设备研发；配电开关控制设备销售；机械电气设备销售；集成电路销售；信息技术咨询服务；通用设备修理；专用设备修理；信息系统运行维护服务；智能仪器仪表销售；智能仪器仪表制造。（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）,企业注册地址:山西省晋城市开发区金鼎路东、规划顺安街南（创新创业产业园5号厂房3层）;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>软件研发工程师</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>18000</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>10</v>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>1设计和实现基于Web的视频流传输、编解码、网络传输和播放等功能。1.1熟悉流媒体技术标准和协议，如RTMP、HLS、WebRTC等，设计和开发高效稳定的视频流传输系统。1.2负责视频编解码方案的研究和实现，优化视频压缩算法和编码参数，提升视频质量和传输效率。1.3开发流媒体服务器和客户端应用，保证视频流的可靠传输和无缝播放体验。2针对不同的平台和设备，开发和优化视频流相关的客户端和服务器端应用程序。2.1针对不同的操作系统和浏览器，进行移动端和PC端的视频流应用开发。2.2优化视频流应用在不同设备上的性能和兼容性，确保用户在各种终端上都能流畅地观看视频。2.3针对移动设备的网络环境和带宽限制，进行流量控制和自适应码率调整，提供良好的视频播放体验。3负责处理视频流中可能出现的延迟、丢帧和其他传输问题，并提供相应的解决方案。3.1优化视频流传输协议和网络传输机制，减少延迟和带宽占用。3.2设计并实现缓冲管理策略，解决视频流的延迟和丢帧问题。3.3针对弱网络环境和不稳定的传输，实现前向纠错和重试机制，提高视频流的可靠性和稳定性。4与团队合作，进行视频流相关的系统架构设计和技术选型。4.1参</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>1拥有丰富的Web开发经验，熟悉前端和后端开发技术。1.1熟练掌握HTML、CSS和JavaScript等前端技术，具备良好的用户界面设计和开发能力。1.2熟悉常用的后端开发框架和语言，如Java,Python,C++,Node.js等。2精通视频编解码、流媒体传输协议（如RTMP、RTP/RTSP、HLS、WebRTC等）和网络传输技术。2.1熟悉常见的视频编码标准（如H.4、H.5等）和音频编码标准（如AAC、Opus等）。2.2理解视频流传输的原理和机制，熟悉网络传输协议和调优技术。2.3精通WebAssembly技術優先。3熟悉流媒体服务器和播放器的原理和实现，有相关项目经验者优先考虑。3.1了解流媒体服务器的部署和管理，熟悉流媒体播放器的开发和集成。3.2掌握常用的流媒体技术和工具，如FFmpeg、HLS.js、VLC，GStreamer等。4具备高并发、高可用系统的设计经验。5熟悉视频AI模型训练、调优及评估方法。6熟悉热成像相关算法在煤矿行业上的应用。7有大型互联网公司或AI相关项目经验者优先。岗位福利：双休+五险+法定节假日+节日福利</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>北京盛通寰宇科技有限公司</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>91110101MAC1DF1G95</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>50万</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>技术总监</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
+        <v>107</v>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>一、核心职责1.技术战略与规划-制定并执行交易所的长期技术路线图，与CEO及高管团队协同，确保技术方向与业务目标一致。-评估新兴技术（如区块链、AI、低延迟架构、零知识证明）在交易场景的应用，保持技术 性。-管理技术预算，优化资源分配（如云服务、硬件投入、研发成本）。2.系统架构与核心平台-高性能交易系统：设计并维护高并发、低延迟（微秒级）的交易引擎，支持百万级TPS。-稳定性与灾备：实现多机房容灾、自动故障切换，保障7×小时不间断运行。-扩展性：支持用户量、交易量快速增长（如加密货币牛市时的流量激增）。3.安全与合规-网络安全：防御DDoS攻击、API滥用、内部渗透，定期进行渗透测试和代码审计。-资金安全：设计冷热钱包隔离、多重签名方案（针对加密货币交易所）。-合规技术：实现KYC/AML自动化、交易监控系统，满足全球监管要求（如SEC、FCA、MAS）。4.研发团队管理-组建并领导技术团队（开发、运维、安全、QA），建立高效研发流程（如DevOps、敏捷开发）。-招聘技术人才（尤其需要熟悉金融协议、分布式系统、量化算法的人才）。-制定技术团队考核标准，提升研发效率与创新能力。5.产</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>1.教育与经验-：计算机科学、金融工程或相关领域/优先。-经验：-10年以上技术研发经验，5年以上金融/交易所领域技术管理经验。-曾主导高并发交易系统、区块链节点或量化交易平台开发。-有全球化系统部署经验（如跨区域数据中心协作）者优先。2.技术能力-核心技术栈：-精通分布式系统、微服务架构、高性能数据库（如Kafka、Redis）。-熟悉金融协议（如FIX）、订单匹配算法、清算结算逻辑。-了解区块链技术（如共识机制、智能合约）及加密货币生态。-安全能力：熟悉网络安全、加密算法、防攻击策略。3.核心素质-领导力：能组建高效技术团队，协调跨部门协作。-商业思维：理解交易所盈利模式（如手续费、做市商激励）。-抗压能力：能在市场极端波动时保障系统稳定。4.有币核/ChainUP链上/mexc/OKK/币安/火币/gate/Kucoin/ ngx/ tget:by t等公司技术开发架构CEX开发背景优先。</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>北京谦合益邦云信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>外商投资企业</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>91110105MAD999ND57</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>129.907337万</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>通信技术工程师</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>硕士</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>25</v>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>1.底层算子设计与实现：深入理解NPU芯片底层架构，负责集合通信算子在芯片上的底层设计与开发，包括但不限于Send、Receive、Broadcast、Scatter、Gather、Reduce、AllReduce、AllGather、ReduceScatter、AllToAll等基本通信原语的实现，确保算子功能准确无误，满足高性能计算需求。2.通信原语优化：针对芯片特性，对通信原语进行性能优化。分析阻塞与非阻塞、同步与异步、可靠与不可靠等不同通信模式在NPU芯片上的表现，通过代码优化、资源调度等手段，提升通信原语的执行效率，降低延迟，提高数据传输带宽。3.算法适配与集成：研究并实现如Ring等集合通信算法，将其与开发的底层算子和通信原语进行有效集成。根据不同的应用场景和数据规模，选择优算法，保障集合通信在大规模数据处理和复杂计算任务中的高效运行。4.兼容性与调试：确保开发的集合通信底层功能与NPU芯片硬件、芯片指令集以及相关系统软件（如操作系统、编译器等）的兼容性。负责对开发过程中出现的问题进行调试，通过深入分析硬件日志、性能指标等，快速定位并解决问题，保障功能的稳定性和可靠性。</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>1.计算机科学、电子工程、集成电路等相关专业，及以上优先。熟悉C/C++，Python编程，具备扎实的编程基础和良好的代码规范；熟悉汇编语言者优先，能够进行底层代码的优化与调试。2.有深入的异构硬件平台开发经验，对NPU芯片架构有透彻理解，熟悉其运算单元、存储层次、通信链路等硬件组成部分；了解GPU等其他异构芯片架构者可作为加分项。3.深入理解集合通信概念，熟悉各种通信原语的原理和实现方式；掌握常见集合通信算法，如Ring、HD等的原理、优势及适用场景。4.熟练掌握性能分析工具和方法，能够准确识别性能瓶颈并进行针对性优化；拥有强大的debug能力，能够通过硬件调试工具、日志分析等多种手段，快速定位并解决底层开发过程中出现的复杂问题。5.具备良好的团队合作精神和沟通能力，能够与芯片设计、系统软件、应用开发等不同团队高效协作，共同推进项目进展。具备快速学习新知识和新技术的能力，能够迅速掌握并应用于实际工作中，应对不断变化的技术挑战。6.加分项：熟悉CUDA/ROCm编程,熟悉GPU/GPGPU/TPU/DPU/NPU等架构，熟悉NCCL和NCCL-Tests等通信库和工具，熟悉RMDA/R</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>上海鑫辰清智智能科技有限公司</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>91310104MADEDWCY67</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>557万</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>上海鑫辰清智智能科技有限公司,成立日期:2024年04月01日,创建于上海市,经营范围:一般项目：人工智能基础软件开发；人工智能应用软件开发；人工智能理论与算法软件开发；网络与信息安全软件开发；软件开发；智能机器人的研发；大数据服务；数据处理服务；数据处理和存储支持服务；互联网数据服务；人工智能公共数据平台；人工智能公共服务平台技术咨询服务；信息系统集成服务；人工智能双创服务平台；人工智能行业应用系统集成服务；人工智能通用应用系统；人工智能基础资源与技术平台；基于云平台的业务外包服务；软件外包服务；计算机软硬件及辅助设备零售；财务咨询；税务服务；企业形象策划；会议及展览服务。（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）,企业注册地址:上海市徐汇区虹漕路25-1号2楼;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>测试工程师</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>10年以上</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
+        <v>20</v>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>1.理解产品需求，独立搭建测试环境并保证其可靠性，具备全链路环境部署能力，包括微服务架构下的测试环境治理。2.设计测试计划、测试用例，根据产品原型与需求文档编写覆盖核心场景、边界场景、异常场景的测试用例，参与需求评审并提出可测试性建议。3.负责软件产品的功能测试、边界测试、性能测试、兼容性测试及自动化测试，针对复杂业务场景设计数据驱动、关键字驱动的自动化测试方案。4.主导前后端自动化测试体系建设，包括Web端（Selenium/Cypress）、移动端（Appium）、API接口（Post/RestAssured）的自动化框架设计与脚本开发，集成持续测试流水线（Jenkins/GitLabCI）。5.开发智能化测试工具平台，实现测试用例管理、测试数据生成、测试结果分析的自动化，提升回归测试效率%以上。6.深入实施白盒测试，针对核心模块进行代码级测试（单元测试/集成测试），运用Jacoco等工具实现测试覆盖率管控。7.建立性能基线模型，通过Jmeter/LoadRunner实施压力测试，使用ELK/Prometheus进行性能监控与瓶颈定位。</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>1.及以上，计算机相关专业，熟悉互联网产品研发流程与质量保障体系。2.6年以上测试开发经验，至少主导过金融、电商等复杂系统的质量保障项目，有从0到1构建自动化测试体系成功案例。3.精通测试设计方法论，熟练运用等价类划分、边界值分析、场景法等设计方法，能通过Axure/Figma原型反推测试场景。4.精通前后端分离架构测试技术：(1)前端：掌握浏览器调试、网络抓包、跨端兼容性测试方案，熟悉Vue/React技术栈常见问题模式(2)后端：精通RestfulAPI测试，具备微服务架构下的契约测试、流量回放测试经验5.至少精通以下两个技术领域：(1)自动化测试：主流通用框架（Pytest/TestNG）+专项工具（Appium/Selenium）二次开发能力(2)性能工程：具备全链路压测经验，熟悉JVM调优、SQL调优、分布式架构瓶颈分析方法(3)质量效能：熟悉精准测试、测试用例智能、质量门禁等前沿技术6.掌握DevOps技术栈，能基于Docker/K8s搭建测试环境，熟练编写JenkinsPipeline实现自动化测试流水线。7.具备测试左移右移实施经验，在需求评审阶段通过DDT（需求可测试</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>北京吾游互动科技有限公司</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>91110112MA006CFC6C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>100万</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>C/C++开发</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>10</v>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>1.内核研发与优化：?深入研究和理解Chrome浏览器的内核架构，包括V8引擎、Blink渲染引擎等。?负责浏览器内核的定制开发，根据产品需求进行功能扩展和优化。?对浏览器内核进行性能调优，提升加载速度、渲染效率和内存管理。2.功能开发与集成：?根据产品需求，设计并实现浏览器的新功能，如多标签页管理、隐私保护、扩展支持等。?与前端团队紧密合作，确保新功能与前端界面的无缝对接和良好用户体验。?参与浏览器跨平台特性的开发和优化，确保在不同操作系统和设备上的一致性表现。3.技术跟踪与调研：?跟踪Chrome浏览器的新技术动态和行业动态，提出创新性的技术解决方案。?参与相关技术方案的调研和选型，为浏览器的长期发展提供技术支持和战略建议。4.问题解决与团队协作：?解决在内核开发过程中遇到的技术难题，确保项目进度和质量。?编写技术文档和注释，提高代码的可读性和可维护性。?与团队成员紧密合作，共同推动项目的进展和完成，促进团队的技术成长和氛围建设。</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>1.教育背景：?计算机科学或相关专业及以上，具备扎实的计算机科学基础。2.专业技能：?精通C/C++语言开发，熟悉面向对象编程和常用数据结构。?熟悉Chrome浏览器的内核架构和关键技术，包括V8引擎、Blink渲染引擎等。?具备浏览器内核开发经验，熟悉多线程、多进程编程和内存管理。?对浏览器安全、隐私保护等方面有深入了解者优先。3.工作经验：?至少3年以上软件开发经验，其中至少1年以上Chrome浏览器内核开发经验。?有大型开源项目源码分析经验、浏览器性能优化经验者优先。4.其他要求?具有良好的沟通能力和团队合作精神，能够主动承担责任并推动项目的进展。?对技术有浓厚的兴趣，愿意不断探索和尝试新技术，持续学习和成长。?具备良好的问题解决能力和创新思维，能够独立思考并解决复杂的技术问题。职业发展：作为Chrome浏览器内核开发工程师，您将有机会接触到前沿的浏览器技术和行业动态。通过不断学习和实践，您将能够成长为浏览器开发领域的专家，并在职业发展上获得更多的机会和挑战。我们鼓励员工不断追求技术卓越和创新，为您提供广阔的职业发展空间和晋升机会。希望以上信息能够帮助您更好地了解Chrome浏览</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>重庆梧桐车联科技有限公司</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>91500000MAABQDLH5W</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>56055.879300万</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>C#开发</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>111</v>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>1.开发裸眼3DARHUD的实时渲染引擎与核心算法，包括虚实融合、动态视差补偿、3D光场生成等模块。2.设计并优化AR图形叠加算法（如车道线、导航箭头、障碍物标注），确保低延迟、高精度显示。3.实现SLAM（同步定位与建图）或视觉定位算法与HUD系统的集成，支持动态环境下的稳定AR投影。4.与光学/硬件团队协作，开发HUD校准算法（如畸变校正、亮度自适应）及多传感器数据融合逻辑。5.构建车载ARHUD软件架构，适配QNX/yocot等车载系统，满足功能安全与实时性要求。6.研究裸眼3D显示技术（如视差屏障、多层全息）的软件驱动方案，优化人眼追踪与多焦面渲染性能。7.支持HUD与自动驾驶系统（ADAS）的交互设计，实现与摄像头、毫米波雷达的数据联动。</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>1.及以上，计算机科学、软件工程、电子信息、数学等相关专业。2.3年以上AR/VR、图形引擎、嵌入式系统开发经验，有汽车HUD或车载显示系统项目经验优先。3.精通C++/TS，熟悉OpenGL/Vulkan/DirectX等图形API，有Unity/cocos引擎开发经验。4.掌握计算机视觉基础算法（如SLAM、图像配准、目标检测），熟悉OpenCV/PCL/XR等库。5.熟悉车载系统开发（QNX、LinuxRTOS），了解CAN/LIN通信协议及AutoSAR架构。6.具备性能优化经验（如多线程、内存管理、GPU加速），熟悉嵌入式平台资源约束下的开发。加分项1.熟悉自动驾驶感知系统（如高精地图、传感器融合）与ARHUD的交互逻辑。2.有裸眼3D显示算法（光场渲染、眼动追踪）或AR光学系统（如光波导）的软件开发经验。3.了解汽车功能安全标准（ISO2）及ASPICE开发流程。4.数学功底扎实（几何光学、矩阵变换、3D空间建模）。岗位职责：1.负责车机端（Android）3D渲染的设计与开发2.负责汽车座舱中3D渲染效果的关键技术攻关和实现工作3.负责Unity中3D渲染性能调优，功能优</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>万博智云信息科技（上海）有限公司</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>91310117MA1J3E1743</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3000万</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>万博智云信息科技（上海）有限公司,成立日期:2019年03月08日,创建于上海市,经营范围:从事信息科技、计算机、软件及辅助设备技术领域内的技术开发、技术转让、技术咨询、技术服务，电信业务，软件开发、销售，计算机系统集成，网络工程，计算机、软件及辅助设备、电子产品的销售，从事货物进出口及技术进出口业务。 【依法须经批准的项目，经相关部门批准后方可开展经营活动】,企业注册地址:上海市松江区新桥镇新效路218号;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>C/C++开发</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>我们正在寻找一名经验丰富的工程师，负责开发和优化基于Linux内核的模块，用于实现高效的块级数据备份与恢复功能。您将参与定制化的备份工具开发，支持多种文件系统（包括但不限于Btrfs）以及相关的用户态工具。该职位还需要使用Python开发自动化脚本和管理工具，整合为全面的备份与灾难恢复解决方案。</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>必备技能:1.内核模块与系统开发：-至少3年Linux内核开发经验，熟悉内核模块设计与块设备驱动开发。-深入了解块设备的快照原理及其在增量备份中的应用，包括`copy-on-write(COW)`、` tmaptracking`、`block-leveldeduplication`等技术。-熟悉`DeviceMapper`框架，了解其在构建虚拟块设备中的应用。-具备基于`kernelblockI/O`层（如` o`结构）开发和优化的实际经验。-了解块设备上的元数据管理、日志写入（journaledwrites）、以及差异数据捕获（differentialbackup）的内核实现。2.文件系统开发经验（或强烈兴趣）：-熟悉主流文件系统（如ext4、XFS）的架构和机制。-针对Btrfs文件系统，有兴趣研究其特性（如快照、子卷、压缩和数据校验）并设计定制化解决方案。3.用户态工具开发：-能够开发与内核模块交互的用户态工具，支持高效数据传输和备份管理。-熟悉快照、块级增量备份等工具链的设计和实现。4.Python编程能力：-熟练使用Python开发自动化工具和脚本，尤其是在系统任务调度和日志</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>北京盛通寰宇科技有限公司</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>91110101MAC1DF1G95</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>50万</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>技术总监</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>107</v>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>一、核心职责1.技术战略与规划-制定并执行交易所的长期技术路线图，与CEO及高管团队协同，确保技术方向与业务目标一致。-评估新兴技术（如区块链、AI、低延迟架构、零知识证明）在交易场景的应用，保持技术 性。-管理技术预算，优化资源分配（如云服务、硬件投入、研发成本）。2.系统架构与核心平台-高性能交易系统：设计并维护高并发、低延迟（微秒级）的交易引擎，支持百万级TPS。-稳定性与灾备：实现多机房容灾、自动故障切换，保障7×小时不间断运行。-扩展性：支持用户量、交易量快速增长（如加密货币牛市时的流量激增）。3.安全与合规-网络安全：防御DDoS攻击、API滥用、内部渗透，定期进行渗透测试和代码审计。-资金安全：设计冷热钱包隔离、多重签名方案（针对加密货币交易所）。-合规技术：实现KYC/AML自动化、交易监控系统，满足全球监管要求（如SEC、FCA、MAS）。4.研发团队管理-组建并领导技术团队（开发、运维、安全、QA），建立高效研发流程（如DevOps、敏捷开发）。-招聘技术人才（尤其需要熟悉金融协议、分布式系统、量化算法的人才）。-制定技术团队考核标准，提升研发效率与创新能力。5.产</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>1.教育与经验-：计算机科学、金融工程或相关领域/优先。-经验：-10年以上技术研发经验，5年以上金融/交易所领域技术管理经验。-曾主导高并发交易系统、区块链节点或量化交易平台开发。-有全球化系统部署经验（如跨区域数据中心协作）者优先。2.技术能力-核心技术栈：-精通分布式系统、微服务架构、高性能数据库（如Kafka、Redis）。-熟悉金融协议（如FIX）、订单匹配算法、清算结算逻辑。-了解区块链技术（如共识机制、智能合约）及加密货币生态。-安全能力：熟悉网络安全、加密算法、防攻击策略。3.核心素质-领导力：能组建高效技术团队，协调跨部门协作。-商业思维：理解交易所盈利模式（如手续费、做市商激励）。-抗压能力：能在市场极端波动时保障系统稳定。4.有币核/ChainUP链上/mexc/OKK/币安/火币/gate/Kucoin/ ngx/ tget:by t等公司技术开发架构CEX开发背景优先。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>北京星火明智科技有限公司</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>91110111MADL9YQ743</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>赵国伟</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>济南-天桥-无影山北路 济南天桥无影山北路69号济南天桥无影山北路69号</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>济南同济中西医结合医院是济南市中医管理局直属二级甲等医院，是居民和职工医保 机构。以中西医结合*风湿免疫病为专科特色，同时开设中医科、内科、儿科、皮肤科、肿瘤科、口腔科等科室，具有60张病床；集科研、预防、*、康复为一体。以互联网为载体，服务广大患者，用大数据来驱动，提升诊疗水平。设施先进，环境优美，是极具个性化服务特色的互联网风湿病专科医院。济南同济中西医结合医院技术力量雄厚，拥有十多位临床经验丰富、专业技术突出的医疗专家，在我院任职的医师副高及正高职称人员占医师总数的一半以上。 更是邀请众多来自北京协和医院、解放军北方战区总医院、山东省立医院、山东中医药大学附属医院等省、市著名的中、西医专家、教授、博士生导师、博士长期坐诊、会诊。同时医院斥巨资引进了一大批高、精、尖的医疗设备及器械。坚持“大专科、小综合”的办院方针，采用中西医结合、以人为本的精准个性化服务；以实力雄厚的专家队伍和专科技术，为全国广大患者诊治各类疑难病、慢性病。 济南同济中西医结合医院制剂室创建于2000年，现有80多个经山东省食品药品监督管理局批准的制剂号，其中有10多个中药制剂品种已经纳入医疗保险目录、医保报销范</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>https://pic7.58cdn.com.cn/enterprise/appearance/big/n_v1bkuymcyjftdfpbdgh47q.jpg||https://pic3.58cdn.com.cn/enterprise/appearance/big/n_v1bl2lwtilftdfo3oy34bq.jpg||https://pic4.58cdn.com.cn/enterprise/appearance/big/n_v1bj3gzrymftdfp25lsucq.jpg||https://pic2.58cdn.com.cn/enterprise/appearance/big/n_v1bkujjdynftdfo3vod4xq.jpg||https://pic7.58cdn.com.cn/enterprise/appearance/big/n_v1bkuymcyoftdfpt5srrsq.jpg||https://pic4.58cdn.com.cn/enterprise/appearance/big/n_v1bl2lwkiqftdfpclsxv4a.jpg||https://pic6.58cdn.com.cn/enterprise/appearance/big/n_v1bl2lwxqsftdfpkrxrmya.jpg||https://pic4.58cdn.com.cn/enterprise/appearance/big/n_v1bkuyfvivftdfoy7pbycq.jpg</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>技术总监</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>10年以上</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>25</v>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>一、技术战略与架构设计1.规划审计/内控/合规领域的技术体系，设计基于SpringCloud微服务架构，支撑多产品线协同开发（需兼容国产化数据库/中间件）。2.制定AI技术融合路线，推动大模型（LLM）、RPA、OCR等技术与系统的深度集成。3.建立技术安全体系，满足等保三级、数据脱敏、审计留痕等合规要求。二、团队管理1.统管后端/前端/数据/测试团队，建立标准化研发流程。2.把控核心模块开发质量，主导关键模块编码。3.制定技术人才成长路径，提升团队工程能力。三、技术架构与创新1.设计并优化微服务架构，主导分布式系统、数据治理及AI应用的技术方案。2.突破监督领域技术难点，包括多源异构数据治理、国产化替代技术方案等。3.构建开发者赋能体系，搭建企业级技术中台，设计开发标准化组件库等。四、业务协同与交付保障1.深度参与售前阶段，输出技术解决方案（POC演示/架构设计图/TCO估算）。2.建立研发效能监测体系（需求吞吐率/缺陷密度/部署频率），确保产品交付SLA 98%。3.主导技术债务治理，实现代码健康度可视化（技术债务占比＜%）。</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>一、技术能力1.计算机相关专业及以上，10年以上开发经验，5年以上微服务架构设计经验，3年以上技术管理经验。2.精通高并发场景技术方案（如审计数据实时采集集群优化），有TB级数据处理实战经验。3.持有TOGAF/PMP，熟悉C I3/5级流程标准。4.熟悉数据治理方法论，掌握SQL调优、ETL工具及BI平台，能结合行业数据特性设计模型输入输出。5.熟悉大模型技术原理及应用场景。二、架构能力1.设计符合国央企客户要求的四层架构图（接入层/服务层/数据层/基础设施层）。2.设计审计领域典型系统，满足智能风险预警系统（规则引擎+实时计算）；多租户SaaS化审计平台（数据隔离方案）；审计证据链管理系统等。三、综合素养1.熟悉审计准则（如COSO框架）、财税法规等业务逻辑，能快速识别监督业务痛点。2.超强适应力，强成本控制意识，擅长技术选型性价比评估。3.对技术前沿敏感，持续关注微服务、AIGC等领域动态，具备创新意识与快速学习能力。四、加分项1.有审计软件、财税系统等审计、风控行业技术负责人经验。2.主导过AI在监督领域的落地项目。3.持有PMP、系统架构师等。4.熟悉云原生技术及AI框架，国</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>北京新质向阳科技有限公司</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>91110108MABX56C82X</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>北京新质向阳科技有限公司,成立日期:2022年08月16日,创建于北京市,经营范围:一般项目：技术服务、技术开发、技术咨询、技术交流、技术转让、技术推广；计算机系统服务；软件外包服务；软件销售；计算机软硬件及辅助设备批发；计算机软硬件及辅助设备零售；软件开发；信息技术咨询服务；信息系统集成服务；广告设计、代理；广告制作；人工智能应用软件开发；工业互联网数据服务；数据处理和存储支持服务；物联网设备制造；物联网设备销售；物联网应用服务；物联网技术研发；物联网技术服务；计算机软硬件及外围设备制造；云计算设备制造；云计算设备销售；云计算装备技术服务。（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）许可项目：互联网信息服务。（依法须经批准的项目，经相关部门批准后方可开展经营活动，具体经营项目以相关部门批准文件或许可证件为准）（不得从事国家和本市产业政策禁止和限制类项目的经营活动。）,企业注册地址:北京市门头沟区莲石湖西路98号院13号楼2层204;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>测试工程师</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>44</v>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>1.负责前端React/Next.js应用和后端FlaskAPI的完整测试工作2.参与需求分析和测试方案设计3.设计与执行前后端测试用例，包括UI功能测试和API接口测试4.进行集成测试、端到端测试和回归测试5.规划和实施自动化测试方案6.建立并维护测试文档和测试规范7.负责缺陷跟踪和质量分析报告</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>必备技能1.及以上，计算机相关专业优先2.三年以上Web应用测试经验，具备前后端测试能力3.扎实的软件测试理论基础，熟悉各类测试方法和策略前端测试技能1.熟悉React/Next.js应用测试，掌握前端测试框架（如Jest、ReactTestingLibrary）2.熟练使用前端自动化测试工具3.熟悉前端性能测试和兼容性测试4.了解前端组件化测试方法后端测试技能1.熟悉PythonFlask框架的测试方法2.精通RESTfulAPI测试，熟练使用Post、curl等工具3.了解数据库操作测试和SQL测试4.熟悉接口性能测试（如使用JMeter、Locust等）技术要求1.具备基础的Python和JavaScript编程能力2.熟练使用测试管理工具（如JIRA、TestRail）3.熟悉Git版本控制4.了解Docker容器化环境下的测试方法5.掌握常用测试自动化框架6.熟悉CI/CD流程中的测试环节加分项1.有自动化测试框架开发经验2.熟悉BDD/TDD测试开发方法3.有AI应用测试经验4.了解安全测试和渗透测试5.有性能测试和压力测试经验6.熟悉敏捷开发流程软技能要求1.强烈的质量意</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>北京谦合益邦云信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>外商投资企业</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>91110105MAD999ND57</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>129.907337万</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>通信技术工程师</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>硕士</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>25</v>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>1.底层算子设计与实现：深入理解NPU芯片底层架构，负责集合通信算子在芯片上的底层设计与开发，包括但不限于Send、Receive、Broadcast、Scatter、Gather、Reduce、AllReduce、AllGather、ReduceScatter、AllToAll等基本通信原语的实现，确保算子功能准确无误，满足高性能计算需求。2.通信原语优化：针对芯片特性，对通信原语进行性能优化。分析阻塞与非阻塞、同步与异步、可靠与不可靠等不同通信模式在NPU芯片上的表现，通过代码优化、资源调度等手段，提升通信原语的执行效率，降低延迟，提高数据传输带宽。3.算法适配与集成：研究并实现如Ring等集合通信算法，将其与开发的底层算子和通信原语进行有效集成。根据不同的应用场景和数据规模，选择优算法，保障集合通信在大规模数据处理和复杂计算任务中的高效运行。4.兼容性与调试：确保开发的集合通信底层功能与NPU芯片硬件、芯片指令集以及相关系统软件（如操作系统、编译器等）的兼容性。负责对开发过程中出现的问题进行调试，通过深入分析硬件日志、性能指标等，快速定位并解决问题，保障功能的稳定性和可靠性。</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>1.计算机科学、电子工程、集成电路等相关专业，及以上优先。熟悉C/C++，Python编程，具备扎实的编程基础和良好的代码规范；熟悉汇编语言者优先，能够进行底层代码的优化与调试。2.有深入的异构硬件平台开发经验，对NPU芯片架构有透彻理解，熟悉其运算单元、存储层次、通信链路等硬件组成部分；了解GPU等其他异构芯片架构者可作为加分项。3.深入理解集合通信概念，熟悉各种通信原语的原理和实现方式；掌握常见集合通信算法，如Ring、HD等的原理、优势及适用场景。4.熟练掌握性能分析工具和方法，能够准确识别性能瓶颈并进行针对性优化；拥有强大的debug能力，能够通过硬件调试工具、日志分析等多种手段，快速定位并解决底层开发过程中出现的复杂问题。5.具备良好的团队合作精神和沟通能力，能够与芯片设计、系统软件、应用开发等不同团队高效协作，共同推进项目进展。具备快速学习新知识和新技术的能力，能够迅速掌握并应用于实际工作中，应对不断变化的技术挑战。6.加分项：熟悉CUDA/ROCm编程,熟悉GPU/GPGPU/TPU/DPU/NPU等架构，熟悉NCCL和NCCL-Tests等通信库和工具，熟悉RMDA/R</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>上海鑫辰清智智能科技有限公司</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>91310104MADEDWCY67</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>557万</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>上海鑫辰清智智能科技有限公司,成立日期:2024年04月01日,创建于上海市,经营范围:一般项目：人工智能基础软件开发；人工智能应用软件开发；人工智能理论与算法软件开发；网络与信息安全软件开发；软件开发；智能机器人的研发；大数据服务；数据处理服务；数据处理和存储支持服务；互联网数据服务；人工智能公共数据平台；人工智能公共服务平台技术咨询服务；信息系统集成服务；人工智能双创服务平台；人工智能行业应用系统集成服务；人工智能通用应用系统；人工智能基础资源与技术平台；基于云平台的业务外包服务；软件外包服务；计算机软硬件及辅助设备零售；财务咨询；税务服务；企业形象策划；会议及展览服务。（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）,企业注册地址:上海市徐汇区虹漕路25-1号2楼;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>测试工程师</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>10年以上</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>20</v>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>1.理解产品需求，独立搭建测试环境并保证其可靠性，具备全链路环境部署能力，包括微服务架构下的测试环境治理。2.设计测试计划、测试用例，根据产品原型与需求文档编写覆盖核心场景、边界场景、异常场景的测试用例，参与需求评审并提出可测试性建议。3.负责软件产品的功能测试、边界测试、性能测试、兼容性测试及自动化测试，针对复杂业务场景设计数据驱动、关键字驱动的自动化测试方案。4.主导前后端自动化测试体系建设，包括Web端（Selenium/Cypress）、移动端（Appium）、API接口（Post/RestAssured）的自动化框架设计与脚本开发，集成持续测试流水线（Jenkins/GitLabCI）。5.开发智能化测试工具平台，实现测试用例管理、测试数据生成、测试结果分析的自动化，提升回归测试效率%以上。6.深入实施白盒测试，针对核心模块进行代码级测试（单元测试/集成测试），运用Jacoco等工具实现测试覆盖率管控。7.建立性能基线模型，通过Jmeter/LoadRunner实施压力测试，使用ELK/Prometheus进行性能监控与瓶颈定位。</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>1.及以上，计算机相关专业，熟悉互联网产品研发流程与质量保障体系。2.6年以上测试开发经验，至少主导过金融、电商等复杂系统的质量保障项目，有从0到1构建自动化测试体系成功案例。3.精通测试设计方法论，熟练运用等价类划分、边界值分析、场景法等设计方法，能通过Axure/Figma原型反推测试场景。4.精通前后端分离架构测试技术：(1)前端：掌握浏览器调试、网络抓包、跨端兼容性测试方案，熟悉Vue/React技术栈常见问题模式(2)后端：精通RestfulAPI测试，具备微服务架构下的契约测试、流量回放测试经验5.至少精通以下两个技术领域：(1)自动化测试：主流通用框架（Pytest/TestNG）+专项工具（Appium/Selenium）二次开发能力(2)性能工程：具备全链路压测经验，熟悉JVM调优、SQL调优、分布式架构瓶颈分析方法(3)质量效能：熟悉精准测试、测试用例智能、质量门禁等前沿技术6.掌握DevOps技术栈，能基于Docker/K8s搭建测试环境，熟练编写JenkinsPipeline实现自动化测试流水线。7.具备测试左移右移实施经验，在需求评审阶段通过DDT（需求可测试</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>万店盈利（海南）科技咨询有限公司</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>91460000MA5TYK010Y</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>数据分析师</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>10000</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>1年以下</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>1.负责公司业务相关数据库结构（维度、指标）的维护与优化，确保数据体系清晰、稳定、可扩展。2.使用Python及相关库进行数据清洗、整理、加工与抽取，支持上层的数据分析与建模工作。3.参与搭建与维护各类自动化数据爬取脚本，包括公开数据源、行业平台及竞争对手信息等，定期产出原始数据集。4.基于业务需求，进行基础的数据分析、可视化工作，为业务提供数据支持与决策建议。5.参与公司在大语言模型（LLM）相关方向的探索与试验，协助构建“数据+智能体”场景，包括prompt设计、数据结构适配等工作。</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>1.熟练掌握Python编程语言，掌握主流数据处理库（如Pandas、Numpy、Requests、BeautifulSoup、Selenium等）；2.熟悉基本的数据库结构设计与操作（如MySQL/PostgreSQL/SQLite等），能编写高效的SQL；3.具备一定数据分析、数据挖掘或建模能力，对探索数据背后的价值有浓厚兴趣；4.对大语言模型（如ChatGPT、Claude、文心一言等）保持好奇与关注，乐于尝试其在数据处理和交互中的创新应用；5.有良好的自驱力与学习能力，能够从模糊问题中抽象结构，主动推进项目进展；6.有相关项目经验（如爬虫脚本、ETL管道、分析报告或LLM应用）者优先。加分项： 有使用LangChain、LlamaIndex、ChatGPTAPI等工具进行智能体或问答系统搭建经验； 熟悉大模型RAG框架、嵌入向量、PromptEngineering等技术； 有GitHub项目或技术博客可供展示。我们提供： 扁平化的团队氛围，自由探索空间； 覆盖数据到AI全链条的项目机会； 有竞争力的薪酬体系； 鼓励学习与试错的成长环境。公司介绍：  万店盈利」专注专注咨询行业十</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>万博智云信息科技（上海）有限公司</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>91310117MA1J3E1743</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>3000万</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>万博智云信息科技（上海）有限公司,成立日期:2019年03月08日,创建于上海市,经营范围:从事信息科技、计算机、软件及辅助设备技术领域内的技术开发、技术转让、技术咨询、技术服务，电信业务，软件开发、销售，计算机系统集成，网络工程，计算机、软件及辅助设备、电子产品的销售，从事货物进出口及技术进出口业务。 【依法须经批准的项目，经相关部门批准后方可开展经营活动】,企业注册地址:上海市松江区新桥镇新效路218号;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>C/C++开发</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>我们正在寻找一名经验丰富的工程师，负责开发和优化基于Linux内核的模块，用于实现高效的块级数据备份与恢复功能。您将参与定制化的备份工具开发，支持多种文件系统（包括但不限于Btrfs）以及相关的用户态工具。该职位还需要使用Python开发自动化脚本和管理工具，整合为全面的备份与灾难恢复解决方案。</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>必备技能:1.内核模块与系统开发：-至少3年Linux内核开发经验，熟悉内核模块设计与块设备驱动开发。-深入了解块设备的快照原理及其在增量备份中的应用，包括`copy-on-write(COW)`、` tmaptracking`、`block-leveldeduplication`等技术。-熟悉`DeviceMapper`框架，了解其在构建虚拟块设备中的应用。-具备基于`kernelblockI/O`层（如` o`结构）开发和优化的实际经验。-了解块设备上的元数据管理、日志写入（journaledwrites）、以及差异数据捕获（differentialbackup）的内核实现。2.文件系统开发经验（或强烈兴趣）：-熟悉主流文件系统（如ext4、XFS）的架构和机制。-针对Btrfs文件系统，有兴趣研究其特性（如快照、子卷、压缩和数据校验）并设计定制化解决方案。3.用户态工具开发：-能够开发与内核模块交互的用户态工具，支持高效数据传输和备份管理。-熟悉快照、块级增量备份等工具链的设计和实现。4.Python编程能力：-熟练使用Python开发自动化工具和脚本，尤其是在系统任务调度和日志</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>北京新质向阳科技有限公司</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>91110108MABX56C82X</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>北京新质向阳科技有限公司,成立日期:2022年08月16日,创建于北京市,经营范围:一般项目：技术服务、技术开发、技术咨询、技术交流、技术转让、技术推广；计算机系统服务；软件外包服务；软件销售；计算机软硬件及辅助设备批发；计算机软硬件及辅助设备零售；软件开发；信息技术咨询服务；信息系统集成服务；广告设计、代理；广告制作；人工智能应用软件开发；工业互联网数据服务；数据处理和存储支持服务；物联网设备制造；物联网设备销售；物联网应用服务；物联网技术研发；物联网技术服务；计算机软硬件及外围设备制造；云计算设备制造；云计算设备销售；云计算装备技术服务。（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）许可项目：互联网信息服务。（依法须经批准的项目，经相关部门批准后方可开展经营活动，具体经营项目以相关部门批准文件或许可证件为准）（不得从事国家和本市产业政策禁止和限制类项目的经营活动。）,企业注册地址:北京市门头沟区莲石湖西路98号院13号楼2层204;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>测试工程师</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>44</v>
+      </c>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>1.负责前端React/Next.js应用和后端FlaskAPI的完整测试工作2.参与需求分析和测试方案设计3.设计与执行前后端测试用例，包括UI功能测试和API接口测试4.进行集成测试、端到端测试和回归测试5.规划和实施自动化测试方案6.建立并维护测试文档和测试规范7.负责缺陷跟踪和质量分析报告</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>必备技能1.及以上，计算机相关专业优先2.三年以上Web应用测试经验，具备前后端测试能力3.扎实的软件测试理论基础，熟悉各类测试方法和策略前端测试技能1.熟悉React/Next.js应用测试，掌握前端测试框架（如Jest、ReactTestingLibrary）2.熟练使用前端自动化测试工具3.熟悉前端性能测试和兼容性测试4.了解前端组件化测试方法后端测试技能1.熟悉PythonFlask框架的测试方法2.精通RESTfulAPI测试，熟练使用Post、curl等工具3.了解数据库操作测试和SQL测试4.熟悉接口性能测试（如使用JMeter、Locust等）技术要求1.具备基础的Python和JavaScript编程能力2.熟练使用测试管理工具（如JIRA、TestRail）3.熟悉Git版本控制4.了解Docker容器化环境下的测试方法5.掌握常用测试自动化框架6.熟悉CI/CD流程中的测试环节加分项1.有自动化测试框架开发经验2.熟悉BDD/TDD测试开发方法3.有AI应用测试经验4.了解安全测试和渗透测试5.有性能测试和压力测试经验6.熟悉敏捷开发流程软技能要求1.强烈的质量意</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>沈阳锐力佳合科技有限公司</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>91210100MA0XKDQC5D</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>200万</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>运维工程师</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>23000</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>10</v>
+      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>（1）系统日常运维与优化：负责后端系统的日常运维，确保服务器、数据库及应用服务的稳定运行。监控系统性能，分析并优化操作系统（Linux）参数，提升系统整体性能。规划并实施系统备份、容灾方案，确保数据安全性和业务连续性。应用服务部署与维护（2）负责Docker容器化部署与Kubernetes（K8s）集群管理，优化集群资源使用。参与CI/CD流程建设，自动化应用部署，提高发布效率和可靠性。维护Nginx等Web服务器，优化负载均衡，提高系统吞吐量。（3）数据库管理与优化：负责MySQL、PostgreSQL、Redis等数据库的管理、优化及故障处理。进行数据库备份、恢复及迁移，优化SQL查询，提升数据库读写性能。监控数据库运行状态，分析慢查询日志，进行索引优化和数据库调优。（4）网络运维与安全管理：优化网络流量，确保低延迟、高可用性。处理网络故障，分析流量异常，防范网络攻击和数据泄露。配置防火墙、安全策略，定期进行安全加固，确保系统安全性。大规模数据流转与优化（5）负责大规模数据传输和流转方案设计，优化数据处理管道。监控数据流转状态，优化数据同步机制，确保数据稳定性。处理数据流转过程中的</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>1、工作经验：至少5年以上后端运维工作经验，有大型项目运维经验者优先。2、专业技能（1）精通MySQL、PostgreSQL和Redis数据库，熟悉数据库原理和性能优化技巧，能够独立处理复杂的数据库故障。（2）熟练掌握Linux操作系统，具备丰富的系统管理和维护经验，能够进行系统性能调优。（3）熟悉网络原理和网络架构，掌握常见网络设备的配置和管理，能够快速处理网络故障和安全问题。（4）具备大型数据传输和流转的经验，能够设计和优化高效的数据传输方案，确保数据的稳定流转。（5）有应用服务运维经验，能够快速定位和解决应用服务中的问题，保障服务的稳定运行。（6）熟练使用Docker进行应用的容器化部署和管理，深入理解容器技术原理。（7）精通Kubernetes（K8s）进行容器编排和集群管理，能够处理K8s集群中的各种问题。（8）熟悉国产或x86服务器等相关硬件设备的维护和管理，能够独立完成硬件故障排查和维修。（9）熟练运用Python语言和Shell脚本进行自动化运维开发，能够编写实用的运维工具和脚本。3、职业素养（1）具备高度的责任心和敬业精神，能够及时响应和处理运维问题，确保业务的正常运</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>北京星火明智科技有限公司</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>91110111MADL9YQ743</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>赵国伟</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>济南-天桥-无影山北路 济南天桥无影山北路69号济南天桥无影山北路69号</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>济南同济中西医结合医院是济南市中医管理局直属二级甲等医院，是居民和职工医保 机构。以中西医结合*风湿免疫病为专科特色，同时开设中医科、内科、儿科、皮肤科、肿瘤科、口腔科等科室，具有60张病床；集科研、预防、*、康复为一体。以互联网为载体，服务广大患者，用大数据来驱动，提升诊疗水平。设施先进，环境优美，是极具个性化服务特色的互联网风湿病专科医院。济南同济中西医结合医院技术力量雄厚，拥有十多位临床经验丰富、专业技术突出的医疗专家，在我院任职的医师副高及正高职称人员占医师总数的一半以上。 更是邀请众多来自北京协和医院、解放军北方战区总医院、山东省立医院、山东中医药大学附属医院等省、市著名的中、西医专家、教授、博士生导师、博士长期坐诊、会诊。同时医院斥巨资引进了一大批高、精、尖的医疗设备及器械。坚持“大专科、小综合”的办院方针，采用中西医结合、以人为本的精准个性化服务；以实力雄厚的专家队伍和专科技术，为全国广大患者诊治各类疑难病、慢性病。 济南同济中西医结合医院制剂室创建于2000年，现有80多个经山东省食品药品监督管理局批准的制剂号，其中有10多个中药制剂品种已经纳入医疗保险目录、医保报销范</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>https://pic7.58cdn.com.cn/enterprise/appearance/big/n_v1bkuymcyjftdfpbdgh47q.jpg||https://pic3.58cdn.com.cn/enterprise/appearance/big/n_v1bl2lwtilftdfo3oy34bq.jpg||https://pic4.58cdn.com.cn/enterprise/appearance/big/n_v1bj3gzrymftdfp25lsucq.jpg||https://pic2.58cdn.com.cn/enterprise/appearance/big/n_v1bkujjdynftdfo3vod4xq.jpg||https://pic7.58cdn.com.cn/enterprise/appearance/big/n_v1bkuymcyoftdfpt5srrsq.jpg||https://pic4.58cdn.com.cn/enterprise/appearance/big/n_v1bl2lwkiqftdfpclsxv4a.jpg||https://pic6.58cdn.com.cn/enterprise/appearance/big/n_v1bl2lwxqsftdfpkrxrmya.jpg||https://pic4.58cdn.com.cn/enterprise/appearance/big/n_v1bkuyfvivftdfoy7pbycq.jpg</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>技术总监</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>10年以上</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>25</v>
+      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>一、技术战略与架构设计1.规划审计/内控/合规领域的技术体系，设计基于SpringCloud微服务架构，支撑多产品线协同开发（需兼容国产化数据库/中间件）。2.制定AI技术融合路线，推动大模型（LLM）、RPA、OCR等技术与系统的深度集成。3.建立技术安全体系，满足等保三级、数据脱敏、审计留痕等合规要求。二、团队管理1.统管后端/前端/数据/测试团队，建立标准化研发流程。2.把控核心模块开发质量，主导关键模块编码。3.制定技术人才成长路径，提升团队工程能力。三、技术架构与创新1.设计并优化微服务架构，主导分布式系统、数据治理及AI应用的技术方案。2.突破监督领域技术难点，包括多源异构数据治理、国产化替代技术方案等。3.构建开发者赋能体系，搭建企业级技术中台，设计开发标准化组件库等。四、业务协同与交付保障1.深度参与售前阶段，输出技术解决方案（POC演示/架构设计图/TCO估算）。2.建立研发效能监测体系（需求吞吐率/缺陷密度/部署频率），确保产品交付SLA 98%。3.主导技术债务治理，实现代码健康度可视化（技术债务占比＜%）。</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>一、技术能力1.计算机相关专业及以上，10年以上开发经验，5年以上微服务架构设计经验，3年以上技术管理经验。2.精通高并发场景技术方案（如审计数据实时采集集群优化），有TB级数据处理实战经验。3.持有TOGAF/PMP，熟悉C I3/5级流程标准。4.熟悉数据治理方法论，掌握SQL调优、ETL工具及BI平台，能结合行业数据特性设计模型输入输出。5.熟悉大模型技术原理及应用场景。二、架构能力1.设计符合国央企客户要求的四层架构图（接入层/服务层/数据层/基础设施层）。2.设计审计领域典型系统，满足智能风险预警系统（规则引擎+实时计算）；多租户SaaS化审计平台（数据隔离方案）；审计证据链管理系统等。三、综合素养1.熟悉审计准则（如COSO框架）、财税法规等业务逻辑，能快速识别监督业务痛点。2.超强适应力，强成本控制意识，擅长技术选型性价比评估。3.对技术前沿敏感，持续关注微服务、AIGC等领域动态，具备创新意识与快速学习能力。四、加分项1.有审计软件、财税系统等审计、风控行业技术负责人经验。2.主导过AI在监督领域的落地项目。3.持有PMP、系统架构师等。4.熟悉云原生技术及AI框架，国</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>北京华宏信达科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>CTO/首席技术官</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>30000</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>18</v>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>1、建立和完善研发管理体系，全面负责研发项目（侧重于产品研发项目）和研发部团队的管理。2、负责产品和技术的预备研究和项目实施方案，组织相关部门和人员根据流程进行各阶段的评审和评估。3、负责所研发产品的标准化文件拟定及检定。4、负责企业业务流程的分析、优化，分析制定项目的业务功能需求。5、根据产品和项目需求，分析、设计与实现系统架构方案，保障系统架构的合理性、可扩展性及易用性。6、负责产品架构分析，提出软硬件架构整体设计，数据库存储设计方案，培训指导其他工程师的设计工作。7、对相关产品系统架构方案进行评审及改进，控制产品系统架构质量。8、负责核心技术问题的攻关，系统优化；协助解决项目开发过程中的技术难题。9、制定开发规范，参与制定技术标准，编写相应的技术文档，并对通用技术进行整理，提术复用。10、协助产品经理制定产品研发计划和控制项目研发进度。11、对系统的重用、扩展、安全、性能、伸缩性、简洁等做系统级的把握。12、对系统框架相关技术和业务进行培训，指导开发人员开发。并解决系统开发、运行中出现的各种问题。13、参与项目的需求调研，充分了解需求，合理设计系统架构，配合销售进行项目售前支持工</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>1.;统招，计算机相关专业，以上优先。2.;十年以上的工作经验，五年以上的企业应用产品分析、设计和开发经验，五年以上的企业业务需求分析和项目实施经验。3.;具有较丰富的团队管理经验，至少四年领导十五人以上的技术团队的经历。4.;具有丰富的ERP、MES、OA等方面企业应用的研发和项目实施经验，至少成功研发三个中等规模以上的企业应用软件系统，并且至少成功实施过三个以上的大中型企业应用项目。5.;精通企业应用软件系统的分析设计和建模，精通数据库设计。6.;精通J2EE技术和常用框架、工具，如SSH、eclipse、Extjs等。7.;精通项目管理的理论、方法，具有丰富的IT项目管理经验。8.;有很强的学习能力，良好的人际交往和沟通能力，强烈的工作责任感，为人诚实正直。加分项有以下行业经验：铁路/船舶/航空/航天制造·仪器仪表/工业自动化</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>万店盈利（海南）科技咨询有限公司</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>91460000MA5TYK010Y</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>数据分析师</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>10000</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>1年以下</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>1.负责公司业务相关数据库结构（维度、指标）的维护与优化，确保数据体系清晰、稳定、可扩展。2.使用Python及相关库进行数据清洗、整理、加工与抽取，支持上层的数据分析与建模工作。3.参与搭建与维护各类自动化数据爬取脚本，包括公开数据源、行业平台及竞争对手信息等，定期产出原始数据集。4.基于业务需求，进行基础的数据分析、可视化工作，为业务提供数据支持与决策建议。5.参与公司在大语言模型（LLM）相关方向的探索与试验，协助构建“数据+智能体”场景，包括prompt设计、数据结构适配等工作。</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>1.熟练掌握Python编程语言，掌握主流数据处理库（如Pandas、Numpy、Requests、BeautifulSoup、Selenium等）；2.熟悉基本的数据库结构设计与操作（如MySQL/PostgreSQL/SQLite等），能编写高效的SQL；3.具备一定数据分析、数据挖掘或建模能力，对探索数据背后的价值有浓厚兴趣；4.对大语言模型（如ChatGPT、Claude、文心一言等）保持好奇与关注，乐于尝试其在数据处理和交互中的创新应用；5.有良好的自驱力与学习能力，能够从模糊问题中抽象结构，主动推进项目进展；6.有相关项目经验（如爬虫脚本、ETL管道、分析报告或LLM应用）者优先。加分项： 有使用LangChain、LlamaIndex、ChatGPTAPI等工具进行智能体或问答系统搭建经验； 熟悉大模型RAG框架、嵌入向量、PromptEngineering等技术； 有GitHub项目或技术博客可供展示。我们提供： 扁平化的团队氛围，自由探索空间； 覆盖数据到AI全链条的项目机会； 有竞争力的薪酬体系； 鼓励学习与试错的成长环境。公司介绍：  万店盈利」专注专注咨询行业十</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>上海睿蚌企业服务有限公司</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>91310114MA7B2KTQ2G</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28万</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>上海睿蚌企业服务有限公司,成立日期:2021年10月19日,创建于上海市,经营范围:一般项目：企业管理咨询；项目策划与公关服务；咨询策划服务；信息咨询服务（不含许可类信息咨询服务）；市场营销策划；企业形象策划；社会经济咨询服务；安全咨询服务；组织文化艺术交流活动；信息技术咨询服务；会议及展览服务；商务代理代办服务；礼仪服务；婚庆礼仪服务；个人商务服务；技术服务、技术开发、技术咨询、技术交流、技术转让、技术推广（除依法须经批准的项目外，凭营业执照依法自主开展经营活动）。,企业注册地址:上海市奉贤区陈桥路1887号1幢3层D179室;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>18</v>
+      </c>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>1.负责白龙马C端业务的前端架构及工程效率(APP混合开发react/vue/小程序taro)2.负责核心模块开发、代码编写及维护、关键技术选型、难点攻坚等工作3.具备一站式多端研发(前端/后端/移动端)能力职位要求：1.计算机相关专业及以上；2.五年以上前端工作经验，至少参加过一个完整中型前端项目开发；3.精通模块化,前端编译和构建工具,并深入理解其设计原理,例如ReactJS、AntD等;4.能够独立进行前端页面代码开发及调试，能够充分理解设计需求并落地；5.精通React/Vue等类似MV*框架实践经验，具备独立项目开发能力；6.对代码规范、算法和数据结构、代码质量、性能优化有较高的理解和应用实践;7.掌握一门服务端（Node/Java或其他语言）或具备native移动开发能力;8.具有良好的语言表达能力，善于与人沟通合作，有良好的团队意识及高度责任心；9.关注前端技术发展，乐于学习分享，良好的沟通心态，执行力强，能承受一定的工作强度；10.有移动端iOS/Android平台开发经验者优先；11.有团队管理/项目管理经验者优先。行业优势：1、出行市场空间大，B端蓝海市场未来可期，</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>1.计算机相关专业及以上；2.五年以上前端工作经验，至少参加过一个完整中型前端项目开发；3.精通模块化,前端编译和构建工具,并深入理解其设计原理,例如ReactJS、AntD等;4.能够独立进行前端页面代码开发及调试，能够充分理解设计需求并落地；5.精通React/Vue等类似MV*框架实践经验，具备独立项目开发能力；6.对代码规范、算法和数据结构、代码质量、性能优化有较高的理解和应用实践;7.掌握一门服务端（Node/Java或其他语言）或具备native移动开发能力;8.具有良好的语言表达能力，善于与人沟通合作，有良好的团队意识及高度责任心；9.关注前端技术发展，乐于学习分享，良好的沟通心态，执行力强，能承受一定的工作强度；10.有移动端iOS/Android平台开发经验者优先；11.有团队管理/项目管理经验者优先。行业优势：1、出行市场空间大，B端蓝海市场未来可期，白龙马作为行业独角兽，具备天然行业增量市场优势公司亮点：1、市场地位：出行SaaS领域独角兽2、业务规模：区域合作伙伴0+，覆盖0+城市，0W+网约车运力，日均处理发单，总交易额GTV百亿级+3、背景优势：背靠高德，阿</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>湖北通远格知科技有限公司</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>91420111MA49MUKCXL</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>200万</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>CTO/首席技术官</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>10年以上</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>17</v>
+      </c>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>1.战略规划：?协助CEO制定公司中长期技术发展战略，确保技术方向与业务目标高度契合。?负责产研团队的整体规划和管理，推动技术创新和产品研发，提升公司在行业中的竞争力。2.团队管理：?组建并领导高效的产品和技术团队，包括架构师、算法工程师、开发工程师、产品经理等核心成员。?制定团队绩效考核体系，培养高潜力人才，打造的产研团队。3.项目管理：?全面负责公司核心产品的研发管理工作，从需求分析、设计评审到上线交付的全生命周期管控。?确保重点项目按时高质量完成，对产品的市场表现和技术实现负主要责任。4.技术决策：?主导关键技术选型和技术架构设计，解决核心技术难题，保障系统稳定性、安全性和可扩展性。?深入了解行业技术趋势，探索新技术的应用场景，推动技术驱动业务发展。5.跨部门协作：?与市场、销售、运营等部门紧密合作，确保技术方案能够满足业务需求并带来实际价值。?定期向CEO汇报工作进展，提供技术支持和决策建议。6.创新推动：?推动公司内部的技术创新，鼓励团队成员提出新想法，并将其转化为实际成果。------------------------</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>1.计算机科学、信息技术或相关专业及以上，优先。2.8年以上互联网或科技行业经验，其中至少3年在大型企业担任产研总监或类似高级管理职位，有成功主导过从0到1的产品研发经验者优先。3.对软件架构设计、分布式系统、云计算、大数据处理等领域有深入理解。4.具备出色的团队管理和领导能力，能够激励团队成员达成目标。5.良好的沟通协调能力，能够在复杂环境中推动多方协作。6.具备较强的战略思维能力和商业敏感度，能够将技术与业务紧密结合。------------------------加分项：?在人工智能、大数据等前沿领域有研究或实践经验者优先。?曾在知名互联网公司或独角兽企业担任技术高管者优先。?有创业经历或带领团队成功完成大规模项目的经验者优先。</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>北京凯莫拉科技有限公司</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>91110113MA01HUXW4Q</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>3330万</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>14</v>
+      </c>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>1.深度参与电力交易SaaS系统的前端开发全流程，从需求分析到上线部署，负责关键功能模块的设计、开发与持续维护，保障系统的交互体验与性能表现。2.基于React技术栈，运用函数式编程思维结合Hooks特性进行高效组件化开发；借助UmiJS搭建、优化项目架构，提升代码的可维护性与开发效率。3.完成各类复杂的数据可视化需求，精准呈现业务数据，为业务决策提供有力支持。部署。</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>1.及以上，计算机相关专业，有SaaS系统开发经验者优先。2.精通React，熟练掌握其核心原理、生命周期与状态管理机制，能够运用Hooks实现复杂业务逻辑。3.熟练掌握UmiJS，能基于此搭建完整的项目结构，灵活运用路由、插件等功能。4.熟悉TailwindCSS，能够运用原子化CSS理念进行高效的样式开发。5.熟练使用AntDesign、AntDesignPro，具备优秀的界面布局与视觉审美能力。6.熟练运用ahooks，具备自定义Hook的开发能力。7.熟练掌握Echarts，可根据业务需求定制复杂的数据可视化图表。8.深入理解Webpack原理，能够熟练进行性能优化、代码拆分等工作。岗位职责1.参与Python爬虫开发，完成数据采集、清洗及存储，支持业务部门数据需求；2.基于FastAPI/Flask框架开发数据接口，协助搭建内部工具平台；3.维护MySQL、MongoDB数据库，优化数据存储结构，配合完成Redis缓存设计；4.参与技术文档编写，协助团队进行代码调试与性能优化。任职要求核心技能：-熟练掌握Python编程，熟悉面向对象编程思想；-了解爬虫技术，对反扒破解有钻研</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>北京凯莫拉科技有限公司</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>91110113MA01HUXW4Q</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>3330万</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>14</v>
+      </c>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>1.深度参与电力交易SaaS系统的前端开发全流程，从需求分析到上线部署，负责关键功能模块的设计、开发与持续维护，保障系统的交互体验与性能表现。2.基于React技术栈，运用函数式编程思维结合Hooks特性进行高效组件化开发；借助UmiJS搭建、优化项目架构，提升代码的可维护性与开发效率。3.完成各类复杂的数据可视化需求，精准呈现业务数据，为业务决策提供有力支持。部署。</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>1.及以上，计算机相关专业，有SaaS系统开发经验者优先。2.精通React，熟练掌握其核心原理、生命周期与状态管理机制，能够运用Hooks实现复杂业务逻辑。3.熟练掌握UmiJS，能基于此搭建完整的项目结构，灵活运用路由、插件等功能。4.熟悉TailwindCSS，能够运用原子化CSS理念进行高效的样式开发。5.熟练使用AntDesign、AntDesignPro，具备优秀的界面布局与视觉审美能力。6.熟练运用ahooks，具备自定义Hook的开发能力。7.熟练掌握Echarts，可根据业务需求定制复杂的数据可视化图表。8.深入理解Webpack原理，能够熟练进行性能优化、代码拆分等工作。岗位职责1.参与Python爬虫开发，完成数据采集、清洗及存储，支持业务部门数据需求；2.基于FastAPI/Flask框架开发数据接口，协助搭建内部工具平台；3.维护MySQL、MongoDB数据库，优化数据存储结构，配合完成Redis缓存设计；4.参与技术文档编写，协助团队进行代码调试与性能优化。任职要求核心技能：-熟练掌握Python编程，熟悉面向对象编程思想；-了解爬虫技术，对反扒破解有钻研</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>北京鸿雪信息科技有限公司</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>91110105099449288W</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1500万</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>北京市西城区</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>手机通讯器材及配件销售，电脑配件零售，配件销售</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>运维工程师</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>30000</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>北京 - 西城</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>26</v>
+      </c>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>1、具备较好的沟通能力，能够进行客户需求分析和价值挖掘，结合技术背景提供完善的解决方案；2、设计并带领团队研发符合客户需求、用户体验良好的系统/平台；3、探索、研究业界新的技术方向，提升公司的核心竞争力以及技术对外影响力；4、熟悉大规模集群下的运维能力建设与开发，对互联网架构设计、运维体系有深入理解；</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>1、或以上，3-5年以上相关工作经验，计算机相关专业；2、在在线集群服务的运维和优化上有丰富的经验，有大型互联网公司系统开发、测试、运维、应用工作经验者优先；3、积极乐观，责任心强，工作认真细致，具有良好的团队沟通与协作能力；4、热爱编程，有强烈的求知欲、好奇心和进取心，能及时关注和学习业界新技术。技术背景一：1、对Linux系统有较深入的理解，有容器生产环境研发运维经验；2、熟悉云原生技术架构，熟悉Kubernetes核心组件以及周边生态，有丰富地实战经验；3、对容器相关网络、存储方案熟悉；4、对开源服务网格技术(如Istio、Eoy)有深入研究；5、熟悉Linux内核相关技术(如eBPF)，甚至有相关的开发经验；6、有云计算中虚拟化、云原生、安全、网络、中间件等领域的研发或架构经历；7、有设计及落地过大型互联网架构优化/改造等。技术背景二：1、在CPU、GPU算力集群管理、调度和优化等方面项目优化实战经验，有成熟的方法论，并在知名产品上成功验证；2、熟悉K8s和Docker源码，给主要项目贡献过代码，并具备一定社区影响力优先；3、对CPU、GPU及异构芯片的软件栈有深入的研究，熟悉</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>北京鸿雪信息科技有限公司</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>91110105099449288W</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1500万</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>北京市西城区</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>手机通讯器材及配件销售，电脑配件零售，配件销售</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>运维工程师</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>30000</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>北京 - 西城</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>26</v>
+      </c>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>1、具备较好的沟通能力，能够进行客户需求分析和价值挖掘，结合技术背景提供完善的解决方案；2、设计并带领团队研发符合客户需求、用户体验良好的系统/平台；3、探索、研究业界新的技术方向，提升公司的核心竞争力以及技术对外影响力；4、熟悉大规模集群下的运维能力建设与开发，对互联网架构设计、运维体系有深入理解；</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>1、或以上，3-5年以上相关工作经验，计算机相关专业；2、在在线集群服务的运维和优化上有丰富的经验，有大型互联网公司系统开发、测试、运维、应用工作经验者优先；3、积极乐观，责任心强，工作认真细致，具有良好的团队沟通与协作能力；4、热爱编程，有强烈的求知欲、好奇心和进取心，能及时关注和学习业界新技术。技术背景一：1、对Linux系统有较深入的理解，有容器生产环境研发运维经验；2、熟悉云原生技术架构，熟悉Kubernetes核心组件以及周边生态，有丰富地实战经验；3、对容器相关网络、存储方案熟悉；4、对开源服务网格技术(如Istio、Eoy)有深入研究；5、熟悉Linux内核相关技术(如eBPF)，甚至有相关的开发经验；6、有云计算中虚拟化、云原生、安全、网络、中间件等领域的研发或架构经历；7、有设计及落地过大型互联网架构优化/改造等。技术背景二：1、在CPU、GPU算力集群管理、调度和优化等方面项目优化实战经验，有成熟的方法论，并在知名产品上成功验证；2、熟悉K8s和Docker源码，给主要项目贡献过代码，并具备一定社区影响力优先；3、对CPU、GPU及异构芯片的软件栈有深入的研究，熟悉</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>北京原点数安科技有限公司</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>91110108MA01T7D166</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1033.053300万</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>产品总监</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>25</v>
+      </c>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>1.产品战略规划：-制定并执行公司数据安全产品的整体战略，重点发展智能化方向，结合AI和LLM技术提升产品竞争力。-分析市场趋势和竞争格局，识别AI驱动的数据安全创新机会，推动产品迭代与升级。2.产品全生命周期管理：-负责从需求分析、产品设计、开发到上线的全流程管理，确保产品按时交付并满足客户需求。-协调研发、市场、销售等部门，推动产品落地和商业化。3.客户需求洞察：-深入理解金融行业客户的数据安全需求，将客户反馈转化为产品功能优化建议。-定期与客户沟通，建立长期合作关系，提升客户满意度。4.市场与品牌建设：-参与市场推广活动，提升公司数据安全产品的品牌影响力。-与行业合作伙伴建立战略合作关系，拓展产品应用场景。</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>1.教育背景：-及以上，计算机科学、信息安全等相关专业优先。2.工作经验：-5年以上数据安全或相关领域产品管理经验，具备从0到1的产品落地经验。-熟悉金融行业数据安全法规和标准（如《数据安全法等）。3.技能要求：-精通数据安全技术（如加密、脱敏、访问控制等），具备技术背景者优先。-熟练使用主流产品设计工具（如Axure、Figma、Sketch等），能够独立完成高保真原型设计。-具备AI和LLM相关知识，有智能化数据安全产品设计经验者优先。-出色的沟通能力和跨部门协作能力，能够高效推动项目落地。-具备敏锐的市场洞察力和商业思维，能够平衡技术可行性与市场需求。4.个人特质：-结果导向，抗压能力强，能够在快节奏的创业环境中高效工作。-对数据安全领域充满热情，愿意长期深耕行业。加分项：-有金融行业数据安全项目实施经验。-熟悉国内外数据安全产品生态。-有AI/LLM在数据安全领域应用的实际项目经验。加分项有以下行业经验：计算机软件·信息安全·通信/网络设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>北京原点数安科技有限公司</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>91110108MA01T7D166</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1033.053300万</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>产品总监</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>面谈</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>25</v>
+      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>1.产品战略规划：-制定并执行公司数据安全产品的整体战略，重点发展智能化方向，结合AI和LLM技术提升产品竞争力。-分析市场趋势和竞争格局，识别AI驱动的数据安全创新机会，推动产品迭代与升级。2.产品全生命周期管理：-负责从需求分析、产品设计、开发到上线的全流程管理，确保产品按时交付并满足客户需求。-协调研发、市场、销售等部门，推动产品落地和商业化。3.客户需求洞察：-深入理解金融行业客户的数据安全需求，将客户反馈转化为产品功能优化建议。-定期与客户沟通，建立长期合作关系，提升客户满意度。4.市场与品牌建设：-参与市场推广活动，提升公司数据安全产品的品牌影响力。-与行业合作伙伴建立战略合作关系，拓展产品应用场景。</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>1.教育背景：-及以上，计算机科学、信息安全等相关专业优先。2.工作经验：-5年以上数据安全或相关领域产品管理经验，具备从0到1的产品落地经验。-熟悉金融行业数据安全法规和标准（如《数据安全法等）。3.技能要求：-精通数据安全技术（如加密、脱敏、访问控制等），具备技术背景者优先。-熟练使用主流产品设计工具（如Axure、Figma、Sketch等），能够独立完成高保真原型设计。-具备AI和LLM相关知识，有智能化数据安全产品设计经验者优先。-出色的沟通能力和跨部门协作能力，能够高效推动项目落地。-具备敏锐的市场洞察力和商业思维，能够平衡技术可行性与市场需求。4.个人特质：-结果导向，抗压能力强，能够在快节奏的创业环境中高效工作。-对数据安全领域充满热情，愿意长期深耕行业。加分项：-有金融行业数据安全项目实施经验。-熟悉国内外数据安全产品生态。-有AI/LLM在数据安全领域应用的实际项目经验。加分项有以下行业经验：计算机软件·信息安全·通信/网络设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>北京星宇辰科技有限公司</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>91110112MA01MNRA4U</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Python开发</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>6</v>
+      </c>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>1、与客户沟通，并根据客户需求列出功能清单，撰写需求说明书。2、根据需求说明书完成原型图设计，实现技术方案评审、技术系统的架构设计、系统分析、平台功能开发和性能优化等各项任务。3、依据功能规格书完成数据库建模、程序开发与测试，开发过程中能解决项目中的关键问题和技术难题，对技术框架进行总体把控，并负责平台各类安全问题的解决。4、对项目开发流程、项目质量和项目开发进度的规划、控制、监督和管理。5、对项目进行调试和性能等专项测试，并完成项目的部署上线</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>1、有三年以上Python开发工作经验，能熟练掌握Python开发语言，并熟练掌握JavaScript、Ajax、jQuery、HTML5、CSS3、Vue等前端开发语言，熟悉并掌握Django、Flask等web框架并进行MVT模式开发,能对开发项目进行自动化测试、性能优化及部署上线；熟悉HTTP、TCP、UDP、WebSocket通讯协议、多线程、多进程通讯。2、熟练掌握Mysql/Mariadb、Postgresql、Sqlserver、Sqllite等关系型数据库，Sql语法性能调优；熟悉Redis、Mongodb等非关系型数据库。3、熟悉Java/C++/C其中任意一门编程语言，熟悉Linux开发环境，有良好的代码质量和风格，有独立部署项目、排查问题能力。4、熟悉Tensorflow、Keras等深度学习框架和工具，使用深度学习技术解决过一个实际问题（文本分类、实体识别、图像识别、场景识别等等）者优先。5、拥有分布式处理经验、高并发处理经验、微服务架构开发经验者优先；有机器学习、深度学习等相关项目实际经验，或在知名数据挖掘比赛中取得 名次者优先;有丰富的互联网项目集成、开发、</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>万店盈利（海南）科技咨询有限公司</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>91460000MA5TYK010Y</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>数据分析师</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>10000</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>1年以下</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>1.负责公司业务相关数据库结构（维度、指标）的维护与优化，确保数据体系清晰、稳定、可扩展。2.使用Python及相关库进行数据清洗、整理、加工与抽取，支持上层的数据分析与建模工作。3.参与搭建与维护各类自动化数据爬取脚本，包括公开数据源、行业平台及竞争对手信息等，定期产出原始数据集。4.基于业务需求，进行基础的数据分析、可视化工作，为业务提供数据支持与决策建议。5.参与公司在大语言模型（LLM）相关方向的探索与试验，协助构建“数据+智能体”场景，包括prompt设计、数据结构适配等工作。</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>1.熟练掌握Python编程语言，掌握主流数据处理库（如Pandas、Numpy、Requests、BeautifulSoup、Selenium等）；2.熟悉基本的数据库结构设计与操作（如MySQL/PostgreSQL/SQLite等），能编写高效的SQL；3.具备一定数据分析、数据挖掘或建模能力，对探索数据背后的价值有浓厚兴趣；4.对大语言模型（如ChatGPT、Claude、文心一言等）保持好奇与关注，乐于尝试其在数据处理和交互中的创新应用；5.有良好的自驱力与学习能力，能够从模糊问题中抽象结构，主动推进项目进展；6.有相关项目经验（如爬虫脚本、ETL管道、分析报告或LLM应用）者优先。加分项： 有使用LangChain、LlamaIndex、ChatGPTAPI等工具进行智能体或问答系统搭建经验； 熟悉大模型RAG框架、嵌入向量、PromptEngineering等技术； 有GitHub项目或技术博客可供展示。我们提供： 扁平化的团队氛围，自由探索空间； 覆盖数据到AI全链条的项目机会； 有竞争力的薪酬体系； 鼓励学习与试错的成长环境。公司介绍：  万店盈利」专注专注咨询行业十</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>北京星宇辰科技有限公司</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>91110112MA01MNRA4U</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1000万</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Python开发</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>6</v>
+      </c>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>1、与客户沟通，并根据客户需求列出功能清单，撰写需求说明书。2、根据需求说明书完成原型图设计，实现技术方案评审、技术系统的架构设计、系统分析、平台功能开发和性能优化等各项任务。3、依据功能规格书完成数据库建模、程序开发与测试，开发过程中能解决项目中的关键问题和技术难题，对技术框架进行总体把控，并负责平台各类安全问题的解决。4、对项目开发流程、项目质量和项目开发进度的规划、控制、监督和管理。5、对项目进行调试和性能等专项测试，并完成项目的部署上线</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>1、有三年以上Python开发工作经验，能熟练掌握Python开发语言，并熟练掌握JavaScript、Ajax、jQuery、HTML5、CSS3、Vue等前端开发语言，熟悉并掌握Django、Flask等web框架并进行MVT模式开发,能对开发项目进行自动化测试、性能优化及部署上线；熟悉HTTP、TCP、UDP、WebSocket通讯协议、多线程、多进程通讯。2、熟练掌握Mysql/Mariadb、Postgresql、Sqlserver、Sqllite等关系型数据库，Sql语法性能调优；熟悉Redis、Mongodb等非关系型数据库。3、熟悉Java/C++/C其中任意一门编程语言，熟悉Linux开发环境，有良好的代码质量和风格，有独立部署项目、排查问题能力。4、熟悉Tensorflow、Keras等深度学习框架和工具，使用深度学习技术解决过一个实际问题（文本分类、实体识别、图像识别、场景识别等等）者优先。5、拥有分布式处理经验、高并发处理经验、微服务架构开发经验者优先；有机器学习、深度学习等相关项目实际经验，或在知名数据挖掘比赛中取得 名次者优先;有丰富的互联网项目集成、开发、</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>北京华宏信达科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>股份有限公司</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>911101066774372712</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2000万</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>北京市丰台区</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>CTO/首席技术官</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>30000</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>北京 - 丰台</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>18</v>
+      </c>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>1、建立和完善研发管理体系，全面负责研发项目（侧重于产品研发项目）和研发部团队的管理。2、负责产品和技术的预备研究和项目实施方案，组织相关部门和人员根据流程进行各阶段的评审和评估。3、负责所研发产品的标准化文件拟定及检定。4、负责企业业务流程的分析、优化，分析制定项目的业务功能需求。5、根据产品和项目需求，分析、设计与实现系统架构方案，保障系统架构的合理性、可扩展性及易用性。6、负责产品架构分析，提出软硬件架构整体设计，数据库存储设计方案，培训指导其他工程师的设计工作。7、对相关产品系统架构方案进行评审及改进，控制产品系统架构质量。8、负责核心技术问题的攻关，系统优化；协助解决项目开发过程中的技术难题。9、制定开发规范，参与制定技术标准，编写相应的技术文档，并对通用技术进行整理，提术复用。10、协助产品经理制定产品研发计划和控制项目研发进度。11、对系统的重用、扩展、安全、性能、伸缩性、简洁等做系统级的把握。12、对系统框架相关技术和业务进行培训，指导开发人员开发。并解决系统开发、运行中出现的各种问题。13、参与项目的需求调研，充分了解需求，合理设计系统架构，配合销售进行项目售前支持工</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>1.;统招，计算机相关专业，以上优先。2.;十年以上的工作经验，五年以上的企业应用产品分析、设计和开发经验，五年以上的企业业务需求分析和项目实施经验。3.;具有较丰富的团队管理经验，至少四年领导十五人以上的技术团队的经历。4.;具有丰富的ERP、MES、OA等方面企业应用的研发和项目实施经验，至少成功研发三个中等规模以上的企业应用软件系统，并且至少成功实施过三个以上的大中型企业应用项目。5.;精通企业应用软件系统的分析设计和建模，精通数据库设计。6.;精通J2EE技术和常用框架、工具，如SSH、eclipse、Extjs等。7.;精通项目管理的理论、方法，具有丰富的IT项目管理经验。8.;有很强的学习能力，良好的人际交往和沟通能力，强烈的工作责任感，为人诚实正直。加分项有以下行业经验：铁路/船舶/航空/航天制造·仪器仪表/工业自动化</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>北京震耀科技有限公司</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>9111010876679844XE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>600万</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>包文科</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>北京震耀科技有限公司,成立日期:2004年09月01日,创建于北京市,经营范围:技术开发、技术服务；计算机系统集成；专业承包；销售化工产品（不含危险化学品及一类易制毒化学品）、机械设备、电子产品、建筑材料、金属材料、五金、交电；货物进出口、技术进出口、代理进出口。（企业依法自主选择经营项目，开展经营活动；依法须经批准的项目，经相关部门批准后依批准的内容开展经营活动；不得从事本市产业政策禁止和限制类项目的经营活动。）,企业注册地址:北京市海淀区上地十街1号院3号楼9层912;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>C#开发</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>60</v>
+      </c>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>（工作内容和主要职责）：1、根据公司战略和上级要求，主导核心项目搭建及实现、底层组件研发。负责整体架构中核心代码的编写及维护。2、负责分派的开发任务/负责产品服务端的开发工作、深入理解业务需求。3、负责公司私有化、遗留系统现代化等项目的研发及推动实现工作。4、组织开展技术验证与实现，核心技术问题公关，解决产品开发中各种技术难题。5、进行新技术预研，将适配的新技术和成熟的技术、框架引入到现有的应用架构中来，不断的持续优化和完善整体6、保证所负责系统的稳定性、可扩展性和高性能。7、协助及推动各产品线技术落地及问题解决。任职资格（职位要求）：1、及以上，计算机相关专业，5年以上.NET及体系开发工作经验，3年以上大型项目和大规模高并发访问的WEB应用架构开发经验。2、精通C#、Python、Go、Java、NodeJS等编程语言至少2~3种。3、熟悉分布式、缓存、消息、微服务等机制，对分布式常用技术进行合理应用，解决实际问题。4、熟悉数据库及中间件技术(MySQLOracleMongoDBRedisMQ),有数据库优化及SQL优化经验。5、熟悉前端技术如Vue或Angular，至少1年开发经</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>）：1、及以上，计算机相关专业，5年以上.NET及体系开发工作经验，3年以上大型项目和大规模高并发访问的WEB应用架构开发经验。2、精通C#、Python、Go、Java、NodeJS等编程语言至少2~3种。3、熟悉分布式、缓存、消息、微服务等机制，对分布式常用技术进行合理应用，解决实际问题。4、熟悉数据库及中间件技术(MySQLOracleMongoDBRedisMQ),有数据库优化及SQL优化经验。5、熟悉前端技术如Vue或Angular，至少1年开发经验。6、良好的代码能力、沟通协作能力，掌握常用的基本算法、设计模式。7、具有较好的抽象设计能力，具有抽象定义系统领域、定义领域边界能力和成功案例。</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>北京震耀科技有限公司</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9111010876679844XE</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>600万</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>包文科</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>北京震耀科技有限公司,成立日期:2004年09月01日,创建于北京市,经营范围:技术开发、技术服务；计算机系统集成；专业承包；销售化工产品（不含危险化学品及一类易制毒化学品）、机械设备、电子产品、建筑材料、金属材料、五金、交电；货物进出口、技术进出口、代理进出口。（企业依法自主选择经营项目，开展经营活动；依法须经批准的项目，经相关部门批准后依批准的内容开展经营活动；不得从事本市产业政策禁止和限制类项目的经营活动。）,企业注册地址:北京市海淀区上地十街1号院3号楼9层912;诚挚邀请您的加入！</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>C#开发</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>60</v>
+      </c>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>（工作内容和主要职责）：1、根据公司战略和上级要求，主导核心项目搭建及实现、底层组件研发。负责整体架构中核心代码的编写及维护。2、负责分派的开发任务/负责产品服务端的开发工作、深入理解业务需求。3、负责公司私有化、遗留系统现代化等项目的研发及推动实现工作。4、组织开展技术验证与实现，核心技术问题公关，解决产品开发中各种技术难题。5、进行新技术预研，将适配的新技术和成熟的技术、框架引入到现有的应用架构中来，不断的持续优化和完善整体6、保证所负责系统的稳定性、可扩展性和高性能。7、协助及推动各产品线技术落地及问题解决。任职资格（职位要求）：1、及以上，计算机相关专业，5年以上.NET及体系开发工作经验，3年以上大型项目和大规模高并发访问的WEB应用架构开发经验。2、精通C#、Python、Go、Java、NodeJS等编程语言至少2~3种。3、熟悉分布式、缓存、消息、微服务等机制，对分布式常用技术进行合理应用，解决实际问题。4、熟悉数据库及中间件技术(MySQLOracleMongoDBRedisMQ),有数据库优化及SQL优化经验。5、熟悉前端技术如Vue或Angular，至少1年开发经</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>）：1、及以上，计算机相关专业，5年以上.NET及体系开发工作经验，3年以上大型项目和大规模高并发访问的WEB应用架构开发经验。2、精通C#、Python、Go、Java、NodeJS等编程语言至少2~3种。3、熟悉分布式、缓存、消息、微服务等机制，对分布式常用技术进行合理应用，解决实际问题。4、熟悉数据库及中间件技术(MySQLOracleMongoDBRedisMQ),有数据库优化及SQL优化经验。5、熟悉前端技术如Vue或Angular，至少1年开发经验。6、良好的代码能力、沟通协作能力，掌握常用的基本算法、设计模式。7、具有较好的抽象设计能力，具有抽象定义系统领域、定义领域边界能力和成功案例。</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>北京优易地信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>911101075976985438</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>300万</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>北京市昌平区</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>12000</v>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>北京 - 昌平</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>6</v>
+      </c>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>负责客户业务系统的研发工作。完成上级安排的研发任务。参与项目的需求调研、系统设计、用户培训、上线部署。能够独立完成模块设计、代码编写、单元测试等工作，负责代码注释，以及相关文档的编写。参与客户现场会议。负责公司产品WEB前端模块功能的设计、实现工作;负责公司项目的页面编写，Javascript数据处理、Ajax数据交互;按照项目计划，在保证质量的前提下、按时完成开发任务;与项目经理、后端工程师紧密工作在一起，负责公司各产品易用性改进、界面技术优化和WEB应用性能优化。Web前沿技术研究和新技术调研职位要求：计算机相关专业以上，3年以上工作经验。如果您酷爱编程，可以忽略上一条要求。精通HTML5、JS、jQeury、CSS2/3、XML、Ajax等技术并有良好的代码风格精通2种以上前端常用框架（VUE、React、Angular、Bootstrap等）了解前端模块化及组件化解决方案，并对框架实现原理有深入了解了解网页性能优化对细节考究，追求美感，逻辑分析能力强;良好的编程风格及文档编写习惯理解Web标准、语义化，可以解决主流浏览器及不同版本的兼容性问题熟练使用Photoshop、Sket</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>计算机相关专业以上，3年以上工作经验。如果您酷爱编程，可以忽略上一条要求。精通HTML5、JS、jQeury、CSS2/3、XML、Ajax等技术并有良好的代码风格精通2种以上前端常用框架（VUE、React、Angular、Bootstrap等）了解前端模块化及组件化解决方案，并对框架实现原理有深入了解了解网页性能优化对细节考究，追求美感，逻辑分析能力强;良好的编程风格及文档编写习惯理解Web标准、语义化，可以解决主流浏览器及不同版本的兼容性问题熟练使用Photoshop、Sketch进行图片处理。关于BJUED：我们规模不大，但是客户遍及全球；我们都很年轻，但是获奖无数；我们扎根底层研发，保持着纯技术的傲娇；我们热爱创新，脑洞无限。我们是少有的不玩儿概念，执着于技术的团队。加入我们，你会感受到迷上工作的快乐。我们的公司更像一个家，有能让你成就感十足的创新工作，当然也少不了办公室那杯香浓拿铁。十年之前，公司创立，我们一直稳步前行。今年，是我们的发展之年，需要加快步伐。真挚的邀请与我们志趣相投的小伙伴加入，一起创造新的十年。</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>北京优易地信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>911101075976985438</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>300万</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>北京市昌平区</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>12000</v>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>北京 - 昌平</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>学历不限</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>6</v>
+      </c>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>负责客户业务系统的研发工作。完成上级安排的研发任务。参与项目的需求调研、系统设计、用户培训、上线部署。能够独立完成模块设计、代码编写、单元测试等工作，负责代码注释，以及相关文档的编写。参与客户现场会议。负责公司产品WEB前端模块功能的设计、实现工作;负责公司项目的页面编写，Javascript数据处理、Ajax数据交互;按照项目计划，在保证质量的前提下、按时完成开发任务;与项目经理、后端工程师紧密工作在一起，负责公司各产品易用性改进、界面技术优化和WEB应用性能优化。Web前沿技术研究和新技术调研职位要求：计算机相关专业以上，3年以上工作经验。如果您酷爱编程，可以忽略上一条要求。精通HTML5、JS、jQeury、CSS2/3、XML、Ajax等技术并有良好的代码风格精通2种以上前端常用框架（VUE、React、Angular、Bootstrap等）了解前端模块化及组件化解决方案，并对框架实现原理有深入了解了解网页性能优化对细节考究，追求美感，逻辑分析能力强;良好的编程风格及文档编写习惯理解Web标准、语义化，可以解决主流浏览器及不同版本的兼容性问题熟练使用Photoshop、Sket</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>计算机相关专业以上，3年以上工作经验。如果您酷爱编程，可以忽略上一条要求。精通HTML5、JS、jQeury、CSS2/3、XML、Ajax等技术并有良好的代码风格精通2种以上前端常用框架（VUE、React、Angular、Bootstrap等）了解前端模块化及组件化解决方案，并对框架实现原理有深入了解了解网页性能优化对细节考究，追求美感，逻辑分析能力强;良好的编程风格及文档编写习惯理解Web标准、语义化，可以解决主流浏览器及不同版本的兼容性问题熟练使用Photoshop、Sketch进行图片处理。关于BJUED：我们规模不大，但是客户遍及全球；我们都很年轻，但是获奖无数；我们扎根底层研发，保持着纯技术的傲娇；我们热爱创新，脑洞无限。我们是少有的不玩儿概念，执着于技术的团队。加入我们，你会感受到迷上工作的快乐。我们的公司更像一个家，有能让你成就感十足的创新工作，当然也少不了办公室那杯香浓拿铁。十年之前，公司创立，我们一直稳步前行。今年，是我们的发展之年，需要加快步伐。真挚的邀请与我们志趣相投的小伙伴加入，一起创造新的十年。</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>河南久荣计算机科技有限公司</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>91110105740064456D</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>100-499</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>5000万</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>吴经理</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>河南久荣计算机科技有限公司是中资北方投资顾问有限公司河南分公司。负责中资北方公司市场的开发和拓展，是总部在河南区域的*销售服务中心。公司提供较好的薪酬待遇以及晋升机会，同时也为公司员工提供持续的学习机会。 中资北方投资顾问有限公司成立于1997年，是经中国证监会批准的获得首批具有证券投资资格的证券咨询公司，资格证书号ZX0013。 公司以投资银行和证券投资咨询业务为主体，凭借自身的人才优势和研究实力，建立了与证券主管部门、各类专业研究机构、著名院校以及新闻媒体等之间的信息网络和良好的合作关系。公司成立至今，已为上百家客户提供了各类专业投资银行服务，得到了客户及业界的普遍认同，积累了一批优质客户，形成了长期合作的战略关系。 当前，随着中国证券市场的迅猛发展，投资者队伍日益扩大，投资者越来越迫切需要在证券投资上获得及时、专业的投资指导。公司挟十多年资本市场投行之经验，适时开展证券投资顾问业务，力争向投资者倡导价值投资理念，传播科学投资方法，为投资者证券决策提供专业的投资顾问支持。 中资北方投资顾问有限公司将以专注的态度，与时俱进的经营理念和高度的社会责任感，打造国内证券投资顾问业务领域高端</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>运维工程师</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>10000</v>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>18</v>
+      </c>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>?1、负责天翼云平台的日常运维与管理，确保平台稳定、高效运行，及时响应并解决各类技术问题。?2、依据客户业务需求，对天翼云资源进行合理规划、配置与部署，提供专业的云解决方案。?3、监测云平台网络状况，运用基础网络知识进行故障排查与优化，保障网络的顺畅连接与安全。?4、维护基础架构系统，对服务器、存储等设备进行日常巡检、性能监控及优化，确保系统可靠运行。?5、与客户及内部团队保持紧密沟通，及时了解业务需求变化，提供技术支持与咨询服务，推动项目顺利实施。?二、</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>?1、云知识：熟悉天翼云产品体系，包括但不限于云主机、云存储、云数据库等，有实际操作和使用经验。深入理解云计算原理与架构，掌握云资源管理、弹性伸缩、负载均衡等相关知识。?2、网络知识：具备扎实的基础网络知识，熟悉TCP/IP协议栈，能熟练进行IP地址规划、子网划分。了解网络设备（如路由器、交换机、防火墙）的基本配置与管理，可进行简单的网络故障排查与修复，持有CCNA/HCNA。?3、基础架构系统知识：熟悉常见的服务器操作系统（如WindowsServer、Linux）的安装、配置与维护。掌握服务器硬件知识，能进行服务器硬件故障诊断与处理。了解存储系统（如SAN、NAS）的基本原理与配置。?4、其他能力：具备良好的问题解决能力，能快速定位并解决复杂技术问题。拥有较强的沟通协调能力，可与不同团队及客户进行有效沟通。具备较强的学习能力，能快速掌握新知识与新技术，适应不断变化的工作需求。有良好的服务意识，能够积极主动地为客户提供优质服务。?5、优先条件：持有相关云计算（如天翼云、华为云、阿里云等）者优先。有大型云平台运维经验或参与过企业上云项目者优先。</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>南京企拓客科技有限公司</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>91320105MACG258RXQ</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>3万</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>PHP开发</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>30000</v>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>22</v>
+      </c>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>1.负责大数据模型GPT、大数据精准拓客系统、AI外呼系统、CRM系统的后端开发，包括数据处理、算法实现、接口开发等。2.参与系统架构设计和优化，确保系统的高可用性、稳定性和可扩展性。负责编写高质量的PHP代码，并进行代码审查和测试，确保代码质量和系统性能。3.深入研究大数据技术和精准拓客策略，与系统分析师和产品经理紧密合作，实现业务需求和系统功能。4.负责系统的数据安全性、稳定性和可扩展性，确保系统在高并发场景下的正常运行。5.参与相关文档的编写和维护，包括系统设计文档、接口文档、使用手册等。持续关注新技术和行业动态，积极学习和应用新技术，提升系统的技术水平和竞争力。</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>1.双及以上，计算机或相关专业优先考虑。2.具备5年以上PHP开发经验，有大型项目或互联网产品开发经验者优先。3.精通PHP语言，熟悉常用PHP框架（如Laravel、Symfony等）和开发工具。熟悉Web开发相关技术，包括HTML5、CSS3、JavaScript等前端技术，以及MySQL、Redis等数据库技术。4.熟悉Linux操作系统和常用服务器配置，具备良好的服务器运维能力。5.熟悉大数据相关技术，如Hadoop、Spark等，有数据处理和分析经验者优先。具备良好的编码习惯和代码规范意识，注重代码质量和程序性能。6.具备较强的学习能力和团队协作精神，能够与其他部门进行有效沟通和协作。对大数据技术和精准拓客领域有浓厚兴趣，愿意在该领域深入学习和探索。加分项：1.有大数据精准拓客系统或相关项目开发经验者优先考虑。2.熟悉数据挖掘、机器学习等相关技术者优先考虑。3.具备分布式系统、高并发处理经验者优先考虑。4.有开源项目贡献或维护经验者优先考虑。</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>南京企拓客科技有限公司</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>91320105MACG258RXQ</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>3万</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>北京市海淀区</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>PHP开发</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>30000</v>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>北京 - 海淀</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>6-7年</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>22</v>
+      </c>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>1.负责大数据模型GPT、大数据精准拓客系统、AI外呼系统、CRM系统的后端开发，包括数据处理、算法实现、接口开发等。2.参与系统架构设计和优化，确保系统的高可用性、稳定性和可扩展性。负责编写高质量的PHP代码，并进行代码审查和测试，确保代码质量和系统性能。3.深入研究大数据技术和精准拓客策略，与系统分析师和产品经理紧密合作，实现业务需求和系统功能。4.负责系统的数据安全性、稳定性和可扩展性，确保系统在高并发场景下的正常运行。5.参与相关文档的编写和维护，包括系统设计文档、接口文档、使用手册等。持续关注新技术和行业动态，积极学习和应用新技术，提升系统的技术水平和竞争力。</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>1.双及以上，计算机或相关专业优先考虑。2.具备5年以上PHP开发经验，有大型项目或互联网产品开发经验者优先。3.精通PHP语言，熟悉常用PHP框架（如Laravel、Symfony等）和开发工具。熟悉Web开发相关技术，包括HTML5、CSS3、JavaScript等前端技术，以及MySQL、Redis等数据库技术。4.熟悉Linux操作系统和常用服务器配置，具备良好的服务器运维能力。5.熟悉大数据相关技术，如Hadoop、Spark等，有数据处理和分析经验者优先。具备良好的编码习惯和代码规范意识，注重代码质量和程序性能。6.具备较强的学习能力和团队协作精神，能够与其他部门进行有效沟通和协作。对大数据技术和精准拓客领域有浓厚兴趣，愿意在该领域深入学习和探索。加分项：1.有大数据精准拓客系统或相关项目开发经验者优先考虑。2.熟悉数据挖掘、机器学习等相关技术者优先考虑。3.具备分布式系统、高并发处理经验者优先考虑。4.有开源项目贡献或维护经验者优先考虑。</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>北京优云优客信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>91110111MA01FDGT4B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>200万</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>北京市昌平区</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>北京优云优客信息技术有限公司成立于2018年11月2日，注册资本200万元，公司所在地为高科技互联网公司云集的TBD云集中心 ，创业初期拥有员工人数36人，员工均曾经在上市公司接受过*的电话销售技能培训，且很多是销售界的百万销冠，公司有着*的销售团队和销售管理方法，系统化专业化的技能技巧培训。公司经营范围为技术开发、技术服务、技术推广;教育科技开发;旅游资源开发(不含旅游业务);产品设计;网页设计;设计、制作、代理、发布广告;家居装饰及设计;市场营销策划;自费出国留学中介服务;企业管理咨询、经济信息咨询、商务信息咨询、旅游信息咨询、环保技术咨询(中介除外);企业管理;财务咨询(不得开展审计、验资、查帐、评估、会计咨询等需经专项审批的业务,不得出具相应的审计报告、验资报告、查帐报告、评估报告等文字材料);基础软件服务;应用软件服务;软件开发;互联网信息服务。(企业依法自主选择经营项目,开展经营活动;互联网信息服务以及依法须经批准的项目,经相关部门批准后依批准的内容开展经营活动;不得从事本市产业政策禁止和限制类项目的经营活动。)优云优客致力成为一家将*优质的服务给到*优秀的客户的互联网新兴</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>北京 - 昌平</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>7</v>
+      </c>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>1.主导App全流程开发：负责安卓和iOS系统App的设计与开发，从需求分析、架构设计到代码实现，确保产品高质量交付。2.优化用户体验：对App进行性能优化，提升应用的稳定性、流畅度以及用户体验，保障应用在不同设备和系统版本上的兼容性。3.协同创新：与产品、设计和后端团队紧密合作，参与产品功能讨论，为产品迭代提供专业的技术建议，实现产品的创新与优化。4.攻克技术难题：深入研究并解决开发过程中遇到的复杂技术问题，持续关注行业前沿技术，为团队引入新技术、新方法。二、</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>1.与专业：及以上，计算机科学、软件工程等相关专业，扎实的专业知识是您的敲门砖。2.开发经验：拥有3年以上前端、安卓或iOSApp开发经验，有完整的项目开发经历，熟悉敏捷开发流程，能主导或深度参与过至少一款成功上线的App开发。3.技术能力-原型设计：熟练使用至少一种原型设计工具，能输出高质量的能落地的设计稿。-安卓开发：熟练掌握Java或Kotlin语言，熟悉安卓开发框架和常用设计模式，精通安卓UI设计、多线程、网络通信等开发技术（复杂场景下结合Uni-app解决问题）。-iOS开发：熟练掌握Swift或Objective-C语言，熟悉iOS开发框架，对iOS界面设计规范、内存管理机制有深入理解（复杂场景下结合Uni-app解决问题）。-其他：熟练掌握Uni-app开发，熟悉常用的第三方库和工具，具备良好的代码规范和注释习惯，能够独立完成复杂功能模块的开发与调试。4.沟通协作：具备良好的沟通能力和团队协作精神，善于在跨部门团队中表达自己的想法，共同推动项目进展。5.学习能力：对技术有强烈的好奇心和求知欲，具备快速学习新知识、新技术的能力，能紧跟行业发展趋势。</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>北京优云优客信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>91110111MA01FDGT4B</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>20-99</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>200万</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>北京市昌平区</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>北京优云优客信息技术有限公司成立于2018年11月2日，注册资本200万元，公司所在地为高科技互联网公司云集的TBD云集中心 ，创业初期拥有员工人数36人，员工均曾经在上市公司接受过*的电话销售技能培训，且很多是销售界的百万销冠，公司有着*的销售团队和销售管理方法，系统化专业化的技能技巧培训。公司经营范围为技术开发、技术服务、技术推广;教育科技开发;旅游资源开发(不含旅游业务);产品设计;网页设计;设计、制作、代理、发布广告;家居装饰及设计;市场营销策划;自费出国留学中介服务;企业管理咨询、经济信息咨询、商务信息咨询、旅游信息咨询、环保技术咨询(中介除外);企业管理;财务咨询(不得开展审计、验资、查帐、评估、会计咨询等需经专项审批的业务,不得出具相应的审计报告、验资报告、查帐报告、评估报告等文字材料);基础软件服务;应用软件服务;软件开发;互联网信息服务。(企业依法自主选择经营项目,开展经营活动;互联网信息服务以及依法须经批准的项目,经相关部门批准后依批准的内容开展经营活动;不得从事本市产业政策禁止和限制类项目的经营活动。)优云优客致力成为一家将*优质的服务给到*优秀的客户的互联网新兴</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Web前端</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>20000</v>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>北京 - 昌平</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>7</v>
+      </c>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>1.主导App全流程开发：负责安卓和iOS系统App的设计与开发，从需求分析、架构设计到代码实现，确保产品高质量交付。2.优化用户体验：对App进行性能优化，提升应用的稳定性、流畅度以及用户体验，保障应用在不同设备和系统版本上的兼容性。3.协同创新：与产品、设计和后端团队紧密合作，参与产品功能讨论，为产品迭代提供专业的技术建议，实现产品的创新与优化。4.攻克技术难题：深入研究并解决开发过程中遇到的复杂技术问题，持续关注行业前沿技术，为团队引入新技术、新方法。二、</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>1.与专业：及以上，计算机科学、软件工程等相关专业，扎实的专业知识是您的敲门砖。2.开发经验：拥有3年以上前端、安卓或iOSApp开发经验，有完整的项目开发经历，熟悉敏捷开发流程，能主导或深度参与过至少一款成功上线的App开发。3.技术能力-原型设计：熟练使用至少一种原型设计工具，能输出高质量的能落地的设计稿。-安卓开发：熟练掌握Java或Kotlin语言，熟悉安卓开发框架和常用设计模式，精通安卓UI设计、多线程、网络通信等开发技术（复杂场景下结合Uni-app解决问题）。-iOS开发：熟练掌握Swift或Objective-C语言，熟悉iOS开发框架，对iOS界面设计规范、内存管理机制有深入理解（复杂场景下结合Uni-app解决问题）。-其他：熟练掌握Uni-app开发，熟悉常用的第三方库和工具，具备良好的代码规范和注释习惯，能够独立完成复杂功能模块的开发与调试。4.沟通协作：具备良好的沟通能力和团队协作精神，善于在跨部门团队中表达自己的想法，共同推动项目进展。5.学习能力：对技术有强烈的好奇心和求知欲，具备快速学习新知识、新技术的能力，能紧跟行业发展趋势。</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>上海子年信息系统有限公司</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>有限责任公司</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>91310107MA1G14N9XD</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>500万</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>北京市朝阳区</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>电信网络工程师</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>非面谈</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>北京 - 朝阳</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>经验不限</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>6</v>
+      </c>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>桌面运维工程师</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>及时处理客户需求教育背景：及以上行业经验：3年岗位经验：2年及以上Security+等安全。岗位经验：3-5年教育背景：及以上工作职责机房管理:负责机房管理，包括但不限于:机房出入管理、资产管理，与各供应商对接进行机房内布局、设备安装、线缆管理等工作。Cabling:具备cabling故障排查能力，能与Cabling供应商对接进行cabling故障排查和维修确保数据点为网络连通性和稳定性。用户支持:负责四方城用户支持和服务，解决用户在网络和基础设施使用过程中遇到的基本问题。做好信息收集，并与其他技术团队合作以解决复杂问题。网络设备:进行网络设备或业务的基本排查，包括但不限于设备状态、基本故障诊断等工终技术支持:协助团队完成其他相关的技术支持工作。职位要求经验:具有相关工作经历和技术专业背景，特别是在机房管理和网络维护方面有丰富经验。技能:熟悉机房设备布局和线缆管理，并具有良好的操作和维护能力。:拥有CCNA或同等的技术能力，并对网络设备有深入的理解和操作经验，熟练学握网络基本技术，如TCP/IP，DNS，DHCP沟通能力:具有良好的沟通能力和团队合作精神，能有效解决技术问题并与用户进行</t>
         </is>
       </c>
     </row>
